--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0A7480-57C5-425F-9346-F3C463DA761F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539EF59-CD2D-491E-880D-6CD7AD4C4618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" activeTab="5" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="2" r:id="rId1"/>
@@ -9517,11 +9517,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9537,6 +9537,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -10828,16 +10838,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -10869,8 +10869,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="130"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11175,9 +11175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
   <dimension ref="A1:D741"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D232" sqref="D232"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -21548,85 +21548,85 @@
   <dataConsolidate/>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D736:D738 F669:F732 E540:E600 D1:D22 D24:D47 D49:D539 D742:D1048576">
-    <cfRule type="duplicateValues" dxfId="129" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738 A366:A367 A522:A539 A369:A520 A253:A364 A188:A251 A1:A186 A742:A1048576">
-    <cfRule type="duplicateValues" dxfId="128" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738 A522:A539 A1:A520 A742:A1048576">
-    <cfRule type="duplicateValues" dxfId="127" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A594:A600 A540:A541 A590 A573:A583 A556:A559 A561:A570 A543:A554">
-    <cfRule type="duplicateValues" dxfId="126" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738 A1:A600 A742:A1048576">
-    <cfRule type="duplicateValues" dxfId="125" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A601:A629 A631:A633 A635:A640">
-    <cfRule type="duplicateValues" dxfId="124" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A630">
-    <cfRule type="duplicateValues" dxfId="123" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A601:A633 A635:A640">
-    <cfRule type="duplicateValues" dxfId="122" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D601:D629 D631:D640">
-    <cfRule type="duplicateValues" dxfId="121" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738 A1:A633 A635:A640 A742:A1048576">
-    <cfRule type="duplicateValues" dxfId="120" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738 A742:A1048576">
-    <cfRule type="duplicateValues" dxfId="119" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="118" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="117" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D736:D738 D1:D640 D742:D1048576">
-    <cfRule type="duplicateValues" dxfId="116" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A680:A682">
-    <cfRule type="duplicateValues" dxfId="115" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A680:A682">
-    <cfRule type="duplicateValues" dxfId="114" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A680:A682">
-    <cfRule type="duplicateValues" dxfId="113" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A700">
-    <cfRule type="duplicateValues" dxfId="112" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D680:D699">
-    <cfRule type="duplicateValues" dxfId="111" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D680:D699 D701:D712 D714:D719 D721:D722 D724">
-    <cfRule type="duplicateValues" dxfId="110" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A720">
-    <cfRule type="duplicateValues" dxfId="109" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731">
-    <cfRule type="duplicateValues" dxfId="108" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731">
-    <cfRule type="duplicateValues" dxfId="107" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A734:A735">
-    <cfRule type="duplicateValues" dxfId="106" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A734:A735">
-    <cfRule type="duplicateValues" dxfId="105" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A739:A741">
-    <cfRule type="duplicateValues" dxfId="104" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A739:A741">
-    <cfRule type="duplicateValues" dxfId="103" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23357,15 +23357,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>947</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
@@ -27308,7 +27308,7 @@
     <sortCondition ref="A2:A91"/>
   </sortState>
   <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
-    <cfRule type="duplicateValues" dxfId="102" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28147,43 +28147,43 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="duplicateValues" dxfId="101" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="100" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="duplicateValues" dxfId="99" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="duplicateValues" dxfId="98" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A44">
-    <cfRule type="duplicateValues" dxfId="97" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="96" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="95" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="94" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="93" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="92" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="91" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="duplicateValues" dxfId="90" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="89" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28947,28 +28947,28 @@
     <sortCondition ref="A2:A68"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="88" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="87" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="86" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="85" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="84" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="83" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="82" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A67 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="81" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29798,28 +29798,28 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="80" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="79" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="78" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="77" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29830,7 +29830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22A977-6172-41B2-8CE6-0AA3B151CA9C}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -30263,7 +30263,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="82" t="s">
         <v>2981</v>
       </c>
       <c r="B31" s="54" t="s">
@@ -30473,30 +30473,30 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="81" t="s">
         <v>2884</v>
       </c>
       <c r="B46" s="51" t="s">
         <v>2885</v>
       </c>
-      <c r="C46" s="82" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D46" s="82" t="s">
+      <c r="C46" s="81" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D46" s="81" t="s">
         <v>2886</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="81" t="s">
         <v>2887</v>
       </c>
       <c r="B47" s="51" t="s">
         <v>2888</v>
       </c>
-      <c r="C47" s="82" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D47" s="82" t="s">
+      <c r="C47" s="81" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D47" s="81" t="s">
         <v>2889</v>
       </c>
     </row>
@@ -30857,211 +30857,211 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="72" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="71" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="69" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="68" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="67" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="66" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="65" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="64" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="63" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="62" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="61" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="60" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="59" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="58" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="57" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="56" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="55" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="54" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="53" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="52" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="51" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="50" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="49" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="47" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="46" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="45" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="44" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="41" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="39" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="37" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A48 A1:A44 A52:A53 A56 A61 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="32" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A1:A58 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="24" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31961,13 +31961,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B13">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539EF59-CD2D-491E-880D-6CD7AD4C4618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB1AF8-CC12-4450-8F0E-5F66359EB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -11176,8 +11176,8 @@
   <dimension ref="A1:D741"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB1AF8-CC12-4450-8F0E-5F66359EB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5428EEDD-67F9-449D-BBF1-BD9A66B2D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="2412" yWindow="336" windowWidth="17280" windowHeight="8880" tabRatio="891" activeTab="6" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="2" r:id="rId1"/>
-    <sheet name="Beginning Zdetl Lesson 2 Vocab" sheetId="10" r:id="rId2"/>
-    <sheet name="Beginning Zdetl Lesson 3 Voc" sheetId="11" r:id="rId3"/>
-    <sheet name="BZ Lesson 4 Vocabulary" sheetId="12" r:id="rId4"/>
-    <sheet name="BZ Lesson 5 Vocabulary" sheetId="14" r:id="rId5"/>
-    <sheet name="BZ Lesson 6 Vocabulary" sheetId="15" r:id="rId6"/>
-    <sheet name="Pronunciation Guide" sheetId="13" r:id="rId7"/>
-    <sheet name="Common suffixes" sheetId="7" r:id="rId8"/>
-    <sheet name="Common prefixes" sheetId="9" r:id="rId9"/>
-    <sheet name="Zhdetl (from Alien Book 4)" sheetId="5" r:id="rId10"/>
-    <sheet name="Root Words (from other lists)" sheetId="3" r:id="rId11"/>
-    <sheet name="Correlative Words" sheetId="6" r:id="rId12"/>
-    <sheet name="Verb forms and conjugations" sheetId="4" r:id="rId13"/>
-    <sheet name="Conjunctions and logical forms" sheetId="8" r:id="rId14"/>
-    <sheet name="Lessons" sheetId="1" state="hidden" r:id="rId15"/>
+    <sheet name="BZ 2 Vocabulary" sheetId="10" r:id="rId2"/>
+    <sheet name="BZ 3 Vocabulary" sheetId="11" r:id="rId3"/>
+    <sheet name="BZ 4 Vocabulary" sheetId="12" r:id="rId4"/>
+    <sheet name="BZ 5 Vocabulary" sheetId="14" r:id="rId5"/>
+    <sheet name="BZ 6 Vocabulary" sheetId="15" r:id="rId6"/>
+    <sheet name="BZ 7 Vocabulary" sheetId="16" r:id="rId7"/>
+    <sheet name="Pronunciation Guide" sheetId="13" r:id="rId8"/>
+    <sheet name="Common suffixes" sheetId="7" r:id="rId9"/>
+    <sheet name="Common prefixes" sheetId="9" r:id="rId10"/>
+    <sheet name="Zhdetl (from Alien Book 4)" sheetId="5" r:id="rId11"/>
+    <sheet name="Root Words (from other lists)" sheetId="3" r:id="rId12"/>
+    <sheet name="Correlative Words" sheetId="6" r:id="rId13"/>
+    <sheet name="Verb forms and conjugations" sheetId="4" r:id="rId14"/>
+    <sheet name="Conjunctions and logical forms" sheetId="8" r:id="rId15"/>
+    <sheet name="Lessons" sheetId="1" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BZ Lesson 4 Vocabulary'!$A$1:$A$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Lessons!$A$1:$C$229</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lexicon!$A$1:$D$726</definedName>
-    <definedName name="ExternalData_1" localSheetId="9" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BZ 4 Vocabulary'!$A$1:$A$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Lessons!$A$1:$C$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lexicon!$A$1:$D$741</definedName>
+    <definedName name="ExternalData_1" localSheetId="10" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="3027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5611" uniqueCount="3066">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -9167,13 +9168,130 @@
   </si>
   <si>
     <t>to lack the opportunity</t>
+  </si>
+  <si>
+    <t>kiatok</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>KĨTOK</t>
+  </si>
+  <si>
+    <t>topan</t>
+  </si>
+  <si>
+    <t>TOPAN</t>
+  </si>
+  <si>
+    <t>zero (number)</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>marsh</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>ice cap</t>
+  </si>
+  <si>
+    <t>north pole</t>
+  </si>
+  <si>
+    <t>south pole</t>
+  </si>
+  <si>
+    <t>mitlatl</t>
+  </si>
+  <si>
+    <t>chapatl</t>
+  </si>
+  <si>
+    <t>ziepre</t>
+  </si>
+  <si>
+    <t>ZĪṔE</t>
+  </si>
+  <si>
+    <t>zieprnal</t>
+  </si>
+  <si>
+    <t>ZĪṔNAL</t>
+  </si>
+  <si>
+    <t>tlachaka</t>
+  </si>
+  <si>
+    <t>ṪAĈAKA</t>
+  </si>
+  <si>
+    <t>kliazhatl</t>
+  </si>
+  <si>
+    <t>ḰĨŹAṪ</t>
+  </si>
+  <si>
+    <t>chiatla</t>
+  </si>
+  <si>
+    <t>ĈĨṪA</t>
+  </si>
+  <si>
+    <t>kliazhyetl</t>
+  </si>
+  <si>
+    <t>ḰĨŹYEṪ</t>
+  </si>
+  <si>
+    <t>ashkliazh</t>
+  </si>
+  <si>
+    <t>AŚḰĨŹ</t>
+  </si>
+  <si>
+    <t>ashkliazhatl</t>
+  </si>
+  <si>
+    <t>AŚḰĨŹAṪ</t>
+  </si>
+  <si>
+    <t>MIṪAṪ</t>
+  </si>
+  <si>
+    <t>ĈAPAṪ</t>
+  </si>
+  <si>
+    <t>toyak</t>
+  </si>
+  <si>
+    <t>TOYAK</t>
+  </si>
+  <si>
+    <t>river</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9337,6 +9455,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ZhoGlyph"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ZhoGlyph"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9411,7 +9545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9522,12 +9656,165 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="147">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10869,8 +11156,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11173,11 +11460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:D741"/>
+  <dimension ref="A1:D744"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -13756,7 +14043,7 @@
         <v>1068</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>1269</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -18200,7 +18487,7 @@
         <v>1068</v>
       </c>
       <c r="D502" s="14" t="s">
-        <v>51</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -21540,93 +21827,135 @@
         <v>3026</v>
       </c>
     </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A742" s="10" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B742" s="48" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C742" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D742" s="10" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A743" s="10" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B743" s="48" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C743" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D743" s="10" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A744" s="10" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B744" s="48" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C744" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D744" s="10" t="s">
+        <v>3035</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D726" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <autoFilter ref="A1:D741" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D733">
     <sortCondition ref="A2:A733"/>
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D736:D738 F669:F732 E540:E600 D1:D22 D24:D47 D49:D539 D742:D1048576">
-    <cfRule type="duplicateValues" dxfId="131" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738 A366:A367 A522:A539 A369:A520 A253:A364 A188:A251 A1:A186 A742:A1048576">
-    <cfRule type="duplicateValues" dxfId="130" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738 A522:A539 A1:A520 A742:A1048576">
-    <cfRule type="duplicateValues" dxfId="129" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A594:A600 A540:A541 A590 A573:A583 A556:A559 A561:A570 A543:A554">
-    <cfRule type="duplicateValues" dxfId="128" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738 A1:A600 A742:A1048576">
-    <cfRule type="duplicateValues" dxfId="127" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A601:A629 A631:A633 A635:A640">
-    <cfRule type="duplicateValues" dxfId="126" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A630">
-    <cfRule type="duplicateValues" dxfId="125" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A601:A633 A635:A640">
-    <cfRule type="duplicateValues" dxfId="124" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D601:D629 D631:D640">
-    <cfRule type="duplicateValues" dxfId="123" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738 A1:A633 A635:A640 A742:A1048576">
-    <cfRule type="duplicateValues" dxfId="122" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738 A742:A1048576">
-    <cfRule type="duplicateValues" dxfId="121" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="120" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="119" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D736:D738 D1:D640 D742:D1048576">
-    <cfRule type="duplicateValues" dxfId="118" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A680:A682">
-    <cfRule type="duplicateValues" dxfId="117" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A680:A682">
-    <cfRule type="duplicateValues" dxfId="116" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A680:A682">
-    <cfRule type="duplicateValues" dxfId="115" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A700">
-    <cfRule type="duplicateValues" dxfId="114" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D680:D699">
-    <cfRule type="duplicateValues" dxfId="113" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D680:D699 D701:D712 D714:D719 D721:D722 D724">
-    <cfRule type="duplicateValues" dxfId="112" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A720">
-    <cfRule type="duplicateValues" dxfId="111" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731">
-    <cfRule type="duplicateValues" dxfId="110" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731">
-    <cfRule type="duplicateValues" dxfId="109" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A734:A735">
-    <cfRule type="duplicateValues" dxfId="108" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A734:A735">
-    <cfRule type="duplicateValues" dxfId="107" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A739:A741">
-    <cfRule type="duplicateValues" dxfId="106" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A739:A741">
-    <cfRule type="duplicateValues" dxfId="105" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21634,6 +21963,47 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661B0A92-BA8B-46DF-B4A5-F96CB1B57733}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BFE38-5763-453D-9FF5-A2457E37E84D}">
   <dimension ref="A1:B186"/>
   <sheetViews>
@@ -23141,7 +23511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB61E12-6C74-4701-A254-825366490294}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -23337,7 +23707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9877E8E-BB57-4FF2-A3FB-8FEBE988B88E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -23603,7 +23973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CA9072-8D62-4A02-9166-5FE417EB9B7F}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -23760,7 +24130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3353A3-B398-4076-8CF8-A68F635577B8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -23856,7 +24226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A37324B-2868-4E4C-8751-CECEDA1C21E7}">
   <dimension ref="A1:I234"/>
   <sheetViews>
@@ -26572,7 +26942,7 @@
     <sortCondition ref="A2:A119"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D33" location="'Zhdetl (from Alien Book 4)'!A19" display="'Zhdetl (from Alien Book 4)'!A19" xr:uid="{F22ED44C-2884-447F-9EEA-635AD96A4C7F}"/>
@@ -27308,7 +27678,7 @@
     <sortCondition ref="A2:A91"/>
   </sortState>
   <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
-    <cfRule type="duplicateValues" dxfId="104" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28147,43 +28517,43 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="duplicateValues" dxfId="103" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="102" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="duplicateValues" dxfId="101" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="duplicateValues" dxfId="100" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A44">
-    <cfRule type="duplicateValues" dxfId="99" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="98" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="97" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="96" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="95" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="94" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="93" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="duplicateValues" dxfId="92" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="91" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28947,28 +29317,28 @@
     <sortCondition ref="A2:A68"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="90" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="89" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="88" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="87" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="86" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="85" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="84" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A67 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="83" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29798,28 +30168,28 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="82" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="81" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="80" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="77" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29830,8 +30200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22A977-6172-41B2-8CE6-0AA3B151CA9C}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -30857,211 +31227,211 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="74" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="73" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="72" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="71" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="70" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="69" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="68" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="63" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="62" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="61" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="60" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="59" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="58" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="57" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="56" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="55" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="54" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="53" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="52" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="51" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="50" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="49" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="48" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="46" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="45" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="42" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="41" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="40" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="38" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A48 A1:A44 A52:A53 A56 A61 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="34" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="33" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A1:A58 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="30" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31069,6 +31439,466 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F72B619-F07E-4E67-B084-4F94FC5DF445}">
+  <dimension ref="A1:D76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="84"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="84"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="84"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="84"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="84"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="84"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="84"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="84"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="84"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="84"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="84"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="84"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="84"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="84"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="84"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="84"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="84"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="84"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="84"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="84"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="84"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="84"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="84"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="84"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="84"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="84"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="84"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="84"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="84"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="84"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="84"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="84"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="84"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="84"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="84"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="84"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="84"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="84"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="84"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="84"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="84"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="84"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="84"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="84"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="84"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="84"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="84"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="84"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="84"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="84"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="84"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="84"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="84"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="84"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="84"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="84"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="84"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="84"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="84"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="84"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="84"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41784C-9F42-4128-89B3-6E7D0464A767}">
   <dimension ref="A1:D53"/>
   <sheetViews>
@@ -31832,7 +32662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B86E83E-55B3-40BB-BA96-58035B5D13E3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -31961,55 +32791,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B13">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661B0A92-BA8B-46DF-B4A5-F96CB1B57733}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83561D5-7C11-401D-BDD0-8EE5AFACAE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD49830F-E0E6-4016-8254-CD80D83366E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" activeTab="8" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5716" uniqueCount="3113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="3121">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -9425,6 +9425,30 @@
   </si>
   <si>
     <t>dry</t>
+  </si>
+  <si>
+    <t>used to denote a unit of a larger whole</t>
+  </si>
+  <si>
+    <t>-aj</t>
+  </si>
+  <si>
+    <t>tezintli</t>
+  </si>
+  <si>
+    <t>TEZINṪI</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>ketli</t>
+  </si>
+  <si>
+    <t>KEṪI</t>
+  </si>
+  <si>
+    <t>snow</t>
   </si>
 </sst>
 </file>
@@ -9811,18 +9835,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="253">
+  <dxfs count="193">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9832,6 +9856,106 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -11643,706 +11767,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -12374,8 +11798,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="252"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="251"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12678,11 +12102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:D748"/>
+  <dimension ref="A1:D750"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A747" sqref="A747:XFD748"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A731" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A751" sqref="A751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -23143,6 +22567,34 @@
         <v>3112</v>
       </c>
     </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A749" s="10" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B749" s="48" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C749" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D749" s="10" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A750" s="10" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B750" s="48" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C750" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D750" s="10" t="s">
+        <v>3120</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D747" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D732">
@@ -23151,88 +22603,88 @@
   <dataConsolidate/>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D735:D737 F668:F731 E539:E599 D1:D22 D24:D47 D49:D538 D741:D1048576">
-    <cfRule type="duplicateValues" dxfId="181" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737 A365:A366 A521:A538 A368:A519 A253:A363 A188:A251 A1:A186 A741:A1048576">
-    <cfRule type="duplicateValues" dxfId="180" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737 A521:A538 A1:A519 A741:A1048576">
-    <cfRule type="duplicateValues" dxfId="179" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A593:A599 A539:A540 A589 A572:A582 A555:A558 A560:A569 A542:A553">
-    <cfRule type="duplicateValues" dxfId="178" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737 A1:A599 A741:A1048576">
-    <cfRule type="duplicateValues" dxfId="177" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A600:A628 A630:A632 A634:A639">
-    <cfRule type="duplicateValues" dxfId="176" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A629">
-    <cfRule type="duplicateValues" dxfId="175" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A600:A632 A634:A639">
-    <cfRule type="duplicateValues" dxfId="174" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D600:D628 D630:D639">
-    <cfRule type="duplicateValues" dxfId="173" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737 A1:A632 A634:A639 A741:A1048576">
-    <cfRule type="duplicateValues" dxfId="172" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737 A741:A1048576">
-    <cfRule type="duplicateValues" dxfId="171" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="170" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="169" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D735:D737 D1:D639 D741:D1048576">
-    <cfRule type="duplicateValues" dxfId="168" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679:A681">
-    <cfRule type="duplicateValues" dxfId="167" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679:A681">
-    <cfRule type="duplicateValues" dxfId="166" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679:A681">
-    <cfRule type="duplicateValues" dxfId="165" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A699">
-    <cfRule type="duplicateValues" dxfId="164" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D679:D698">
-    <cfRule type="duplicateValues" dxfId="163" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D679:D698 D700:D711 D713:D718 D720:D721 D723">
-    <cfRule type="duplicateValues" dxfId="162" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A719">
-    <cfRule type="duplicateValues" dxfId="161" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A730">
-    <cfRule type="duplicateValues" dxfId="160" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A730">
-    <cfRule type="duplicateValues" dxfId="159" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A733:A734">
-    <cfRule type="duplicateValues" dxfId="158" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A733:A734">
-    <cfRule type="duplicateValues" dxfId="157" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A738:A740">
-    <cfRule type="duplicateValues" dxfId="156" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A738:A740">
-    <cfRule type="duplicateValues" dxfId="155" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="154" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24963,15 +24415,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>947</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
@@ -28178,7 +27630,7 @@
     <sortCondition ref="A2:A119"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D33" location="'Zhdetl (from Alien Book 4)'!A19" display="'Zhdetl (from Alien Book 4)'!A19" xr:uid="{F22ED44C-2884-447F-9EEA-635AD96A4C7F}"/>
@@ -28914,7 +28366,7 @@
     <sortCondition ref="A2:A91"/>
   </sortState>
   <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
-    <cfRule type="duplicateValues" dxfId="153" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29753,43 +29205,43 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="duplicateValues" dxfId="152" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="151" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="duplicateValues" dxfId="150" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="duplicateValues" dxfId="149" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A44">
-    <cfRule type="duplicateValues" dxfId="148" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="147" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="146" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="145" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="144" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="143" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="142" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="duplicateValues" dxfId="141" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="140" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30553,28 +30005,28 @@
     <sortCondition ref="A2:A68"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="139" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="138" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="137" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="136" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="135" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="134" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="133" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A67 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="132" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31404,28 +30856,28 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="131" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="130" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="129" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="128" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="127" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="126" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="125" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="124" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32463,211 +31915,211 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="123" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="122" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="121" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="120" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="119" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="118" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="117" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="116" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="115" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="114" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="113" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="112" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="111" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="110" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="109" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="108" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="107" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="106" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="105" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="104" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="103" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="102" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="101" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="100" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="99" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="98" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="97" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="96" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="95" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="94" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="93" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="92" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="91" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="90" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="89" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="88" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="87" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="duplicateValues" dxfId="86" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="duplicateValues" dxfId="85" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A48 A1:A44 A52:A53 A56 A61 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="84" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="83" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="82" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A1:A58 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="81" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="80" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="79" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="78" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="77" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="76" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="75" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="74" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="73" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="72" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="71" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="70" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="69" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="68" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="67" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="66" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="65" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="64" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="63" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="62" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="61" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="60" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="59" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32679,7 +32131,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33055,7 +32507,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="90" t="s">
         <v>1186</v>
       </c>
       <c r="B27" s="83" t="s">
@@ -33064,12 +32516,12 @@
       <c r="C27" s="14" t="s">
         <v>1069</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="90" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="90" t="s">
         <v>1051</v>
       </c>
       <c r="B28" s="83" t="s">
@@ -33078,12 +32530,12 @@
       <c r="C28" s="14" t="s">
         <v>1069</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="90" t="s">
         <v>3092</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="90" t="s">
         <v>1169</v>
       </c>
       <c r="B29" s="83" t="s">
@@ -33092,12 +32544,12 @@
       <c r="C29" s="14" t="s">
         <v>1068</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="90" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="90" t="s">
         <v>3071</v>
       </c>
       <c r="B30" s="83" t="s">
@@ -33106,12 +32558,12 @@
       <c r="C30" s="14" t="s">
         <v>1079</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="90" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="90" t="s">
         <v>1143</v>
       </c>
       <c r="B31" s="83" t="s">
@@ -33120,12 +32572,12 @@
       <c r="C31" s="14" t="s">
         <v>1079</v>
       </c>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="90" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="90" t="s">
         <v>2471</v>
       </c>
       <c r="B32" s="83" t="s">
@@ -33134,12 +32586,12 @@
       <c r="C32" s="14" t="s">
         <v>1069</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="D32" s="90" t="s">
         <v>3106</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="90" t="s">
         <v>3073</v>
       </c>
       <c r="B33" s="83" t="s">
@@ -33148,12 +32600,12 @@
       <c r="C33" s="14" t="s">
         <v>1079</v>
       </c>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="90" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="90" t="s">
         <v>2749</v>
       </c>
       <c r="B34" s="83" t="s">
@@ -33162,7 +32614,7 @@
       <c r="C34" s="14" t="s">
         <v>1079</v>
       </c>
-      <c r="D34" s="91" t="s">
+      <c r="D34" s="90" t="s">
         <v>2747</v>
       </c>
     </row>
@@ -33194,11 +32646,33 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="83"/>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>3117</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="83"/>
+      <c r="A38" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B38" s="83" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3120</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="83"/>
@@ -33310,157 +32784,181 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="54" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="53" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="52" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="51" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="50" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="49" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="48" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="46" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="45" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="42" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="41" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="40" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="38" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="36" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="35" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="34" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="24" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A34 A37:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+  <conditionalFormatting sqref="A1:A34 A38:A1048576">
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -34233,9 +33731,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B86E83E-55B3-40BB-BA96-58035B5D13E3}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -34401,15 +33899,23 @@
         <v>3068</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3113</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B13">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD49830F-E0E6-4016-8254-CD80D83366E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC9A43-1580-4499-8758-B3AC1E8C3D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" activeTab="6" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="3121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5770" uniqueCount="3142">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -7207,9 +7207,6 @@
     <t>SARKIKAŚĨ</t>
   </si>
   <si>
-    <t>ŚANJ</t>
-  </si>
-  <si>
     <t>ŚĨNJO</t>
   </si>
   <si>
@@ -9449,6 +9446,72 @@
   </si>
   <si>
     <t>snow</t>
+  </si>
+  <si>
+    <t>preqlianz</t>
+  </si>
+  <si>
+    <t>area or province</t>
+  </si>
+  <si>
+    <t>ṔEỜNZ</t>
+  </si>
+  <si>
+    <t>achablr</t>
+  </si>
+  <si>
+    <t>AĈAḂŘ</t>
+  </si>
+  <si>
+    <t>ek</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>kasha-</t>
+  </si>
+  <si>
+    <t>a container</t>
+  </si>
+  <si>
+    <t>KAŚA-</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>still, yet, currently</t>
+  </si>
+  <si>
+    <t>AĈANE</t>
+  </si>
+  <si>
+    <t>achane</t>
+  </si>
+  <si>
+    <t>cakes, pastries</t>
+  </si>
+  <si>
+    <t>rintchima</t>
+  </si>
+  <si>
+    <t>RINTĈIMA</t>
+  </si>
+  <si>
+    <t>umbrella</t>
+  </si>
+  <si>
+    <t>rintchakia</t>
+  </si>
+  <si>
+    <t>RINTĈAKĨ</t>
+  </si>
+  <si>
+    <t>raincoat</t>
   </si>
 </sst>
 </file>
@@ -9714,7 +9777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9841,22 +9904,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="193">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="200">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11767,6 +11821,86 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -11798,8 +11932,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12102,11 +12236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:D750"/>
+  <dimension ref="A1:D751"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A731" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A751" sqref="A751"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -12162,7 +12296,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>2005</v>
@@ -12176,7 +12310,7 @@
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>2003</v>
@@ -12185,7 +12319,7 @@
         <v>1068</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -12241,7 +12375,7 @@
         <v>1069</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -12269,12 +12403,12 @@
         <v>1069</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>2010</v>
@@ -12297,12 +12431,12 @@
         <v>1068</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>2012</v>
@@ -12311,12 +12445,12 @@
         <v>1069</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>2013</v>
@@ -12325,12 +12459,12 @@
         <v>1068</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>2014</v>
@@ -12339,7 +12473,7 @@
         <v>1068</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -12358,72 +12492,72 @@
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D18" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B19" s="46" t="s">
         <v>2697</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>2698</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D19" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B20" s="46" t="s">
         <v>2673</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>2674</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D20" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>2670</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>2671</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D21" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D22" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -12442,44 +12576,44 @@
     </row>
     <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="55" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="D24" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="55" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B25" s="46" t="s">
         <v>2667</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>2668</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="D25" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D26" t="s">
         <v>2624</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2625</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -12526,7 +12660,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>2016</v>
@@ -12535,7 +12669,7 @@
         <v>1069</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -12596,10 +12730,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B35" s="49" t="s">
         <v>3071</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>3072</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>1079</v>
@@ -12633,7 +12767,7 @@
         <v>1068</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -12647,7 +12781,7 @@
         <v>1068</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -12655,13 +12789,13 @@
         <v>107</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>1068</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -12745,7 +12879,7 @@
         <v>1068</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -12759,7 +12893,7 @@
         <v>1068</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -12792,7 +12926,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B49" s="50" t="s">
         <v>2029</v>
@@ -12801,12 +12935,12 @@
         <v>1068</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B50" s="50" t="s">
         <v>2030</v>
@@ -12815,7 +12949,7 @@
         <v>1068</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -12834,16 +12968,16 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B52" s="49" t="s">
         <v>2541</v>
       </c>
-      <c r="B52" s="49" t="s">
-        <v>2542</v>
-      </c>
       <c r="C52" s="14" t="s">
         <v>1068</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -12862,7 +12996,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B54" s="49" t="s">
         <v>2034</v>
@@ -12876,7 +13010,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B55" s="49" t="s">
         <v>2032</v>
@@ -12932,7 +13066,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B59" s="49" t="s">
         <v>2038</v>
@@ -12946,7 +13080,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B60" s="50" t="s">
         <v>2039</v>
@@ -12955,12 +13089,12 @@
         <v>1069</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B61" s="53" t="s">
         <v>2040</v>
@@ -12969,7 +13103,7 @@
         <v>1069</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -12983,7 +13117,7 @@
         <v>1068</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -13086,7 +13220,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B70" s="52" t="s">
         <v>2046</v>
@@ -13100,7 +13234,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B71" s="52" t="s">
         <v>2047</v>
@@ -13114,14 +13248,14 @@
     </row>
     <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="57" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B72" s="71" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="75" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -13140,16 +13274,16 @@
     </row>
     <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="57" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B74" s="71" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D74" s="23" t="s">
         <v>2680</v>
-      </c>
-      <c r="B74" s="71" t="s">
-        <v>2690</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -13177,7 +13311,7 @@
         <v>101</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -13224,16 +13358,16 @@
     </row>
     <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="57" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B80" s="71" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="C80" s="22" t="s">
         <v>1079</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -13252,16 +13386,16 @@
     </row>
     <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="57" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B82" s="71" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -13300,7 +13434,7 @@
         <v>1325</v>
       </c>
       <c r="C85" s="59" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>1300</v>
@@ -13317,7 +13451,7 @@
         <v>1068</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -13336,7 +13470,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B88" s="52" t="s">
         <v>2057</v>
@@ -13350,7 +13484,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="17" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B89" s="52" t="s">
         <v>2058</v>
@@ -13423,7 +13557,7 @@
         <v>1422</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>1069</v>
@@ -13434,21 +13568,21 @@
     </row>
     <row r="95" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="57" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B95" s="71" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D95" s="23" t="s">
         <v>2654</v>
-      </c>
-      <c r="B95" s="71" t="s">
-        <v>2663</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>2655</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B96" s="53" t="s">
         <v>2145</v>
@@ -13457,7 +13591,7 @@
         <v>1069</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -13672,7 +13806,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B112" s="52" t="s">
         <v>2154</v>
@@ -13700,16 +13834,16 @@
     </row>
     <row r="114" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="57" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B114" s="71" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C114" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -13756,7 +13890,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B118" s="53" t="s">
         <v>2158</v>
@@ -13835,7 +13969,7 @@
         <v>1069</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -13905,7 +14039,7 @@
         <v>1068</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -13916,7 +14050,7 @@
         <v>1464</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>1471</v>
@@ -13938,10 +14072,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="57" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B131" s="53" t="s">
         <v>2804</v>
-      </c>
-      <c r="B131" s="53" t="s">
-        <v>2805</v>
       </c>
       <c r="C131" s="21" t="s">
         <v>1069</v>
@@ -13955,7 +14089,7 @@
         <v>1442</v>
       </c>
       <c r="B132" s="53" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C132" s="21" t="s">
         <v>1068</v>
@@ -13980,16 +14114,16 @@
     </row>
     <row r="134" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="57" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B134" s="71" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D134" s="23" t="s">
         <v>2614</v>
-      </c>
-      <c r="B134" s="71" t="s">
-        <v>2635</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>2615</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -14017,7 +14151,7 @@
         <v>1068</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -14031,7 +14165,7 @@
         <v>1068</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -14059,7 +14193,7 @@
         <v>1068</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -14115,7 +14249,7 @@
         <v>1068</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -14129,7 +14263,7 @@
         <v>1068</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -14143,7 +14277,7 @@
         <v>1068</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -14157,7 +14291,7 @@
         <v>1069</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -14169,7 +14303,7 @@
       </c>
       <c r="C147" s="21"/>
       <c r="D147" s="23" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -14183,7 +14317,7 @@
         <v>1069</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -14211,7 +14345,7 @@
         <v>1068</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -14225,7 +14359,7 @@
         <v>1068</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -14239,7 +14373,7 @@
         <v>1068</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -14267,7 +14401,7 @@
         <v>1068</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -14281,7 +14415,7 @@
         <v>1068</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -14295,7 +14429,7 @@
         <v>1068</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -14356,16 +14490,16 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B161" s="52" t="s">
         <v>2493</v>
       </c>
-      <c r="B161" s="52" t="s">
-        <v>2494</v>
-      </c>
       <c r="C161" s="21" t="s">
         <v>1068</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -14379,7 +14513,7 @@
         <v>1068</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -14393,7 +14527,7 @@
         <v>1068</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -14407,7 +14541,7 @@
         <v>1068</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -14435,7 +14569,7 @@
         <v>1079</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -14477,7 +14611,7 @@
         <v>1068</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -14513,7 +14647,7 @@
         <v>208</v>
       </c>
       <c r="B172" s="53" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>1068</v>
@@ -14527,7 +14661,7 @@
         <v>210</v>
       </c>
       <c r="B173" s="53" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>1068</v>
@@ -14552,30 +14686,30 @@
     </row>
     <row r="175" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="57" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B175" s="71" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C175" s="22" t="s">
         <v>1079</v>
       </c>
       <c r="D175" s="75" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="57" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B176" s="71" t="s">
         <v>2768</v>
-      </c>
-      <c r="B176" s="71" t="s">
-        <v>2769</v>
       </c>
       <c r="C176" s="22" t="s">
         <v>1079</v>
       </c>
       <c r="D176" s="75" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -14636,28 +14770,28 @@
     </row>
     <row r="181" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="57" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B181" s="71" t="s">
         <v>2780</v>
-      </c>
-      <c r="B181" s="71" t="s">
-        <v>2781</v>
       </c>
       <c r="C181" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D181" s="75" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="57" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B182" s="71" t="s">
         <v>2694</v>
-      </c>
-      <c r="B182" s="71" t="s">
-        <v>2695</v>
       </c>
       <c r="C182" s="22"/>
       <c r="D182" s="23" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -14802,7 +14936,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="B193" s="53" t="s">
         <v>2206</v>
@@ -14811,7 +14945,7 @@
         <v>1069</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -14833,7 +14967,7 @@
         <v>1428</v>
       </c>
       <c r="B195" s="53" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C195" s="21" t="s">
         <v>1068</v>
@@ -14937,7 +15071,7 @@
         <v>1079</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -14951,7 +15085,7 @@
         <v>1068</v>
       </c>
       <c r="D203" s="16" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -14979,7 +15113,7 @@
         <v>1068</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -14993,7 +15127,7 @@
         <v>1068</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -15007,7 +15141,7 @@
         <v>1068</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -15021,7 +15155,7 @@
         <v>1068</v>
       </c>
       <c r="D208" s="16" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -15049,7 +15183,7 @@
         <v>101</v>
       </c>
       <c r="D210" s="19" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -15063,7 +15197,7 @@
         <v>1068</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -15096,16 +15230,16 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="57" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B214" s="54" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D214" s="23" t="s">
         <v>2814</v>
-      </c>
-      <c r="B214" s="54" t="s">
-        <v>2817</v>
-      </c>
-      <c r="C214" s="22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D214" s="23" t="s">
-        <v>2815</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -15119,7 +15253,7 @@
         <v>1068</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -15138,16 +15272,16 @@
     </row>
     <row r="217" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="57" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B217" s="71" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="C217" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D217" s="75" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -15166,10 +15300,10 @@
     </row>
     <row r="219" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="57" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B219" s="73" t="s">
         <v>2539</v>
-      </c>
-      <c r="B219" s="73" t="s">
-        <v>2540</v>
       </c>
       <c r="C219" s="22" t="s">
         <v>1068</v>
@@ -15194,10 +15328,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="17" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B221" s="52" t="s">
         <v>3085</v>
-      </c>
-      <c r="B221" s="52" t="s">
-        <v>3086</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>1079</v>
@@ -15236,10 +15370,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B224" s="52" t="s">
         <v>3073</v>
-      </c>
-      <c r="B224" s="52" t="s">
-        <v>3074</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>1079</v>
@@ -15301,7 +15435,7 @@
         <v>1068</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -15334,16 +15468,16 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="64" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>1069</v>
       </c>
       <c r="D231" s="65" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -15421,10 +15555,10 @@
         <v>1601</v>
       </c>
       <c r="B237" s="49" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D237" s="14" t="s">
         <v>1603</v>
@@ -15452,7 +15586,7 @@
         <v>1622</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D239" s="25" t="s">
         <v>1617</v>
@@ -15497,7 +15631,7 @@
         <v>1068</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -15522,7 +15656,7 @@
         <v>1620</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D244" s="25" t="s">
         <v>1613</v>
@@ -15553,7 +15687,7 @@
         <v>1068</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -15567,7 +15701,7 @@
         <v>1069</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -15581,7 +15715,7 @@
         <v>1068</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -15595,7 +15729,7 @@
         <v>1069</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -15614,7 +15748,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="11" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B251" s="50" t="s">
         <v>2241</v>
@@ -15623,7 +15757,7 @@
         <v>1069</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -15651,7 +15785,7 @@
         <v>1068</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -15662,7 +15796,7 @@
         <v>1455</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>1456</v>
@@ -15684,7 +15818,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B256" s="50" t="s">
         <v>2244</v>
@@ -15693,7 +15827,7 @@
         <v>1068</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -15808,44 +15942,44 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="14" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B265" s="51" t="s">
         <v>2971</v>
-      </c>
-      <c r="B265" s="51" t="s">
-        <v>2972</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>1069</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" s="55" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B266" s="46" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="C266" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D266" s="65" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="55" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B267" s="46" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="C267" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D267" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -15892,7 +16026,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B271" s="50" t="s">
         <v>2251</v>
@@ -15901,7 +16035,7 @@
         <v>1069</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -15915,7 +16049,7 @@
         <v>1068</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -15934,7 +16068,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="14" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B274" s="49" t="s">
         <v>2253</v>
@@ -15943,7 +16077,7 @@
         <v>1079</v>
       </c>
       <c r="D274" s="14" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -15990,14 +16124,14 @@
     </row>
     <row r="278" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A278" s="55" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B278" s="46" t="s">
         <v>2762</v>
-      </c>
-      <c r="B278" s="46" t="s">
-        <v>2763</v>
       </c>
       <c r="C278" s="22"/>
       <c r="D278" s="65" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -16011,7 +16145,7 @@
         <v>1068</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -16030,7 +16164,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B281" s="50" t="s">
         <v>2262</v>
@@ -16039,7 +16173,7 @@
         <v>1069</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -16072,16 +16206,16 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="64" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B284" s="34" t="s">
         <v>2722</v>
       </c>
-      <c r="B284" s="34" t="s">
+      <c r="C284" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D284" s="65" t="s">
         <v>2723</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D284" s="65" t="s">
-        <v>2724</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -16198,16 +16332,16 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="55" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B293" s="34" t="s">
         <v>2701</v>
       </c>
-      <c r="B293" s="34" t="s">
+      <c r="C293" s="55" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D293" t="s">
         <v>2702</v>
-      </c>
-      <c r="C293" s="55" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D293" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -16296,16 +16430,16 @@
     </row>
     <row r="300" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A300" s="55" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B300" s="46" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D300" t="s">
         <v>2652</v>
-      </c>
-      <c r="B300" s="46" t="s">
-        <v>2662</v>
-      </c>
-      <c r="C300" s="22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D300" t="s">
-        <v>2653</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -16394,16 +16528,16 @@
     </row>
     <row r="307" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A307" s="55" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B307" s="46" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C307" s="22" t="s">
         <v>1079</v>
       </c>
       <c r="D307" s="65" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -16495,7 +16629,7 @@
         <v>1747</v>
       </c>
       <c r="B314" s="34" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="C314" s="14" t="s">
         <v>1068</v>
@@ -16534,7 +16668,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="11" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B317" s="50" t="s">
         <v>2278</v>
@@ -16543,7 +16677,7 @@
         <v>1068</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -16568,7 +16702,7 @@
         <v>1466</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D319" s="10" t="s">
         <v>1472</v>
@@ -16590,10 +16724,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B321" s="49" t="s">
         <v>3075</v>
-      </c>
-      <c r="B321" s="49" t="s">
-        <v>3076</v>
       </c>
       <c r="C321" s="21" t="s">
         <v>1079</v>
@@ -16627,7 +16761,7 @@
         <v>1068</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -16697,21 +16831,21 @@
         <v>1068</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A329" s="55" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B329" s="46" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="C329" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D329" s="65" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -16730,10 +16864,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="14" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B331" s="49" t="s">
         <v>3077</v>
-      </c>
-      <c r="B331" s="49" t="s">
-        <v>3078</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>1079</v>
@@ -16814,16 +16948,16 @@
     </row>
     <row r="337" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A337" s="64" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B337" s="46" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="C337" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D337" s="65" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -17005,7 +17139,7 @@
         <v>1068</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -17080,30 +17214,30 @@
     </row>
     <row r="356" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A356" s="55" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B356" s="46" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C356" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D356" t="s">
         <v>2676</v>
-      </c>
-      <c r="B356" s="46" t="s">
-        <v>2688</v>
-      </c>
-      <c r="C356" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D356" t="s">
-        <v>2677</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A357" s="14" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B357" s="46" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C357" s="21" t="s">
         <v>1069</v>
       </c>
       <c r="D357" s="14" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -17248,16 +17382,16 @@
     </row>
     <row r="368" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A368" s="55" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B368" s="46" t="s">
         <v>2777</v>
-      </c>
-      <c r="B368" s="46" t="s">
-        <v>2778</v>
       </c>
       <c r="C368" s="22" t="s">
         <v>1392</v>
       </c>
       <c r="D368" s="65" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -17276,16 +17410,16 @@
     </row>
     <row r="370" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A370" s="55" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B370" s="46" t="s">
         <v>2725</v>
-      </c>
-      <c r="B370" s="46" t="s">
-        <v>2726</v>
       </c>
       <c r="C370" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D370" s="65" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -17313,7 +17447,7 @@
         <v>1068</v>
       </c>
       <c r="D372" s="12" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -17439,7 +17573,7 @@
         <v>1068</v>
       </c>
       <c r="D381" s="12" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -17453,15 +17587,15 @@
         <v>1068</v>
       </c>
       <c r="D382" s="12" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A383" s="55" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B383" s="46" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="C383" s="65" t="s">
         <v>1392</v>
@@ -17528,14 +17662,14 @@
     </row>
     <row r="388" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A388" s="55" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B388" s="46" t="s">
         <v>2730</v>
-      </c>
-      <c r="B388" s="46" t="s">
-        <v>2731</v>
       </c>
       <c r="C388" s="22"/>
       <c r="D388" s="65" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -17577,7 +17711,7 @@
         <v>1069</v>
       </c>
       <c r="D391" s="12" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -17605,7 +17739,7 @@
         <v>1068</v>
       </c>
       <c r="D393" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -17669,7 +17803,7 @@
         <v>868</v>
       </c>
       <c r="B398" s="49" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="C398" s="21" t="s">
         <v>1069</v>
@@ -17683,7 +17817,7 @@
         <v>869</v>
       </c>
       <c r="B399" s="49" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C399" s="21" t="s">
         <v>1068</v>
@@ -17708,72 +17842,72 @@
     </row>
     <row r="401" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A401" s="55" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B401" s="46" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C401" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D401" t="s">
         <v>2631</v>
-      </c>
-      <c r="B401" s="46" t="s">
-        <v>2644</v>
-      </c>
-      <c r="C401" s="22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D401" t="s">
-        <v>2632</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="55" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B402" s="34" t="s">
         <v>2774</v>
-      </c>
-      <c r="B402" s="34" t="s">
-        <v>2775</v>
       </c>
       <c r="C402" s="65" t="s">
         <v>1079</v>
       </c>
       <c r="D402" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A403" s="55" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B403" s="46" t="s">
         <v>2783</v>
-      </c>
-      <c r="B403" s="46" t="s">
-        <v>2784</v>
       </c>
       <c r="C403" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D403" s="65" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A404" s="64" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B404" s="37" t="s">
         <v>2611</v>
-      </c>
-      <c r="B404" s="37" t="s">
-        <v>2612</v>
       </c>
       <c r="C404" s="21" t="s">
         <v>1392</v>
       </c>
       <c r="D404" s="65" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A405" s="55" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B405" s="46" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C405" s="65" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D405" t="s">
         <v>2622</v>
-      </c>
-      <c r="B405" s="46" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C405" s="65" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D405" t="s">
-        <v>2623</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -18002,16 +18136,16 @@
     </row>
     <row r="422" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A422" s="55" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B422" s="46" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="C422" s="22" t="s">
         <v>1069</v>
       </c>
       <c r="D422" s="65" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -18061,7 +18195,7 @@
         <v>292</v>
       </c>
       <c r="B426" s="48" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C426" s="20" t="s">
         <v>1068</v>
@@ -18145,7 +18279,7 @@
         <v>302</v>
       </c>
       <c r="B432" s="50" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="C432" s="20" t="s">
         <v>1068</v>
@@ -18159,7 +18293,7 @@
         <v>304</v>
       </c>
       <c r="B433" s="50" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="C433" s="11" t="s">
         <v>1068</v>
@@ -18173,7 +18307,7 @@
         <v>917</v>
       </c>
       <c r="B434" s="49" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C434" s="21" t="s">
         <v>1068</v>
@@ -18184,44 +18318,44 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="11" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B435" s="50" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C435" s="20" t="s">
         <v>1068</v>
       </c>
       <c r="D435" s="12" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="11" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B436" s="50" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C436" s="20" t="s">
         <v>1068</v>
       </c>
       <c r="D436" s="12" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A437" s="55" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B437" s="46" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C437" s="65" t="s">
         <v>1069</v>
       </c>
       <c r="D437" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -18249,7 +18383,7 @@
         <v>1069</v>
       </c>
       <c r="D439" s="12" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -18291,7 +18425,7 @@
         <v>1068</v>
       </c>
       <c r="D442" s="12" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -18305,7 +18439,7 @@
         <v>1068</v>
       </c>
       <c r="D443" s="12" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -18389,7 +18523,7 @@
         <v>1069</v>
       </c>
       <c r="D449" s="12" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -18464,10 +18598,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="14" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B455" s="49" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="C455" s="14" t="s">
         <v>1068</v>
@@ -18481,7 +18615,7 @@
         <v>97</v>
       </c>
       <c r="B456" s="51" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="C456" s="14" t="s">
         <v>1068</v>
@@ -18495,7 +18629,7 @@
         <v>93</v>
       </c>
       <c r="B457" s="51" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C457" s="14" t="s">
         <v>1068</v>
@@ -18515,7 +18649,7 @@
         <v>1069</v>
       </c>
       <c r="D458" s="12" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -18548,10 +18682,10 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="11" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B461" s="50" t="s">
         <v>2380</v>
-      </c>
-      <c r="B461" s="50" t="s">
-        <v>2381</v>
       </c>
       <c r="C461" s="11" t="s">
         <v>1068</v>
@@ -18582,7 +18716,7 @@
         <v>1467</v>
       </c>
       <c r="C463" s="21" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>1473</v>
@@ -18590,14 +18724,14 @@
     </row>
     <row r="464" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A464" s="55" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B464" s="46" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="C464" s="22"/>
       <c r="D464" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -18616,10 +18750,10 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="55" t="s">
-        <v>16</v>
+        <v>3123</v>
       </c>
       <c r="B466" s="34" t="s">
-        <v>2373</v>
+        <v>3124</v>
       </c>
       <c r="C466" s="14" t="s">
         <v>1068</v>
@@ -18633,7 +18767,7 @@
         <v>330</v>
       </c>
       <c r="B467" s="50" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="C467" s="11" t="s">
         <v>1068</v>
@@ -18644,10 +18778,10 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="11" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B468" s="50" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C468" s="11" t="s">
         <v>1068</v>
@@ -18661,7 +18795,7 @@
         <v>545</v>
       </c>
       <c r="B469" s="49" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C469" s="14" t="s">
         <v>1068</v>
@@ -18675,7 +18809,7 @@
         <v>583</v>
       </c>
       <c r="B470" s="49" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C470" s="14" t="s">
         <v>1068</v>
@@ -18689,7 +18823,7 @@
         <v>537</v>
       </c>
       <c r="B471" s="49" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C471" s="14" t="s">
         <v>1068</v>
@@ -18703,13 +18837,13 @@
         <v>919</v>
       </c>
       <c r="B472" s="50" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C472" s="11" t="s">
         <v>1068</v>
       </c>
       <c r="D472" s="12" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -18717,7 +18851,7 @@
         <v>336</v>
       </c>
       <c r="B473" s="50" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="C473" s="11" t="s">
         <v>1068</v>
@@ -18731,7 +18865,7 @@
         <v>338</v>
       </c>
       <c r="B474" s="50" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="C474" s="11" t="s">
         <v>1068</v>
@@ -18745,7 +18879,7 @@
         <v>85</v>
       </c>
       <c r="B475" s="51" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C475" s="21" t="s">
         <v>1068</v>
@@ -18756,10 +18890,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="55" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B476" s="34" t="s">
         <v>2450</v>
-      </c>
-      <c r="B476" s="34" t="s">
-        <v>2451</v>
       </c>
       <c r="C476" s="11" t="s">
         <v>1068</v>
@@ -18801,7 +18935,7 @@
         <v>886</v>
       </c>
       <c r="B479" s="49" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="C479" s="14" t="s">
         <v>101</v>
@@ -18812,16 +18946,16 @@
     </row>
     <row r="480" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A480" s="55" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B480" s="46" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="C480" s="65" t="s">
         <v>1069</v>
       </c>
       <c r="D480" s="65" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -18843,7 +18977,7 @@
         <v>1200</v>
       </c>
       <c r="B482" s="34" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="C482" s="14" t="s">
         <v>1068</v>
@@ -18854,10 +18988,10 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="11" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B483" s="50" t="s">
         <v>2391</v>
-      </c>
-      <c r="B483" s="50" t="s">
-        <v>2392</v>
       </c>
       <c r="C483" s="11" t="s">
         <v>1068</v>
@@ -18885,7 +19019,7 @@
         <v>603</v>
       </c>
       <c r="B485" s="50" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="C485" s="14" t="s">
         <v>1068</v>
@@ -18941,7 +19075,7 @@
         <v>344</v>
       </c>
       <c r="B489" s="50" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C489" s="11" t="s">
         <v>1068</v>
@@ -18955,7 +19089,7 @@
         <v>58</v>
       </c>
       <c r="B490" s="51" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C490" s="11" t="s">
         <v>1068</v>
@@ -18969,7 +19103,7 @@
         <v>940</v>
       </c>
       <c r="B491" s="51" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C491" s="11" t="s">
         <v>1068</v>
@@ -19008,10 +19142,10 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="56" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B494" s="51" t="s">
         <v>2394</v>
-      </c>
-      <c r="B494" s="51" t="s">
-        <v>2395</v>
       </c>
       <c r="C494" s="14" t="s">
         <v>1068</v>
@@ -19022,16 +19156,16 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="11" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B495" s="50" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C495" s="11" t="s">
         <v>1069</v>
       </c>
       <c r="D495" s="12" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -19039,7 +19173,7 @@
         <v>348</v>
       </c>
       <c r="B496" s="50" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C496" s="11" t="s">
         <v>1068</v>
@@ -19053,7 +19187,7 @@
         <v>75</v>
       </c>
       <c r="B497" s="34" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C497" s="14" t="s">
         <v>1068</v>
@@ -19067,7 +19201,7 @@
         <v>541</v>
       </c>
       <c r="B498" s="49" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C498" s="14" t="s">
         <v>1068</v>
@@ -19078,16 +19212,16 @@
     </row>
     <row r="499" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A499" s="64" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B499" s="46" t="s">
         <v>2705</v>
-      </c>
-      <c r="B499" s="46" t="s">
-        <v>2706</v>
       </c>
       <c r="C499" s="10" t="s">
         <v>1392</v>
       </c>
       <c r="D499" s="65" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -19095,7 +19229,7 @@
         <v>352</v>
       </c>
       <c r="B500" s="50" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="C500" s="14" t="s">
         <v>1068</v>
@@ -19109,7 +19243,7 @@
         <v>50</v>
       </c>
       <c r="B501" s="49" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C501" s="14" t="s">
         <v>1068</v>
@@ -19123,7 +19257,7 @@
         <v>356</v>
       </c>
       <c r="B502" s="49" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C502" s="14" t="s">
         <v>1068</v>
@@ -19137,7 +19271,7 @@
         <v>358</v>
       </c>
       <c r="B503" s="49" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C503" s="14" t="s">
         <v>1068</v>
@@ -19151,7 +19285,7 @@
         <v>360</v>
       </c>
       <c r="B504" s="49" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C504" s="14" t="s">
         <v>1068</v>
@@ -19165,7 +19299,7 @@
         <v>757</v>
       </c>
       <c r="B505" s="49" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C505" s="14" t="s">
         <v>1070</v>
@@ -19179,7 +19313,7 @@
         <v>1381</v>
       </c>
       <c r="B506" s="48" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C506" s="14" t="s">
         <v>1079</v>
@@ -19190,16 +19324,16 @@
     </row>
     <row r="507" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A507" s="55" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B507" s="46" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C507" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D507" t="s">
         <v>2629</v>
-      </c>
-      <c r="B507" s="46" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C507" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D507" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -19207,7 +19341,7 @@
         <v>681</v>
       </c>
       <c r="B508" s="49" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C508" s="14" t="s">
         <v>1068</v>
@@ -19221,7 +19355,7 @@
         <v>700</v>
       </c>
       <c r="B509" s="49" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C509" s="14" t="s">
         <v>1068</v>
@@ -19249,7 +19383,7 @@
         <v>770</v>
       </c>
       <c r="B511" s="49" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C511" s="14" t="s">
         <v>1070</v>
@@ -19263,7 +19397,7 @@
         <v>1097</v>
       </c>
       <c r="B512" s="34" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="C512" s="14" t="s">
         <v>1068</v>
@@ -19277,7 +19411,7 @@
         <v>859</v>
       </c>
       <c r="B513" s="49" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="C513" s="14" t="s">
         <v>1068</v>
@@ -19291,7 +19425,7 @@
         <v>866</v>
       </c>
       <c r="B514" s="49" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C514" s="14" t="s">
         <v>1068</v>
@@ -19305,7 +19439,7 @@
         <v>882</v>
       </c>
       <c r="B515" s="49" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C515" s="14" t="s">
         <v>1068</v>
@@ -19319,7 +19453,7 @@
         <v>880</v>
       </c>
       <c r="B516" s="49" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="C516" s="14" t="s">
         <v>1068</v>
@@ -19333,7 +19467,7 @@
         <v>931</v>
       </c>
       <c r="B517" s="49" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="C517" s="14" t="s">
         <v>1069</v>
@@ -19386,7 +19520,7 @@
     </row>
     <row r="521" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A521" s="11" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B521" s="50" t="s">
         <v>2087</v>
@@ -19400,10 +19534,10 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="10" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B522" s="48" t="s">
         <v>2415</v>
-      </c>
-      <c r="B522" s="48" t="s">
-        <v>2416</v>
       </c>
       <c r="C522" s="14" t="s">
         <v>1068</v>
@@ -19417,7 +19551,7 @@
         <v>1188</v>
       </c>
       <c r="B523" s="34" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="C523" s="10" t="s">
         <v>1069</v>
@@ -19428,10 +19562,10 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="10" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B524" s="48" t="s">
         <v>2417</v>
-      </c>
-      <c r="B524" s="48" t="s">
-        <v>2418</v>
       </c>
       <c r="C524" s="14" t="s">
         <v>1068</v>
@@ -19445,7 +19579,7 @@
         <v>531</v>
       </c>
       <c r="B525" s="49" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="C525" s="14" t="s">
         <v>1068</v>
@@ -19456,16 +19590,16 @@
     </row>
     <row r="526" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A526" s="55" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B526" s="46" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C526" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D526" t="s">
         <v>2633</v>
-      </c>
-      <c r="B526" s="46" t="s">
-        <v>2645</v>
-      </c>
-      <c r="C526" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D526" t="s">
-        <v>2634</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -19582,7 +19716,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="55" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B535" s="48" t="s">
         <v>1545</v>
@@ -19683,7 +19817,7 @@
         <v>1384</v>
       </c>
       <c r="B542" s="48" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C542" s="14" t="s">
         <v>1079</v>
@@ -19697,7 +19831,7 @@
         <v>1387</v>
       </c>
       <c r="B543" s="48" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="C543" s="14" t="s">
         <v>1079</v>
@@ -19708,16 +19842,16 @@
     </row>
     <row r="544" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A544" s="55" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B544" s="46" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C544" s="14" t="s">
         <v>1069</v>
       </c>
       <c r="D544" s="65" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="545" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -19736,16 +19870,16 @@
     </row>
     <row r="546" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A546" s="55" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B546" s="46" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C546" s="14" t="s">
         <v>1068</v>
       </c>
       <c r="D546" s="65" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
@@ -19753,7 +19887,7 @@
         <v>735</v>
       </c>
       <c r="B547" s="48" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C547" s="14" t="s">
         <v>1068</v>
@@ -19764,30 +19898,30 @@
     </row>
     <row r="548" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A548" s="55" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B548" s="46" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C548" s="14" t="s">
         <v>1069</v>
       </c>
       <c r="D548" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="55" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B549" s="34" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C549" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D549" t="s">
         <v>2812</v>
-      </c>
-      <c r="B549" s="34" t="s">
-        <v>2816</v>
-      </c>
-      <c r="C549" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D549" t="s">
-        <v>2813</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -19851,7 +19985,7 @@
         <v>745</v>
       </c>
       <c r="B554" s="48" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C554" s="14" t="s">
         <v>1070</v>
@@ -19865,7 +19999,7 @@
         <v>929</v>
       </c>
       <c r="B555" s="48" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="C555" s="14" t="s">
         <v>1068</v>
@@ -19879,7 +20013,7 @@
         <v>368</v>
       </c>
       <c r="B556" s="48" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C556" s="14" t="s">
         <v>1068</v>
@@ -19904,7 +20038,7 @@
         <v>712</v>
       </c>
       <c r="B558" s="48" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C558" s="14" t="s">
         <v>1068</v>
@@ -19918,7 +20052,7 @@
         <v>713</v>
       </c>
       <c r="B559" s="48" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C559" s="14" t="s">
         <v>1068</v>
@@ -19932,7 +20066,7 @@
         <v>1121</v>
       </c>
       <c r="B560" s="48" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C560" s="14" t="s">
         <v>1068</v>
@@ -19960,7 +20094,7 @@
         <v>878</v>
       </c>
       <c r="B562" s="48" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C562" s="14" t="s">
         <v>1068</v>
@@ -19971,16 +20105,16 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="64" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B563" s="34" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="C563" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D563" s="65" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -19988,7 +20122,7 @@
         <v>1385</v>
       </c>
       <c r="B564" s="48" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C564" s="14" t="s">
         <v>1079</v>
@@ -20002,7 +20136,7 @@
         <v>1594</v>
       </c>
       <c r="B565" s="48" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="C565" s="10" t="s">
         <v>1068</v>
@@ -20016,7 +20150,7 @@
         <v>763</v>
       </c>
       <c r="B566" s="48" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="C566" s="14" t="s">
         <v>1070</v>
@@ -20027,10 +20161,10 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="14" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B567" s="48" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C567" s="14" t="s">
         <v>1070</v>
@@ -20044,7 +20178,7 @@
         <v>697</v>
       </c>
       <c r="B568" s="48" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C568" s="14" t="s">
         <v>1068</v>
@@ -20058,7 +20192,7 @@
         <v>1386</v>
       </c>
       <c r="B569" s="48" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C569" s="14" t="s">
         <v>1079</v>
@@ -20086,7 +20220,7 @@
         <v>25</v>
       </c>
       <c r="B571" s="48" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C571" s="14" t="s">
         <v>1068</v>
@@ -20114,7 +20248,7 @@
         <v>714</v>
       </c>
       <c r="B573" s="48" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C573" s="14" t="s">
         <v>1068</v>
@@ -20128,7 +20262,7 @@
         <v>1071</v>
       </c>
       <c r="B574" s="48" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C574" s="14" t="s">
         <v>1079</v>
@@ -20142,13 +20276,13 @@
         <v>370</v>
       </c>
       <c r="B575" s="48" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="C575" s="11" t="s">
         <v>1069</v>
       </c>
       <c r="D575" s="12" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
@@ -20156,7 +20290,7 @@
         <v>372</v>
       </c>
       <c r="B576" s="48" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="C576" s="11" t="s">
         <v>1068</v>
@@ -20170,7 +20304,7 @@
         <v>374</v>
       </c>
       <c r="B577" s="48" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C577" s="11" t="s">
         <v>1068</v>
@@ -20251,16 +20385,16 @@
     </row>
     <row r="583" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A583" s="55" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B583" s="46" t="s">
         <v>2657</v>
-      </c>
-      <c r="B583" s="46" t="s">
-        <v>2658</v>
       </c>
       <c r="C583" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D583" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
@@ -20352,7 +20486,7 @@
         <v>1088</v>
       </c>
       <c r="B590" s="48" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C590" s="11" t="s">
         <v>1068</v>
@@ -20366,7 +20500,7 @@
         <v>640</v>
       </c>
       <c r="B591" s="48" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="C591" s="14" t="s">
         <v>1068</v>
@@ -20380,7 +20514,7 @@
         <v>743</v>
       </c>
       <c r="B592" s="48" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="C592" s="14" t="s">
         <v>1068</v>
@@ -20394,7 +20528,7 @@
         <v>737</v>
       </c>
       <c r="B593" s="48" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="C593" s="14" t="s">
         <v>1068</v>
@@ -20506,7 +20640,7 @@
         <v>1534</v>
       </c>
       <c r="B601" s="48" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C601" s="55" t="s">
         <v>1392</v>
@@ -20786,7 +20920,7 @@
         <v>524</v>
       </c>
       <c r="B621" s="48" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="C621" s="14" t="s">
         <v>1068</v>
@@ -20800,7 +20934,7 @@
         <v>505</v>
       </c>
       <c r="B622" s="48" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="C622" s="14" t="s">
         <v>1068</v>
@@ -20814,7 +20948,7 @@
         <v>1116</v>
       </c>
       <c r="B623" s="48" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="C623" s="14" t="s">
         <v>1068</v>
@@ -20828,7 +20962,7 @@
         <v>2092</v>
       </c>
       <c r="B624" s="48" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="C624" s="14" t="s">
         <v>1068</v>
@@ -20842,7 +20976,7 @@
         <v>506</v>
       </c>
       <c r="B625" s="48" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C625" s="14" t="s">
         <v>1068</v>
@@ -20856,7 +20990,7 @@
         <v>519</v>
       </c>
       <c r="B626" s="48" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="C626" s="14" t="s">
         <v>1068</v>
@@ -20870,7 +21004,7 @@
         <v>2093</v>
       </c>
       <c r="B627" s="48" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="C627" s="14" t="s">
         <v>1068</v>
@@ -20884,7 +21018,7 @@
         <v>1123</v>
       </c>
       <c r="B628" s="48" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C628" s="14" t="s">
         <v>1068</v>
@@ -20909,16 +21043,16 @@
     </row>
     <row r="630" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A630" s="55" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B630" s="46" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C630" s="11" t="s">
         <v>1079</v>
       </c>
       <c r="D630" s="65" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
@@ -20940,7 +21074,7 @@
         <v>1398</v>
       </c>
       <c r="B632" s="48" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C632" s="10" t="s">
         <v>1079</v>
@@ -20954,7 +21088,7 @@
         <v>1105</v>
       </c>
       <c r="B633" s="48" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C633" s="14" t="s">
         <v>1068</v>
@@ -20968,7 +21102,7 @@
         <v>423</v>
       </c>
       <c r="B634" s="48" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="C634" s="14" t="s">
         <v>1070</v>
@@ -21035,16 +21169,16 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="64" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B639" s="34" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="C639" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D639" s="65" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
@@ -21077,16 +21211,16 @@
     </row>
     <row r="642" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A642" s="55" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B642" s="46" t="s">
         <v>2735</v>
-      </c>
-      <c r="B642" s="46" t="s">
-        <v>2736</v>
       </c>
       <c r="C642" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="D642" s="65" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
@@ -21133,14 +21267,14 @@
     </row>
     <row r="646" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A646" s="58" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B646" s="46" t="s">
         <v>2765</v>
-      </c>
-      <c r="B646" s="46" t="s">
-        <v>2766</v>
       </c>
       <c r="C646"/>
       <c r="D646" s="65" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
@@ -21148,7 +21282,7 @@
         <v>772</v>
       </c>
       <c r="B647" s="48" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="C647" s="14" t="s">
         <v>1070</v>
@@ -21159,16 +21293,16 @@
     </row>
     <row r="648" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A648" s="55" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B648" s="46" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C648" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D648" t="s">
         <v>2618</v>
-      </c>
-      <c r="B648" s="46" t="s">
-        <v>2636</v>
-      </c>
-      <c r="C648" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D648" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
@@ -21187,44 +21321,44 @@
     </row>
     <row r="650" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A650" s="55" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B650" s="46" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="C650" t="s">
         <v>1079</v>
       </c>
       <c r="D650" s="65" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="651" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A651" s="55" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B651" s="46" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C651" s="10" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D651" s="65" t="s">
         <v>2754</v>
-      </c>
-      <c r="B651" s="46" t="s">
-        <v>2761</v>
-      </c>
-      <c r="C651" s="10" t="s">
-        <v>2510</v>
-      </c>
-      <c r="D651" s="65" t="s">
-        <v>2755</v>
       </c>
     </row>
     <row r="652" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A652" s="55" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B652" s="46" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="C652" t="s">
         <v>1069</v>
       </c>
       <c r="D652" s="65" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
@@ -21260,7 +21394,7 @@
         <v>1056</v>
       </c>
       <c r="B655" s="48" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="C655" s="10" t="s">
         <v>1068</v>
@@ -21285,21 +21419,21 @@
     </row>
     <row r="657" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A657" s="55" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B657" s="46" t="s">
         <v>2745</v>
-      </c>
-      <c r="B657" s="46" t="s">
-        <v>2746</v>
       </c>
       <c r="C657" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="D657" s="65" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="11" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B658" s="50" t="s">
         <v>2063</v>
@@ -21313,16 +21447,16 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="10" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B659" s="48" t="s">
         <v>2536</v>
-      </c>
-      <c r="B659" s="48" t="s">
-        <v>2537</v>
       </c>
       <c r="C659" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D659" s="10" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
@@ -21358,7 +21492,7 @@
         <v>1090</v>
       </c>
       <c r="B662" s="48" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="C662" s="11" t="s">
         <v>1068</v>
@@ -21369,10 +21503,10 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="10" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B663" s="48" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C663" s="14" t="s">
         <v>1079</v>
@@ -21386,7 +21520,7 @@
         <v>431</v>
       </c>
       <c r="B664" s="48" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C664" s="11" t="s">
         <v>1068</v>
@@ -21400,7 +21534,7 @@
         <v>1098</v>
       </c>
       <c r="B665" s="48" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="C665" s="14" t="s">
         <v>1068</v>
@@ -21414,7 +21548,7 @@
         <v>600</v>
       </c>
       <c r="B666" s="48" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C666" s="14" t="s">
         <v>1068</v>
@@ -21481,16 +21615,16 @@
     </row>
     <row r="671" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A671" s="55" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B671" s="46" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="C671" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D671" s="65" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
@@ -21512,7 +21646,7 @@
         <v>437</v>
       </c>
       <c r="B673" s="48" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C673" s="11" t="s">
         <v>1068</v>
@@ -21532,7 +21666,7 @@
         <v>1068</v>
       </c>
       <c r="D674" s="12" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
@@ -21546,7 +21680,7 @@
         <v>1068</v>
       </c>
       <c r="D675" s="12" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
@@ -21560,7 +21694,7 @@
         <v>1068</v>
       </c>
       <c r="D676" s="12" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
@@ -21596,7 +21730,7 @@
         <v>1529</v>
       </c>
       <c r="B679" s="34" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="C679" s="10" t="s">
         <v>1068</v>
@@ -21700,7 +21834,7 @@
         <v>1068</v>
       </c>
       <c r="D686" s="12" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
@@ -21747,7 +21881,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="11" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B690" s="48" t="s">
         <v>2099</v>
@@ -21756,7 +21890,7 @@
         <v>1079</v>
       </c>
       <c r="D690" s="12" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
@@ -21789,10 +21923,10 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="10" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B693" s="49" t="s">
         <v>3081</v>
-      </c>
-      <c r="B693" s="49" t="s">
-        <v>3082</v>
       </c>
       <c r="C693" s="14" t="s">
         <v>1079</v>
@@ -21803,44 +21937,44 @@
     </row>
     <row r="694" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A694" s="64" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B694" s="37" t="s">
         <v>2608</v>
-      </c>
-      <c r="B694" s="37" t="s">
-        <v>2609</v>
       </c>
       <c r="C694" s="10" t="s">
         <v>1392</v>
       </c>
       <c r="D694" s="65" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="695" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A695" s="55" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B695" s="46" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="C695" s="10" t="s">
         <v>1392</v>
       </c>
       <c r="D695" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="696" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A696" s="55" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B696" s="46" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C696" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D696" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
@@ -21854,7 +21988,7 @@
         <v>1068</v>
       </c>
       <c r="D697" s="62" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
@@ -21896,7 +22030,7 @@
         <v>1068</v>
       </c>
       <c r="D700" s="12" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
@@ -21999,16 +22133,16 @@
     </row>
     <row r="708" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A708" s="64" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B708" s="37" t="s">
         <v>2664</v>
-      </c>
-      <c r="B708" s="37" t="s">
-        <v>2665</v>
       </c>
       <c r="C708" s="10" t="s">
         <v>1392</v>
       </c>
       <c r="D708" s="65" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
@@ -22022,7 +22156,7 @@
         <v>1068</v>
       </c>
       <c r="D709" s="12" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
@@ -22055,544 +22189,558 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="77" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B712" s="34" t="s">
         <v>2871</v>
       </c>
-      <c r="B712" s="34" t="s">
+      <c r="C712" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D712" s="77" t="s">
         <v>2872</v>
-      </c>
-      <c r="C712" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D712" s="77" t="s">
-        <v>2873</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="64" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B713" s="34" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C713" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D713" s="65" t="s">
         <v>2874</v>
-      </c>
-      <c r="B713" s="34" t="s">
-        <v>2876</v>
-      </c>
-      <c r="C713" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D713" s="65" t="s">
-        <v>2875</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="64" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B714" s="34" t="s">
         <v>2890</v>
-      </c>
-      <c r="B714" s="34" t="s">
-        <v>2891</v>
       </c>
       <c r="C714" s="14" t="s">
         <v>1069</v>
       </c>
       <c r="D714" s="65" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="64" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B715" s="34" t="s">
         <v>2893</v>
-      </c>
-      <c r="B715" s="34" t="s">
-        <v>2894</v>
       </c>
       <c r="C715" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="D715" s="65" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="64" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B716" s="34" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="C716"/>
       <c r="D716" s="65" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="64" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B717" s="34" t="s">
         <v>2902</v>
       </c>
-      <c r="B717" s="34" t="s">
+      <c r="C717" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D717" s="65" t="s">
         <v>2903</v>
-      </c>
-      <c r="C717" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D717" s="65" t="s">
-        <v>2904</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="64" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B718" s="34" t="s">
         <v>2905</v>
-      </c>
-      <c r="B718" s="34" t="s">
-        <v>2906</v>
       </c>
       <c r="C718" s="14" t="s">
         <v>1069</v>
       </c>
       <c r="D718" s="65" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="77" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B719" s="34" t="s">
         <v>2914</v>
-      </c>
-      <c r="B719" s="34" t="s">
-        <v>2915</v>
       </c>
       <c r="C719" s="77"/>
       <c r="D719" s="77" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="64" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B720" s="34" t="s">
         <v>2917</v>
-      </c>
-      <c r="B720" s="34" t="s">
-        <v>2918</v>
       </c>
       <c r="C720" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="D720" s="65" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="64" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B721" s="34" t="s">
         <v>2920</v>
-      </c>
-      <c r="B721" s="34" t="s">
-        <v>2921</v>
       </c>
       <c r="C721" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D721" s="65" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="64" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B722" s="34" t="s">
         <v>2923</v>
       </c>
-      <c r="B722" s="34" t="s">
+      <c r="C722" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D722" t="s">
         <v>2924</v>
-      </c>
-      <c r="C722" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D722" t="s">
-        <v>2925</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="64" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="B723" s="34" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C723" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D723" s="65" t="s">
         <v>2938</v>
-      </c>
-      <c r="C723" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D723" s="65" t="s">
-        <v>2939</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="64" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B724" s="34" t="s">
         <v>2926</v>
-      </c>
-      <c r="B724" s="34" t="s">
-        <v>2927</v>
       </c>
       <c r="C724" s="10" t="s">
         <v>1392</v>
       </c>
       <c r="D724" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="64" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B725" s="34" t="s">
         <v>2929</v>
-      </c>
-      <c r="B725" s="34" t="s">
-        <v>2930</v>
       </c>
       <c r="C725" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D725" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="64" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B726" s="34" t="s">
         <v>2936</v>
-      </c>
-      <c r="B726" s="34" t="s">
-        <v>2937</v>
       </c>
       <c r="C726" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D726" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="64" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B727" s="34" t="s">
         <v>2942</v>
-      </c>
-      <c r="B727" s="34" t="s">
-        <v>2943</v>
       </c>
       <c r="C727" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D727" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="64" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B728" s="34" t="s">
         <v>2948</v>
-      </c>
-      <c r="B728" s="34" t="s">
-        <v>2949</v>
       </c>
       <c r="C728" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D728" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="64" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B729" s="34" t="s">
         <v>2951</v>
-      </c>
-      <c r="B729" s="34" t="s">
-        <v>2952</v>
       </c>
       <c r="C729" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D729" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="77" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B730" s="34" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="C730" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D730" s="77" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="64" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B731" s="34" t="s">
         <v>2957</v>
-      </c>
-      <c r="B731" s="34" t="s">
-        <v>2958</v>
       </c>
       <c r="C731" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D731" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="64" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B732" s="34" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="C732" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D732" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="77" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B733" s="34" t="s">
         <v>2963</v>
-      </c>
-      <c r="B733" s="34" t="s">
-        <v>2964</v>
       </c>
       <c r="C733" s="77" t="s">
         <v>1079</v>
       </c>
       <c r="D733" s="77" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="77" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B734" s="34" t="s">
         <v>2966</v>
-      </c>
-      <c r="B734" s="34" t="s">
-        <v>2967</v>
       </c>
       <c r="C734" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D734" s="77" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="10" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B735" s="48" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="C735" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D735" s="10" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="10" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B736" s="48" t="s">
         <v>2978</v>
-      </c>
-      <c r="B736" s="48" t="s">
-        <v>2979</v>
       </c>
       <c r="C736" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D736" s="10" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="10" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B737" s="48" t="s">
         <v>2981</v>
-      </c>
-      <c r="B737" s="48" t="s">
-        <v>2982</v>
       </c>
       <c r="C737" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D737" s="10" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="738" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A738" s="77" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B738" s="34" t="s">
         <v>2985</v>
       </c>
-      <c r="B738" s="34" t="s">
+      <c r="C738" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D738" s="77" t="s">
         <v>2986</v>
-      </c>
-      <c r="C738" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D738" s="77" t="s">
-        <v>2987</v>
       </c>
     </row>
     <row r="739" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A739" s="77" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B739" s="34" t="s">
         <v>2988</v>
-      </c>
-      <c r="B739" s="34" t="s">
-        <v>2989</v>
       </c>
       <c r="C739" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D739" s="77" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="740" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A740" s="77" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B740" s="34" t="s">
         <v>2991</v>
-      </c>
-      <c r="B740" s="34" t="s">
-        <v>2992</v>
       </c>
       <c r="C740" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D740" s="77" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="10" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B741" s="48" t="s">
         <v>2997</v>
       </c>
-      <c r="B741" s="48" t="s">
+      <c r="C741" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D741" s="10" t="s">
         <v>2998</v>
-      </c>
-      <c r="C741" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D741" s="10" t="s">
-        <v>2999</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="10" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B742" s="48" t="s">
         <v>3012</v>
       </c>
-      <c r="B742" s="48" t="s">
-        <v>3013</v>
-      </c>
       <c r="C742" s="10" t="s">
         <v>1068</v>
       </c>
       <c r="D742" s="10" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="10" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B743" s="48" t="s">
         <v>3016</v>
       </c>
-      <c r="B743" s="48" t="s">
-        <v>3017</v>
-      </c>
       <c r="C743" s="10" t="s">
         <v>1068</v>
       </c>
       <c r="D743" s="10" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="10" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B744" s="48" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="C744" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D744" s="10" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="10" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B745" s="48" t="s">
         <v>3041</v>
-      </c>
-      <c r="B745" s="48" t="s">
-        <v>3042</v>
       </c>
       <c r="C745" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D745" s="10" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="10" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B746" s="48" t="s">
         <v>3047</v>
       </c>
-      <c r="B746" s="48" t="s">
-        <v>3048</v>
-      </c>
       <c r="C746" s="10" t="s">
         <v>1068</v>
       </c>
       <c r="D746" s="10" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="10" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B747" s="48" t="s">
         <v>3107</v>
-      </c>
-      <c r="B747" s="48" t="s">
-        <v>3108</v>
       </c>
       <c r="C747" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D747" s="10" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="10" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B748" s="48" t="s">
         <v>3110</v>
-      </c>
-      <c r="B748" s="48" t="s">
-        <v>3111</v>
       </c>
       <c r="C748" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D748" s="10" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="10" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B749" s="48" t="s">
         <v>3115</v>
       </c>
-      <c r="B749" s="48" t="s">
+      <c r="C749" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D749" s="10" t="s">
         <v>3116</v>
-      </c>
-      <c r="C749" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D749" s="10" t="s">
-        <v>3117</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="10" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B750" s="48" t="s">
         <v>3118</v>
       </c>
-      <c r="B750" s="48" t="s">
+      <c r="C750" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D750" s="10" t="s">
         <v>3119</v>
       </c>
-      <c r="C750" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D750" s="10" t="s">
-        <v>3120</v>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A751" s="10" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B751" s="48" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C751" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D751" s="10" t="s">
+        <v>3127</v>
       </c>
     </row>
   </sheetData>
@@ -22603,88 +22751,88 @@
   <dataConsolidate/>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D735:D737 F668:F731 E539:E599 D1:D22 D24:D47 D49:D538 D741:D1048576">
-    <cfRule type="duplicateValues" dxfId="192" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737 A365:A366 A521:A538 A368:A519 A253:A363 A188:A251 A1:A186 A741:A1048576">
-    <cfRule type="duplicateValues" dxfId="191" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737 A521:A538 A1:A519 A741:A1048576">
-    <cfRule type="duplicateValues" dxfId="190" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A593:A599 A539:A540 A589 A572:A582 A555:A558 A560:A569 A542:A553">
-    <cfRule type="duplicateValues" dxfId="189" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737 A1:A599 A741:A1048576">
-    <cfRule type="duplicateValues" dxfId="188" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A600:A628 A630:A632 A634:A639">
-    <cfRule type="duplicateValues" dxfId="187" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A629">
-    <cfRule type="duplicateValues" dxfId="186" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A600:A632 A634:A639">
-    <cfRule type="duplicateValues" dxfId="185" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D600:D628 D630:D639">
-    <cfRule type="duplicateValues" dxfId="184" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737 A1:A632 A634:A639 A741:A1048576">
-    <cfRule type="duplicateValues" dxfId="183" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737 A741:A1048576">
-    <cfRule type="duplicateValues" dxfId="182" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="181" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="180" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D735:D737 D1:D639 D741:D1048576">
-    <cfRule type="duplicateValues" dxfId="179" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679:A681">
-    <cfRule type="duplicateValues" dxfId="178" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679:A681">
-    <cfRule type="duplicateValues" dxfId="177" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A679:A681">
-    <cfRule type="duplicateValues" dxfId="176" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A699">
-    <cfRule type="duplicateValues" dxfId="175" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D679:D698">
-    <cfRule type="duplicateValues" dxfId="174" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D679:D698 D700:D711 D713:D718 D720:D721 D723">
-    <cfRule type="duplicateValues" dxfId="173" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A719">
-    <cfRule type="duplicateValues" dxfId="172" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A730">
-    <cfRule type="duplicateValues" dxfId="171" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A730">
-    <cfRule type="duplicateValues" dxfId="170" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A733:A734">
-    <cfRule type="duplicateValues" dxfId="169" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A733:A734">
-    <cfRule type="duplicateValues" dxfId="168" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A738:A740">
-    <cfRule type="duplicateValues" dxfId="167" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A738:A740">
-    <cfRule type="duplicateValues" dxfId="166" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="165" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27630,7 +27778,7 @@
     <sortCondition ref="A2:A119"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D33" location="'Zhdetl (from Alien Book 4)'!A19" display="'Zhdetl (from Alien Book 4)'!A19" xr:uid="{F22ED44C-2884-447F-9EEA-635AD96A4C7F}"/>
@@ -28366,7 +28514,7 @@
     <sortCondition ref="A2:A91"/>
   </sortState>
   <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
-    <cfRule type="duplicateValues" dxfId="164" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29205,43 +29353,43 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="duplicateValues" dxfId="163" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="162" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="duplicateValues" dxfId="161" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="duplicateValues" dxfId="160" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A44">
-    <cfRule type="duplicateValues" dxfId="159" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="158" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="157" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="156" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="155" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="154" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="153" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="duplicateValues" dxfId="152" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="151" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30005,28 +30153,28 @@
     <sortCondition ref="A2:A68"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="150" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="149" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="148" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="147" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="146" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="145" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="144" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A67 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="143" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30061,90 +30209,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C2" t="s">
         <v>2682</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>2691</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>2697</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="C3" t="s">
         <v>2698</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2699</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>2673</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="C4" t="s">
         <v>2674</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2675</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>2670</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="C5" t="s">
         <v>2671</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2672</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C6" t="s">
         <v>2678</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>2689</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2679</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C7" t="s">
         <v>2686</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>2693</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2687</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>2667</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="C8" t="s">
         <v>2668</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2669</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C9" t="s">
         <v>2624</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2625</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -30160,79 +30308,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B11" s="46" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>2795</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>2796</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C12" t="s">
         <v>2680</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>2690</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C13" s="65" t="s">
         <v>2788</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>2791</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>2789</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C14" s="65" t="s">
         <v>2771</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>2776</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C15" t="s">
         <v>2654</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>2663</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2655</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C16" t="s">
         <v>2616</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2617</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C17" t="s">
         <v>2614</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>2635</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2615</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -30248,46 +30396,46 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B20" s="46" t="s">
         <v>2768</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="C20" s="65" t="s">
         <v>2769</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>2780</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="C21" s="65" t="s">
         <v>2781</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>2782</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>2694</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="C22" t="s">
         <v>2695</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2696</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -30303,21 +30451,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C24" s="65" t="s">
         <v>2728</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>2743</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>2729</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>2539</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>2540</v>
       </c>
       <c r="C25" t="s">
         <v>1982</v>
@@ -30325,46 +30473,46 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C26" s="65" t="s">
         <v>2806</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>2811</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>2807</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C27" t="s">
         <v>2650</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>2661</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2651</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>2762</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="C28" s="65" t="s">
         <v>2763</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B29" s="46" t="s">
         <v>2701</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>2702</v>
-      </c>
       <c r="C29" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -30391,57 +30539,57 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C32" t="s">
         <v>2652</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>2662</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2653</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C34" s="65" t="s">
         <v>2792</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>2794</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>2793</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="67" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C36" t="s">
         <v>2676</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>2688</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2677</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -30457,32 +30605,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B38" s="46" t="s">
         <v>2777</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="C38" s="65" t="s">
         <v>2778</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>2779</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B39" s="46" t="s">
         <v>2725</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="C39" s="65" t="s">
         <v>2726</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>2727</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="C40" t="s">
         <v>1536</v>
@@ -30501,57 +30649,57 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B42" s="46" t="s">
         <v>2730</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="C42" s="65" t="s">
         <v>2731</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>2732</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C43" t="s">
         <v>2631</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>2644</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2632</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B44" s="34" t="s">
         <v>2774</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>2775</v>
-      </c>
       <c r="C44" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B45" s="46" t="s">
         <v>2783</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="C45" s="65" t="s">
         <v>2784</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>2785</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C46" t="s">
         <v>2622</v>
-      </c>
-      <c r="B46" s="46" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2623</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -30562,95 +30710,95 @@
         <v>2337</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C48" s="65" t="s">
         <v>2733</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>2742</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>2734</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C49" t="s">
         <v>2626</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>2637</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2627</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="C50" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C51" s="65" t="s">
         <v>2798</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>2799</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B52" s="46" t="s">
         <v>2705</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>2706</v>
-      </c>
       <c r="C52" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C53" t="s">
         <v>2629</v>
-      </c>
-      <c r="B53" s="46" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C54" t="s">
         <v>2633</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>2645</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2634</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C55" s="65" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -30666,189 +30814,189 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C57" s="65" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C58" t="s">
         <v>2620</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>2641</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2621</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="67" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C59" s="65" t="s">
         <v>2714</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>2718</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>2715</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B60" s="46" t="s">
         <v>2657</v>
       </c>
-      <c r="B60" s="46" t="s">
-        <v>2658</v>
-      </c>
       <c r="C60" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C61" s="65" t="s">
         <v>2786</v>
-      </c>
-      <c r="B61" s="46" t="s">
-        <v>2790</v>
-      </c>
-      <c r="C61" s="65" t="s">
-        <v>2787</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="67" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C62" s="65" t="s">
         <v>2710</v>
-      </c>
-      <c r="B62" s="46" t="s">
-        <v>2717</v>
-      </c>
-      <c r="C62" s="65" t="s">
-        <v>2711</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B63" s="46" t="s">
         <v>2735</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="C63" s="65" t="s">
         <v>2736</v>
-      </c>
-      <c r="C63" s="65" t="s">
-        <v>2737</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B64" s="46" t="s">
         <v>2765</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="C64" s="65" t="s">
         <v>2766</v>
-      </c>
-      <c r="C64" s="65" t="s">
-        <v>2767</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C65" t="s">
         <v>2618</v>
-      </c>
-      <c r="B65" s="46" t="s">
-        <v>2636</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C66" s="65" t="s">
         <v>2750</v>
-      </c>
-      <c r="B66" s="46" t="s">
-        <v>2759</v>
-      </c>
-      <c r="C66" s="65" t="s">
-        <v>2751</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C67" s="65" t="s">
         <v>2754</v>
-      </c>
-      <c r="B67" s="46" t="s">
-        <v>2761</v>
-      </c>
-      <c r="C67" s="65" t="s">
-        <v>2755</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C68" s="65" t="s">
         <v>2752</v>
-      </c>
-      <c r="B68" s="46" t="s">
-        <v>2760</v>
-      </c>
-      <c r="C68" s="65" t="s">
-        <v>2753</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B69" s="46" t="s">
         <v>2745</v>
       </c>
-      <c r="B69" s="46" t="s">
-        <v>2746</v>
-      </c>
       <c r="C69" s="65" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C70" s="65" t="s">
         <v>2739</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>2741</v>
-      </c>
-      <c r="C70" s="65" t="s">
-        <v>2740</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="C71" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C72" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B73" s="46" t="s">
         <v>2664</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="C73" t="s">
         <v>2665</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2666</v>
       </c>
     </row>
   </sheetData>
@@ -30856,28 +31004,28 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="142" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="141" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="140" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="139" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="138" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="137" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="136" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="135" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30916,30 +31064,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D2" s="77" t="s">
         <v>2861</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>2862</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="C3" s="77" t="s">
         <v>1079</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -30947,7 +31095,7 @@
         <v>666</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>1068</v>
@@ -30958,30 +31106,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C5" s="77" t="s">
         <v>1068</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>2978</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>2979</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -31023,7 +31171,7 @@
         <v>1068</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -31037,35 +31185,35 @@
         <v>1068</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D11" s="77" t="s">
         <v>2843</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>2847</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>2844</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D12" s="77" t="s">
         <v>2825</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>2828</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>2826</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -31073,13 +31221,13 @@
         <v>112</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="C13" s="77" t="s">
         <v>1068</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -31093,7 +31241,7 @@
         <v>1068</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -31107,54 +31255,54 @@
         <v>1068</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D16" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>2991</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>2992</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D18" s="77" t="s">
         <v>2887</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>2888</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>2058</v>
@@ -31163,21 +31311,21 @@
         <v>1068</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>1079</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -31191,7 +31339,7 @@
         <v>1068</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -31219,7 +31367,7 @@
         <v>1068</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -31227,55 +31375,55 @@
         <v>188</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C24" s="77" t="s">
         <v>1068</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="64" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>2902</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="C25" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D25" s="65" t="s">
         <v>2903</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>2904</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="77" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>2945</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>2946</v>
       </c>
       <c r="C26" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D27" s="77" t="s">
         <v>2877</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>2879</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D27" s="77" t="s">
-        <v>2878</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -31289,7 +31437,7 @@
         <v>1069</v>
       </c>
       <c r="D28" s="77" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -31308,72 +31456,72 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B30" s="54" t="s">
         <v>2932</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>2933</v>
       </c>
       <c r="C30" s="79" t="s">
         <v>1069</v>
       </c>
       <c r="D30" s="80" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="82" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B31" s="54" t="s">
         <v>2948</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>2949</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>1069</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="77" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>2848</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="C32" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D32" s="77" t="s">
         <v>2849</v>
-      </c>
-      <c r="C32" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D32" s="77" t="s">
-        <v>2850</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B33" s="54" t="s">
         <v>2926</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>2927</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>1392</v>
       </c>
       <c r="D33" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="64" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>2905</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>2906</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>1069</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -31381,41 +31529,41 @@
         <v>260</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C35" s="77" t="s">
         <v>1068</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="77" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B36" s="34" t="s">
         <v>2963</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>2964</v>
       </c>
       <c r="C36" s="77" t="s">
         <v>1079</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="77" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B37" s="34" t="s">
         <v>2966</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>2967</v>
       </c>
       <c r="C37" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D37" s="77" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -31423,7 +31571,7 @@
         <v>656</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>1068</v>
@@ -31434,142 +31582,142 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="77" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B39" s="34" t="s">
         <v>2975</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>2976</v>
       </c>
       <c r="C39" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B40" s="51" t="s">
         <v>2971</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>2972</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>1069</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="77" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B41" s="34" t="s">
         <v>2908</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="C41" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D41" s="77" t="s">
         <v>2909</v>
-      </c>
-      <c r="C41" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>2910</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="77" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D42" s="77" t="s">
         <v>2899</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C42" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>2900</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="77" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>2884</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>2885</v>
       </c>
       <c r="C43" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B44" s="34" t="s">
         <v>2951</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>2952</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D44" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>2942</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>2943</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D45" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="81" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B46" s="51" t="s">
         <v>2851</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="C46" s="81" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D46" s="81" t="s">
         <v>2852</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>2853</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="81" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B47" s="51" t="s">
         <v>2854</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="C47" s="81" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D47" s="81" t="s">
         <v>2855</v>
-      </c>
-      <c r="C47" s="81" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D47" s="81" t="s">
-        <v>2856</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="77" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B48" s="34" t="s">
         <v>2871</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="C48" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D48" s="77" t="s">
         <v>2872</v>
-      </c>
-      <c r="C48" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D48" s="77" t="s">
-        <v>2873</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -31583,138 +31731,138 @@
         <v>1069</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="64" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B50" s="34" t="s">
         <v>2917</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>2918</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="D50" s="65" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B51" s="34" t="s">
         <v>2929</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>2930</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D51" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="77" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C52" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D52" s="77" t="s">
         <v>2859</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>2864</v>
-      </c>
-      <c r="C52" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D52" s="77" t="s">
-        <v>2860</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="77" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="C53" s="77" t="s">
         <v>1079</v>
       </c>
       <c r="D53" s="77" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B54" s="48" t="s">
         <v>2981</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>2982</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="64" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B55" s="51" t="s">
         <v>2893</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>2894</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="D55" s="65" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B56" s="34" t="s">
         <v>2936</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>2937</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D56" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="77" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C57" s="77" t="s">
         <v>1068</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="77" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B58" s="34" t="s">
         <v>2890</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>2891</v>
       </c>
       <c r="C58" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D58" s="77" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="77" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B59" s="34" t="s">
         <v>2085</v>
@@ -31723,49 +31871,49 @@
         <v>1068</v>
       </c>
       <c r="D59" s="77" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="77" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C60" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D60" s="77" t="s">
         <v>2823</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>2827</v>
-      </c>
-      <c r="C60" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D60" s="77" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="77" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="C61" s="77" t="s">
         <v>1069</v>
       </c>
       <c r="D61" s="77" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="64" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D62" s="65" t="s">
         <v>2874</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>2876</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D62" s="65" t="s">
-        <v>2875</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -31773,7 +31921,7 @@
         <v>1089</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>1068</v>
@@ -31793,7 +31941,7 @@
         <v>1068</v>
       </c>
       <c r="D64" s="77" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -31801,52 +31949,52 @@
         <v>423</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="C65" s="77" t="s">
         <v>1068</v>
       </c>
       <c r="D65" s="77" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="77" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B66" s="34" t="s">
         <v>2988</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>2989</v>
       </c>
       <c r="C66" s="79" t="s">
         <v>1069</v>
       </c>
       <c r="D66" s="77" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="77" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B67" s="34" t="s">
         <v>2914</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="D67" s="77" t="s">
         <v>2915</v>
-      </c>
-      <c r="D67" s="77" t="s">
-        <v>2916</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="77" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B68" s="34" t="s">
         <v>2985</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="C68" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D68" s="77" t="s">
         <v>2986</v>
-      </c>
-      <c r="C68" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D68" s="77" t="s">
-        <v>2987</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -31854,7 +32002,7 @@
         <v>1555</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C69" s="77" t="s">
         <v>1068</v>
@@ -31865,44 +32013,44 @@
     </row>
     <row r="70" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="77" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C70" s="79" t="s">
         <v>1069</v>
       </c>
       <c r="D70" s="77" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="77" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C71" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D71" s="77" t="s">
         <v>2818</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>2820</v>
-      </c>
-      <c r="C71" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D71" s="77" t="s">
-        <v>2819</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="77" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C72" s="77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D72" s="77" t="s">
         <v>2857</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C72" s="77" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D72" s="77" t="s">
-        <v>2858</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -31915,211 +32063,211 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="134" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="133" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="132" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="131" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="130" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="129" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="128" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="127" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="126" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="125" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="124" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="123" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="122" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="121" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="120" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="119" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="118" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="117" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="116" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="115" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="114" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="113" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="112" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="111" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="110" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="109" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="108" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="107" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="106" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="105" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="104" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="103" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="102" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="101" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="100" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="99" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="98" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="duplicateValues" dxfId="97" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="duplicateValues" dxfId="96" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A48 A1:A44 A52:A53 A56 A61 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="95" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="94" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="93" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A1:A58 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="92" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="91" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="90" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="89" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="88" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="87" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="86" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="85" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="84" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="83" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="82" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="81" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="80" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="79" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="78" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="77" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="76" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="75" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="74" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="73" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="72" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="71" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="70" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="69" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="68" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="66" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32130,15 +32278,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F72B619-F07E-4E67-B084-4F94FC5DF445}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32158,16 +32306,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D2" t="s">
         <v>2994</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>2996</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2995</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -32186,58 +32334,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>3012</v>
       </c>
-      <c r="B4" s="85" t="s">
-        <v>3013</v>
-      </c>
       <c r="C4" s="10" t="s">
         <v>1068</v>
       </c>
       <c r="D4" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B5" s="85" t="s">
         <v>3014</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>3015</v>
-      </c>
       <c r="C5" t="s">
         <v>1068</v>
       </c>
       <c r="D5" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B6" s="85" t="s">
         <v>3016</v>
       </c>
-      <c r="B6" s="85" t="s">
-        <v>3017</v>
-      </c>
       <c r="C6" s="10" t="s">
         <v>1068</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B7" s="83" t="s">
         <v>3018</v>
       </c>
-      <c r="B7" s="83" t="s">
-        <v>3019</v>
-      </c>
       <c r="C7" t="s">
         <v>1068</v>
       </c>
       <c r="D7" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -32251,161 +32399,161 @@
         <v>1068</v>
       </c>
       <c r="D8" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B9" s="83" t="s">
         <v>3020</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>3021</v>
-      </c>
       <c r="C9" t="s">
         <v>1068</v>
       </c>
       <c r="D9" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B10" s="83" t="s">
         <v>3022</v>
       </c>
-      <c r="B10" s="83" t="s">
-        <v>3023</v>
-      </c>
       <c r="C10" s="10" t="s">
         <v>1068</v>
       </c>
       <c r="D10" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B11" s="83" t="s">
         <v>3024</v>
       </c>
-      <c r="B11" s="83" t="s">
-        <v>3025</v>
-      </c>
       <c r="C11" t="s">
         <v>1068</v>
       </c>
       <c r="D11" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B12" s="83" t="s">
         <v>3026</v>
       </c>
-      <c r="B12" s="83" t="s">
-        <v>3027</v>
-      </c>
       <c r="C12" s="10" t="s">
         <v>1068</v>
       </c>
       <c r="D12" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="C13" t="s">
         <v>1068</v>
       </c>
       <c r="D13" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>1068</v>
       </c>
       <c r="D14" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B15" s="83" t="s">
         <v>3030</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="C15" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D15" t="s">
         <v>3031</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3032</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B17" s="85" t="s">
         <v>3041</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>3042</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B18" s="83" t="s">
         <v>3044</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>3045</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="D18" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B19" s="85" t="s">
         <v>3047</v>
       </c>
-      <c r="B19" s="85" t="s">
-        <v>3048</v>
-      </c>
       <c r="C19" s="10" t="s">
         <v>1068</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -32419,7 +32567,7 @@
         <v>1068</v>
       </c>
       <c r="D20" s="86" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -32427,27 +32575,27 @@
         <v>338</v>
       </c>
       <c r="B21" s="88" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D21" s="86" t="s">
         <v>3050</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>3051</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="86" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B22" s="87" t="s">
         <v>3052</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="C22" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D22" s="86" t="s">
         <v>3053</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>3054</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -32455,13 +32603,13 @@
         <v>441</v>
       </c>
       <c r="B23" s="87" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D23" s="86" t="s">
         <v>3055</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>3056</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -32469,13 +32617,13 @@
         <v>176</v>
       </c>
       <c r="B24" s="88" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D24" s="86" t="s">
         <v>3057</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>3058</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -32489,7 +32637,7 @@
         <v>1068</v>
       </c>
       <c r="D25" s="86" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -32531,7 +32679,7 @@
         <v>1069</v>
       </c>
       <c r="D28" s="90" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -32550,10 +32698,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="90" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B30" s="83" t="s">
         <v>3071</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>3072</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>1079</v>
@@ -32567,7 +32715,7 @@
         <v>1143</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>1079</v>
@@ -32578,24 +32726,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="90" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>1069</v>
       </c>
       <c r="D32" s="90" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="90" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B33" s="83" t="s">
         <v>3073</v>
-      </c>
-      <c r="B33" s="83" t="s">
-        <v>3074</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>1079</v>
@@ -32606,97 +32754,185 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="90" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>2747</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B35" s="85" t="s">
         <v>3107</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>3108</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>3109</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="B36" s="85" t="s">
         <v>3110</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>3111</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B37" s="85" t="s">
         <v>3115</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="C37" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>3116</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>3117</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B38" s="83" t="s">
         <v>3118</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="C38" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D38" t="s">
         <v>3119</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>3120</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="83"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="83"/>
+      <c r="B39" s="83" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>3127</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="83"/>
+      <c r="A41" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3129</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="83"/>
+      <c r="A42" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3131</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="83"/>
+      <c r="A43" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3132</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="83"/>
+      <c r="A44" t="s">
+        <v>817</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3135</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="83"/>
+      <c r="A45" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B45" s="83" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3138</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="83"/>
+      <c r="A46" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B46" s="83" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3141</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="83"/>
@@ -32784,181 +33020,205 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="65" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="64" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="62" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="61" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="59" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="58" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="57" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="56" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="55" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="50" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="48" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="46" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="41" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="34" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A34 A38:A1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+  <conditionalFormatting sqref="A1:A34 A38:A39 A41:A1048576">
+    <cfRule type="duplicateValues" dxfId="30" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33821,7 +34081,7 @@
         <v>1207</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -33829,7 +34089,7 @@
         <v>1208</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -33872,50 +34132,50 @@
         <v>1626</v>
       </c>
       <c r="B15" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B16" t="s">
         <v>3062</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3063</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B17" t="s">
         <v>3066</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3067</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="B18" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="B19" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B13">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC9A43-1580-4499-8758-B3AC1E8C3D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE9F1B1-2937-4DE8-B9F1-95DEBE2D7005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" activeTab="6" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5770" uniqueCount="3142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5806" uniqueCount="3166">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -9512,6 +9512,78 @@
   </si>
   <si>
     <t>raincoat</t>
+  </si>
+  <si>
+    <t>puddle</t>
+  </si>
+  <si>
+    <t>akala</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>rintakala</t>
+  </si>
+  <si>
+    <t>RINTAKALA</t>
+  </si>
+  <si>
+    <t>AKALA</t>
+  </si>
+  <si>
+    <t>to splash</t>
+  </si>
+  <si>
+    <t>chikiatse'</t>
+  </si>
+  <si>
+    <t>ĈIKĨṮE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chikiats </t>
+  </si>
+  <si>
+    <t>ĈIKĨṮ</t>
+  </si>
+  <si>
+    <t>splash</t>
+  </si>
+  <si>
+    <t>kliazheze'</t>
+  </si>
+  <si>
+    <t>ḰĨŹEZE'</t>
+  </si>
+  <si>
+    <t>to make wet</t>
+  </si>
+  <si>
+    <t>kliazheve'</t>
+  </si>
+  <si>
+    <t>ḰĨŹEVE'</t>
+  </si>
+  <si>
+    <t>to become wet</t>
+  </si>
+  <si>
+    <t>a Zhodani "pigeon"</t>
+  </si>
+  <si>
+    <t>chilotl</t>
+  </si>
+  <si>
+    <t>ĈILOṪ</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>atlotl</t>
+  </si>
+  <si>
+    <t>AṪOṪ</t>
   </si>
 </sst>
 </file>
@@ -9901,10 +9973,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9920,6 +9992,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -10000,16 +10082,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -11932,8 +12004,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12239,8 +12311,8 @@
   <dimension ref="A1:D751"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D460" sqref="D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -18663,7 +18735,7 @@
         <v>1068</v>
       </c>
       <c r="D459" s="12" t="s">
-        <v>327</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -24563,15 +24635,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>947</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
@@ -27778,7 +27850,7 @@
     <sortCondition ref="A2:A119"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D33" location="'Zhdetl (from Alien Book 4)'!A19" display="'Zhdetl (from Alien Book 4)'!A19" xr:uid="{F22ED44C-2884-447F-9EEA-635AD96A4C7F}"/>
@@ -32278,8 +32350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F72B619-F07E-4E67-B084-4F94FC5DF445}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32896,7 +32968,7 @@
       <c r="A44" t="s">
         <v>817</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="91" t="s">
         <v>1600</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -32935,57 +33007,156 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="83"/>
+      <c r="A47" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B47" s="83" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3142</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="83"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="83"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="83"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="83"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="83"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="83"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="83"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="83"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B48" s="83" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B49" s="83" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B50" s="83" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B51" s="83" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B52" s="83" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="83" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B54" s="83" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B55" s="83" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="83"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="83"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="83"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="83"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="83"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" s="83"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="83"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="83"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="83"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -33197,28 +33368,28 @@
     <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -34169,13 +34340,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B13">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8D9BF0-DA3A-4EE9-A53D-C454E1F476A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09CFBF7-3CB7-4E96-99F7-1849EC99C703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6070" uniqueCount="3226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="3245">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -9765,6 +9765,63 @@
   </si>
   <si>
     <t>an alphabet (a collection of letters)</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>tiechi</t>
+  </si>
+  <si>
+    <t>TĪĈI</t>
+  </si>
+  <si>
+    <t>to behold, look at, observe</t>
+  </si>
+  <si>
+    <t>kanozhde'</t>
+  </si>
+  <si>
+    <t>KANOŽE'</t>
+  </si>
+  <si>
+    <t>to invite</t>
+  </si>
+  <si>
+    <t>techitl</t>
+  </si>
+  <si>
+    <t>TEĈIṪ</t>
+  </si>
+  <si>
+    <t>theater</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>of, when used to express a quantity of a specific item</t>
+  </si>
+  <si>
+    <t>of, when used to express a general quanitity</t>
+  </si>
+  <si>
+    <t>indicates a thing made from the root word</t>
+  </si>
+  <si>
+    <t>-tek</t>
+  </si>
+  <si>
+    <t>-TEK</t>
   </si>
 </sst>
 </file>
@@ -10023,7 +10080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10160,6 +10217,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10175,6 +10233,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -12636,16 +12704,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -12677,8 +12735,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="248"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="247"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12981,11 +13039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:D795"/>
+  <dimension ref="A1:D799"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A767" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D653" sqref="D653"/>
+      <pane ySplit="1" topLeftCell="A776" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C787" sqref="C787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -23093,7 +23151,7 @@
         <v>1067</v>
       </c>
       <c r="D723" s="25" t="s">
-        <v>1304</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="724" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -24102,6 +24160,62 @@
       </c>
       <c r="D795" s="10" t="s">
         <v>3218</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A796" s="10" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B796" s="48" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C796" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D796" s="10" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A797" s="10" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B797" s="48" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C797" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D797" s="10" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A798" s="10" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B798" s="48" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C798" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D798" s="10" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A799" s="13" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B799" s="96" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C799" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D799" s="10" t="s">
+        <v>3242</v>
       </c>
     </row>
   </sheetData>
@@ -24112,160 +24226,160 @@
   <dataConsolidate/>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D733:D735 F666:F729 E538:E598 D1:D22 D24:D47 D49:D537 D739:D1048576">
-    <cfRule type="duplicateValues" dxfId="246" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A364:A365 A520:A537 A367:A518 A252:A362 A187:A250 A1:A185 A739:A754">
-    <cfRule type="duplicateValues" dxfId="245" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A520:A537 A1:A518 A739:A754">
-    <cfRule type="duplicateValues" dxfId="244" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A592:A598 A538:A539 A588 A571:A581 A554:A557 A559:A568 A541:A552">
-    <cfRule type="duplicateValues" dxfId="243" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A1:A598 A739:A754">
-    <cfRule type="duplicateValues" dxfId="242" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A628:A630 A599:A626 A632:A637">
-    <cfRule type="duplicateValues" dxfId="241" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A627">
-    <cfRule type="duplicateValues" dxfId="240" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A632:A637 A599:A630">
-    <cfRule type="duplicateValues" dxfId="239" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D628:D637 D599:D626">
-    <cfRule type="duplicateValues" dxfId="238" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A1:A630 A632:A637 A739:A754">
-    <cfRule type="duplicateValues" dxfId="237" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A739:A754">
-    <cfRule type="duplicateValues" dxfId="236" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="235" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="234" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D733:D735 D1:D637 D739:D1048576">
-    <cfRule type="duplicateValues" dxfId="233" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="232" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="231" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="230" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A697">
-    <cfRule type="duplicateValues" dxfId="229" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D677:D696">
-    <cfRule type="duplicateValues" dxfId="228" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D677:D696 D698:D709 D711:D716 D718:D719 D721">
-    <cfRule type="duplicateValues" dxfId="227" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A717">
-    <cfRule type="duplicateValues" dxfId="226" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A728">
-    <cfRule type="duplicateValues" dxfId="225" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A728">
-    <cfRule type="duplicateValues" dxfId="224" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731:A732">
-    <cfRule type="duplicateValues" dxfId="223" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731:A732">
-    <cfRule type="duplicateValues" dxfId="222" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738">
-    <cfRule type="duplicateValues" dxfId="221" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738">
-    <cfRule type="duplicateValues" dxfId="220" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A1:A754">
-    <cfRule type="duplicateValues" dxfId="219" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="218" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="217" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="216" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="215" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="214" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="213" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="212" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="211" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="210" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="209" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="208" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="207" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="206" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="205" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="204" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="203" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="202" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="201" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="200" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="199" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="198" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="197" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="196" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A766:A767 A755:A763">
-    <cfRule type="duplicateValues" dxfId="195" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="404"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24452,13 +24566,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A8 A10">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B13">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30139,7 +30253,7 @@
     <sortCondition ref="A2:A91"/>
   </sortState>
   <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
-    <cfRule type="duplicateValues" dxfId="194" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30978,43 +31092,43 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="duplicateValues" dxfId="193" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="192" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="duplicateValues" dxfId="191" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="duplicateValues" dxfId="190" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A44">
-    <cfRule type="duplicateValues" dxfId="189" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="188" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="187" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="186" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="185" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="184" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="183" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="duplicateValues" dxfId="182" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="181" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31778,28 +31892,28 @@
     <sortCondition ref="A2:A68"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="180" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="179" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="178" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="177" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="176" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="175" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="174" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A67 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="173" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32629,28 +32743,28 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="172" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="171" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="170" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="169" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="168" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="167" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="166" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="165" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33688,211 +33802,211 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="164" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="163" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="162" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="161" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="160" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="159" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="158" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="157" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="156" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="155" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="154" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="153" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="152" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="151" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="150" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="149" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="148" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="147" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="146" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="145" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="144" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="143" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="142" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="141" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="140" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="139" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="138" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="137" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="136" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="135" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="134" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="133" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="132" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="131" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="130" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="129" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="128" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="duplicateValues" dxfId="127" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="duplicateValues" dxfId="126" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A48 A1:A44 A52:A53 A56 A61 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="125" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="124" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="123" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A1:A58 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="122" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="121" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="120" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="119" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="118" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="117" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="116" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="115" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="114" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="113" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="112" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="111" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="110" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="109" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="108" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="107" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="106" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="105" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="104" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="103" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="102" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="101" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="100" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="99" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="98" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="97" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="96" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -34802,253 +34916,253 @@
     <sortCondition ref="A2:A74"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="95" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="94" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="93" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="92" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="91" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="90" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="89" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="88" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="87" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="86" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="85" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="84" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="83" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="82" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="81" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="80" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="79" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="78" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="77" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="76" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="75" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="74" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="73" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="72" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="71" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="70" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="69" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="68" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="67" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="66" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="65" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="64" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="63" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="62" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="61" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="59" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="57" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="56" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="55" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="54" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A34 A38:A39 A41:A61 A64:A1048576">
-    <cfRule type="duplicateValues" dxfId="53" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="52" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="51" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="50" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="49" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="48" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="47" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="46" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="45" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="44" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="43" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="41" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="40" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="38" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="37" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="36" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="35" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="34" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="33" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="32" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="31" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="30" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="29" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="28" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35057,17 +35171,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCFC9F8-4C76-48D0-B662-02AAA8D192D0}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -35266,33 +35381,117 @@
         <v>3218</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3242</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B0687-6C21-40A1-A9C4-632DC9CC7E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A474D3-8648-4CE2-A1CC-9FCC53DF9DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" activeTab="8" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" activeTab="6" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6433" uniqueCount="3384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6499" uniqueCount="3408">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -10194,15 +10194,9 @@
     <t>ichaki</t>
   </si>
   <si>
-    <t>ej</t>
-  </si>
-  <si>
     <t>than, when used in comparisons</t>
   </si>
   <si>
-    <t>oj</t>
-  </si>
-  <si>
     <t>out of, when used in comparisons</t>
   </si>
   <si>
@@ -10221,9 +10215,6 @@
     <t xml:space="preserve">the ancient city </t>
   </si>
   <si>
-    <t>EJ</t>
-  </si>
-  <si>
     <t>AḌ</t>
   </si>
   <si>
@@ -10240,6 +10231,87 @@
   </si>
   <si>
     <t>AĈAṪI</t>
+  </si>
+  <si>
+    <t>yoaki</t>
+  </si>
+  <si>
+    <t>YOAKI</t>
+  </si>
+  <si>
+    <t>ḟONŹ</t>
+  </si>
+  <si>
+    <t>ivr</t>
+  </si>
+  <si>
+    <t>ol</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>zhdiechtlas</t>
+  </si>
+  <si>
+    <t>ŽĪĈṪAS</t>
+  </si>
+  <si>
+    <t>topmost layer of the forest</t>
+  </si>
+  <si>
+    <t>zhdiechedlchima</t>
+  </si>
+  <si>
+    <t>ŽĪĈEḊĈIMA</t>
+  </si>
+  <si>
+    <t>forest canopy layer</t>
+  </si>
+  <si>
+    <t>zhdiechedlkochal</t>
+  </si>
+  <si>
+    <t>ŽĪĈEḊKOĈAL</t>
+  </si>
+  <si>
+    <t>forest floor</t>
+  </si>
+  <si>
+    <t>zhdiecheldchali</t>
+  </si>
+  <si>
+    <t>ŽĪĈEḊĈALI</t>
+  </si>
+  <si>
+    <t>forest understory between the floor and canopy</t>
+  </si>
+  <si>
+    <t>dzhayak</t>
+  </si>
+  <si>
+    <t>DŹAYAK</t>
+  </si>
+  <si>
+    <t>a large bird resembling a vulture, native to Zhdant</t>
+  </si>
+  <si>
+    <t>chakotl</t>
+  </si>
+  <si>
+    <t>ĈAKOṪ</t>
+  </si>
+  <si>
+    <t>a six-legged squirrel-like creature</t>
+  </si>
+  <si>
+    <t>to study</t>
   </si>
 </sst>
 </file>
@@ -10498,7 +10570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10638,6 +10710,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10653,6 +10726,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -13214,16 +13297,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -13255,8 +13328,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="258"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="257"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13562,8 +13635,8 @@
   <dimension ref="A1:D817"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D550" sqref="D550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -17419,7 +17492,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="11" t="s">
-        <v>241</v>
+        <v>3384</v>
       </c>
       <c r="B276" s="50" t="s">
         <v>2231</v>
@@ -21242,7 +21315,7 @@
         <v>1065</v>
       </c>
       <c r="D549" s="65" t="s">
-        <v>2794</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -24998,160 +25071,160 @@
   <dataConsolidate/>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D733:D735 F666:F729 E538:E598 D1:D22 D24:D47 D49:D537 D739:D1048576">
-    <cfRule type="duplicateValues" dxfId="256" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A364:A365 A520:A537 A367:A518 A252:A362 A188:A250 A1:A186 A739:A754">
-    <cfRule type="duplicateValues" dxfId="255" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A520:A537 A1:A518 A739:A754">
-    <cfRule type="duplicateValues" dxfId="254" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A592:A598 A538:A539 A588 A571:A581 A554:A557 A559:A568 A541:A552">
-    <cfRule type="duplicateValues" dxfId="253" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A1:A598 A739:A754">
-    <cfRule type="duplicateValues" dxfId="252" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A628:A630 A599:A626 A632:A637">
-    <cfRule type="duplicateValues" dxfId="251" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A627">
-    <cfRule type="duplicateValues" dxfId="250" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A632:A637 A599:A630">
-    <cfRule type="duplicateValues" dxfId="249" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D628:D637 D599:D626">
-    <cfRule type="duplicateValues" dxfId="248" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A1:A630 A632:A637 A739:A754">
-    <cfRule type="duplicateValues" dxfId="247" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A739:A754">
-    <cfRule type="duplicateValues" dxfId="246" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="245" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="244" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D733:D735 D1:D637 D739:D1048576">
-    <cfRule type="duplicateValues" dxfId="243" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="242" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="241" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="240" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A697">
-    <cfRule type="duplicateValues" dxfId="239" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D677:D696">
-    <cfRule type="duplicateValues" dxfId="238" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D677:D696 D698:D709 D711:D716 D718:D719 D721">
-    <cfRule type="duplicateValues" dxfId="237" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A717">
-    <cfRule type="duplicateValues" dxfId="236" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A728">
-    <cfRule type="duplicateValues" dxfId="235" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A728">
-    <cfRule type="duplicateValues" dxfId="234" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731:A732">
-    <cfRule type="duplicateValues" dxfId="233" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731:A732">
-    <cfRule type="duplicateValues" dxfId="232" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738">
-    <cfRule type="duplicateValues" dxfId="231" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738">
-    <cfRule type="duplicateValues" dxfId="230" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A1:A754">
-    <cfRule type="duplicateValues" dxfId="229" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="228" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="227" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="226" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="225" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="224" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="223" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="222" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="221" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="220" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="219" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="218" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="217" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="216" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="215" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="214" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="213" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="212" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="211" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="210" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="209" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="208" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="207" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="206" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A766:A767 A755:A763">
-    <cfRule type="duplicateValues" dxfId="205" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="404"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26248,16 +26321,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B8 A10:B10">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B8 A10:B10">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C13">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31939,7 +32012,7 @@
     <sortCondition ref="A2:A91"/>
   </sortState>
   <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
-    <cfRule type="duplicateValues" dxfId="204" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32778,43 +32851,43 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="duplicateValues" dxfId="203" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="202" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="duplicateValues" dxfId="201" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="duplicateValues" dxfId="200" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A44">
-    <cfRule type="duplicateValues" dxfId="199" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="198" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="197" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="196" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="195" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="194" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="193" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="duplicateValues" dxfId="192" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="191" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33578,28 +33651,28 @@
     <sortCondition ref="A2:A68"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="190" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="189" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="188" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="187" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="186" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="185" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="184" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A67 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="183" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -34429,28 +34502,28 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="182" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="181" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="180" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="179" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="178" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="177" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="176" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="175" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35488,211 +35561,211 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="174" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="173" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="172" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="171" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="170" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="169" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="168" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="167" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="166" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="165" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="164" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="163" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="162" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="161" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="160" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="159" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="158" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="157" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="156" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="155" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="154" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="153" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="152" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="151" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="150" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="149" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="148" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="147" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="146" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="145" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="144" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="143" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="142" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="141" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="140" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="139" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="138" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="duplicateValues" dxfId="137" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="duplicateValues" dxfId="136" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A48 A1:A44 A52:A53 A56 A61 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="135" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="134" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="133" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A1:A58 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="132" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="131" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="130" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="129" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="128" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="127" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="126" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="125" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="124" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="123" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="122" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="121" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="120" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="119" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="118" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="117" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="116" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="115" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="114" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="113" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="112" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="111" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="110" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="109" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="108" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="107" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="106" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35703,8 +35776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F72B619-F07E-4E67-B084-4F94FC5DF445}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A63" sqref="A2:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36602,253 +36675,253 @@
     <sortCondition ref="A2:A74"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="105" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="104" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="103" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="102" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="101" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="100" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="99" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="98" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="97" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="96" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="95" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="94" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="93" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="92" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="91" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="90" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="89" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="88" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="87" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="86" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="85" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="84" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="83" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="82" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="81" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="80" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="79" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="78" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="77" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="76" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="75" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="74" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="73" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="72" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="71" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="70" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="69" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="68" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="67" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="66" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="65" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="64" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A34 A38:A39 A41:A61 A64:A1048576">
-    <cfRule type="duplicateValues" dxfId="63" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="62" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="61" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="60" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="59" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="58" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="57" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="56" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="55" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="54" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="53" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="52" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="51" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="50" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="49" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="48" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="47" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="46" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="45" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="44" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="43" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="42" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="41" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="39" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="38" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="37" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="36" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="35" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="34" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="32" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36859,7 +36932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCFC9F8-4C76-48D0-B662-02AAA8D192D0}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -37492,31 +37565,31 @@
     <sortCondition ref="A2:A44"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37525,16 +37598,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AD2021-A592-469F-9F0D-AAD89469E5C2}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" style="82" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -37567,10 +37641,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="C3" t="s">
         <v>1075</v>
@@ -37594,41 +37668,71 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>1075</v>
+      </c>
       <c r="D5" t="s">
         <v>3356</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>1075</v>
+      </c>
       <c r="D6" t="s">
         <v>3357</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>1075</v>
+      </c>
       <c r="D7" t="s">
         <v>3358</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>1075</v>
+      </c>
       <c r="D8" t="s">
         <v>2742</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>1075</v>
+      </c>
       <c r="D9" t="s">
         <v>2743</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>1075</v>
+      </c>
       <c r="D10" t="s">
         <v>2746</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>1075</v>
+      </c>
       <c r="D11" t="s">
         <v>3359</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1075</v>
+      </c>
       <c r="D12" t="s">
         <v>3107</v>
       </c>
@@ -37638,7 +37742,10 @@
         <v>3366</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>3381</v>
+        <v>3378</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1075</v>
       </c>
       <c r="D13" t="s">
         <v>3104</v>
@@ -37676,6 +37783,12 @@
       <c r="A16" t="s">
         <v>3361</v>
       </c>
+      <c r="B16" s="82" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1065</v>
+      </c>
       <c r="D16" t="s">
         <v>3064</v>
       </c>
@@ -37687,6 +37800,9 @@
       <c r="B17" s="82" t="s">
         <v>2974</v>
       </c>
+      <c r="C17" t="s">
+        <v>1065</v>
+      </c>
       <c r="D17" t="s">
         <v>3362</v>
       </c>
@@ -37698,6 +37814,9 @@
       <c r="B18" s="82" t="s">
         <v>2012</v>
       </c>
+      <c r="C18" t="s">
+        <v>1065</v>
+      </c>
       <c r="D18" t="s">
         <v>3084</v>
       </c>
@@ -37709,6 +37828,9 @@
       <c r="B19" s="82" t="s">
         <v>1764</v>
       </c>
+      <c r="C19" t="s">
+        <v>1065</v>
+      </c>
       <c r="D19" t="s">
         <v>3363</v>
       </c>
@@ -37720,6 +37842,9 @@
       <c r="B20" s="82" t="s">
         <v>2120</v>
       </c>
+      <c r="C20" t="s">
+        <v>1064</v>
+      </c>
       <c r="D20" t="s">
         <v>3365</v>
       </c>
@@ -37729,7 +37854,10 @@
         <v>2427</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>3378</v>
+        <v>3375</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1064</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -37740,7 +37868,10 @@
         <v>1414</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>3379</v>
+        <v>3376</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1064</v>
       </c>
       <c r="D22" t="s">
         <v>1415</v>
@@ -37748,24 +37879,30 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D23" t="s">
         <v>3368</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>3377</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3369</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>3370</v>
+        <v>3385</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>3275</v>
+        <v>3386</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3181</v>
       </c>
       <c r="D24" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -37775,6 +37912,9 @@
       <c r="B25" s="85" t="s">
         <v>3023</v>
       </c>
+      <c r="C25" t="s">
+        <v>1064</v>
+      </c>
       <c r="D25" t="s">
         <v>3003</v>
       </c>
@@ -37786,19 +37926,25 @@
       <c r="B26" s="85" t="s">
         <v>3024</v>
       </c>
+      <c r="C26" t="s">
+        <v>1064</v>
+      </c>
       <c r="D26" t="s">
         <v>3004</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="B27" s="86" t="s">
         <v>3045</v>
       </c>
+      <c r="C27" t="s">
+        <v>1064</v>
+      </c>
       <c r="D27" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -37808,6 +37954,9 @@
       <c r="B28" s="86" t="s">
         <v>3052</v>
       </c>
+      <c r="C28" t="s">
+        <v>1064</v>
+      </c>
       <c r="D28" t="s">
         <v>3053</v>
       </c>
@@ -37819,16 +37968,22 @@
       <c r="B29" s="86" t="s">
         <v>2350</v>
       </c>
+      <c r="C29" t="s">
+        <v>1064</v>
+      </c>
       <c r="D29" t="s">
         <v>3054</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
       <c r="B30" s="86" t="s">
         <v>3012</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1064</v>
       </c>
       <c r="D30" t="s">
         <v>2997</v>
@@ -37841,6 +37996,9 @@
       <c r="B31" s="85" t="s">
         <v>3014</v>
       </c>
+      <c r="C31" t="s">
+        <v>1064</v>
+      </c>
       <c r="D31" t="s">
         <v>2998</v>
       </c>
@@ -37852,6 +38010,9 @@
       <c r="B32" s="86" t="s">
         <v>3026</v>
       </c>
+      <c r="C32" t="s">
+        <v>1064</v>
+      </c>
       <c r="D32" t="s">
         <v>3027</v>
       </c>
@@ -37863,6 +38024,9 @@
       <c r="B33" s="85" t="s">
         <v>3016</v>
       </c>
+      <c r="C33" t="s">
+        <v>1064</v>
+      </c>
       <c r="D33" t="s">
         <v>2999</v>
       </c>
@@ -37874,6 +38038,9 @@
       <c r="B34" s="85" t="s">
         <v>3018</v>
       </c>
+      <c r="C34" t="s">
+        <v>1064</v>
+      </c>
       <c r="D34" t="s">
         <v>3000</v>
       </c>
@@ -37885,6 +38052,9 @@
       <c r="B35" s="85" t="s">
         <v>3020</v>
       </c>
+      <c r="C35" t="s">
+        <v>1064</v>
+      </c>
       <c r="D35" t="s">
         <v>3001</v>
       </c>
@@ -37896,6 +38066,9 @@
       <c r="B36" s="85" t="s">
         <v>3022</v>
       </c>
+      <c r="C36" t="s">
+        <v>1064</v>
+      </c>
       <c r="D36" t="s">
         <v>3002</v>
       </c>
@@ -37907,8 +38080,11 @@
       <c r="B37" s="85" t="s">
         <v>3048</v>
       </c>
+      <c r="C37" t="s">
+        <v>1064</v>
+      </c>
       <c r="D37" t="s">
-        <v>3375</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -37918,8 +38094,11 @@
       <c r="B38" s="85" t="s">
         <v>3050</v>
       </c>
+      <c r="C38" t="s">
+        <v>1064</v>
+      </c>
       <c r="D38" t="s">
-        <v>3376</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -37929,16 +38108,22 @@
       <c r="B39" s="82" t="s">
         <v>2148</v>
       </c>
+      <c r="C39" t="s">
+        <v>1065</v>
+      </c>
       <c r="D39" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="B40" s="82" t="s">
         <v>2035</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1065</v>
       </c>
       <c r="D40" t="s">
         <v>3083</v>
@@ -37951,37 +38136,138 @@
       <c r="B41" s="82" t="s">
         <v>2925</v>
       </c>
+      <c r="C41" t="s">
+        <v>1065</v>
+      </c>
       <c r="D41" t="s">
         <v>3336</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="99" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B43" s="82" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B45" s="82" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B46" s="82" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B47" s="82" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B48" s="82" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3406</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE5AB2A-2269-49B5-A3C1-38F09EB1144F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A9727-5149-483F-A50F-D4A1312D013D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BZ 4 Vocabulary'!$A$1:$A$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Lessons!$A$1:$C$229</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lexicon!$A$1:$D$817</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lexicon!$A$1:$D$818</definedName>
     <definedName name="ExternalData_1" localSheetId="12" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="3461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6569" uniqueCount="3466">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -10472,6 +10472,21 @@
   </si>
   <si>
     <t>ĈKTE'</t>
+  </si>
+  <si>
+    <t>to say, to utter a sound</t>
+  </si>
+  <si>
+    <t>qrazhe'</t>
+  </si>
+  <si>
+    <t>qrazhi</t>
+  </si>
+  <si>
+    <t>ṼAŹI</t>
+  </si>
+  <si>
+    <t>to make noise</t>
   </si>
 </sst>
 </file>
@@ -10876,7 +10891,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="278">
+  <dxfs count="269">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10886,296 +10901,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -13647,6 +13372,206 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -13678,8 +13603,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="268"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="267"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13982,11 +13907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:D817"/>
+  <dimension ref="A1:D818"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D606" sqref="D606"/>
+      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D518" sqref="D518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -20771,7 +20696,7 @@
         <v>1065</v>
       </c>
       <c r="D485" s="65" t="s">
-        <v>2728</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -21210,10 +21135,10 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="10" t="s">
-        <v>1413</v>
+        <v>3463</v>
       </c>
       <c r="B517" s="50" t="s">
-        <v>1549</v>
+        <v>3464</v>
       </c>
       <c r="C517" s="14" t="s">
         <v>1064</v>
@@ -21223,1795 +21148,1795 @@
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A518" s="11" t="s">
+      <c r="A518" s="10" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B518" s="50" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C518" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D518" s="10" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" s="11" t="s">
         <v>2362</v>
       </c>
-      <c r="B518" s="50" t="s">
+      <c r="B519" s="50" t="s">
         <v>2357</v>
       </c>
-      <c r="C518" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D518" s="12" t="s">
+      <c r="C519" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D519" s="12" t="s">
         <v>2363</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A519" s="14" t="s">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="B519" s="49" t="s">
+      <c r="B520" s="49" t="s">
         <v>2360</v>
       </c>
-      <c r="C519" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D519" s="14" t="s">
+      <c r="C520" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D520" s="14" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A520" s="10" t="s">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="B520" s="48" t="s">
+      <c r="B521" s="48" t="s">
         <v>2361</v>
       </c>
-      <c r="C520" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D520" s="10" t="s">
+      <c r="C521" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D521" s="10" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A521" s="14" t="s">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" s="14" t="s">
         <v>2376</v>
       </c>
-      <c r="B521" s="49" t="s">
+      <c r="B522" s="49" t="s">
         <v>2590</v>
       </c>
-      <c r="C521" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D521" s="14" t="s">
+      <c r="C522" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D522" s="14" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A522" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B522" s="51" t="s">
-        <v>2377</v>
-      </c>
-      <c r="C522" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D522" s="25" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B523" s="51" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C523" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D523" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B523" s="51" t="s">
+      <c r="B524" s="51" t="s">
         <v>2378</v>
       </c>
-      <c r="C523" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D523" s="25" t="s">
+      <c r="C524" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D524" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A524" s="11" t="s">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" s="11" t="s">
         <v>2364</v>
       </c>
-      <c r="B524" s="50" t="s">
+      <c r="B525" s="50" t="s">
         <v>2358</v>
       </c>
-      <c r="C524" s="11" t="s">
+      <c r="C525" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="D524" s="12" t="s">
+      <c r="D525" s="12" t="s">
         <v>3031</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A525" s="14" t="s">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" s="14" t="s">
         <v>2365</v>
       </c>
-      <c r="B525" s="49" t="s">
+      <c r="B526" s="49" t="s">
         <v>2359</v>
       </c>
-      <c r="C525" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D525" s="12" t="s">
+      <c r="C526" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D526" s="12" t="s">
         <v>1140</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A526" s="10" t="s">
-        <v>3140</v>
-      </c>
-      <c r="B526" s="48" t="s">
-        <v>3141</v>
-      </c>
-      <c r="C526" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D526" s="10" t="s">
-        <v>3137</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="10" t="s">
-        <v>3134</v>
+        <v>3140</v>
       </c>
       <c r="B527" s="48" t="s">
-        <v>3135</v>
+        <v>3141</v>
       </c>
       <c r="C527" s="10" t="s">
         <v>1064</v>
       </c>
       <c r="D527" s="10" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="10" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B528" s="48" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C528" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D528" s="10" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" s="10" t="s">
         <v>3131</v>
       </c>
-      <c r="B528" s="48" t="s">
+      <c r="B529" s="48" t="s">
         <v>3132</v>
       </c>
-      <c r="C528" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D528" s="10" t="s">
+      <c r="C529" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D529" s="10" t="s">
         <v>3133</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A529" s="56" t="s">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530" s="56" t="s">
         <v>1102</v>
       </c>
-      <c r="B529" s="51" t="s">
+      <c r="B530" s="51" t="s">
         <v>2366</v>
       </c>
-      <c r="C529" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D529" s="25" t="s">
+      <c r="C530" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D530" s="25" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A530" s="11" t="s">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531" s="11" t="s">
         <v>2374</v>
       </c>
-      <c r="B530" s="50" t="s">
+      <c r="B531" s="50" t="s">
         <v>2375</v>
       </c>
-      <c r="C530" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D530" s="12" t="s">
+      <c r="C531" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D531" s="12" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A531" s="10" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B531" s="48" t="s">
-        <v>2367</v>
-      </c>
-      <c r="C531" s="14" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D531" s="10" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B532" s="48" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C532" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D532" s="10" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="B532" s="48" t="s">
+      <c r="B533" s="48" t="s">
         <v>1462</v>
       </c>
-      <c r="C532" s="14" t="s">
+      <c r="C533" s="14" t="s">
         <v>2544</v>
       </c>
-      <c r="D532" s="10" t="s">
+      <c r="D533" s="10" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A533" s="55" t="s">
+    <row r="534" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A534" s="55" t="s">
         <v>2679</v>
       </c>
-      <c r="B533" s="46" t="s">
+      <c r="B534" s="46" t="s">
         <v>2686</v>
       </c>
-      <c r="C533" s="25"/>
-      <c r="D533" t="s">
+      <c r="C534" s="25"/>
+      <c r="D534" t="s">
         <v>2678</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A534" s="10" t="s">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535" s="10" t="s">
         <v>1482</v>
       </c>
-      <c r="B534" s="48" t="s">
+      <c r="B535" s="48" t="s">
         <v>1483</v>
-      </c>
-      <c r="C534" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D534" s="10" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A535" s="64" t="s">
-        <v>2930</v>
-      </c>
-      <c r="B535" s="34" t="s">
-        <v>2931</v>
       </c>
       <c r="C535" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="D535" t="s">
+      <c r="D535" s="10" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536" s="64" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B536" s="34" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C536" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D536" t="s">
         <v>2935</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A536" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="B536" s="50" t="s">
-        <v>2368</v>
-      </c>
-      <c r="C536" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D536" s="12" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B537" s="50" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C537" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D537" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538" s="11" t="s">
         <v>2370</v>
       </c>
-      <c r="B537" s="50" t="s">
+      <c r="B538" s="50" t="s">
         <v>2369</v>
       </c>
-      <c r="C537" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D537" s="12" t="s">
+      <c r="C538" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D538" s="12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A538" s="14" t="s">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="B538" s="49" t="s">
+      <c r="B539" s="49" t="s">
         <v>2381</v>
       </c>
-      <c r="C538" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D538" s="14" t="s">
+      <c r="C539" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D539" s="14" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A539" s="10" t="s">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B539" s="49" t="s">
+      <c r="B540" s="49" t="s">
         <v>2380</v>
       </c>
-      <c r="C539" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D539" s="10" t="s">
+      <c r="C540" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D540" s="10" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A540" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="B540" s="49" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C540" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D540" s="14" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="B541" s="49" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C541" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D541" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542" s="14" t="s">
         <v>915</v>
       </c>
-      <c r="B541" s="50" t="s">
+      <c r="B542" s="50" t="s">
         <v>2371</v>
       </c>
-      <c r="C541" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D541" s="12" t="s">
+      <c r="C542" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D542" s="12" t="s">
         <v>2432</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A542" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="B542" s="50" t="s">
-        <v>2372</v>
-      </c>
-      <c r="C542" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D542" s="12" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B543" s="50" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C543" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D543" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B543" s="50" t="s">
+      <c r="B544" s="50" t="s">
         <v>2373</v>
       </c>
-      <c r="C543" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D543" s="12" t="s">
+      <c r="C544" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D544" s="12" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A544" s="56" t="s">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B544" s="51" t="s">
+      <c r="B545" s="51" t="s">
         <v>2382</v>
       </c>
-      <c r="C544" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D544" s="25" t="s">
+      <c r="C545" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D545" s="25" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A545" s="55" t="s">
-        <v>2444</v>
-      </c>
-      <c r="B545" s="34" t="s">
-        <v>2445</v>
-      </c>
-      <c r="C545" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D545" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="55" t="s">
-        <v>1488</v>
+        <v>2444</v>
       </c>
       <c r="B546" s="34" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C546" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D546" s="10" t="s">
-        <v>1146</v>
+        <v>2445</v>
+      </c>
+      <c r="C546" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D546" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="55" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B547" s="34" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C547" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D547" s="10" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" s="55" t="s">
         <v>1499</v>
       </c>
-      <c r="B547" s="34" t="s">
+      <c r="B548" s="34" t="s">
         <v>1507</v>
       </c>
-      <c r="C547" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D547" t="s">
+      <c r="C548" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D548" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A548" s="14" t="s">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" s="14" t="s">
         <v>884</v>
       </c>
-      <c r="B548" s="49" t="s">
+      <c r="B549" s="49" t="s">
         <v>2383</v>
       </c>
-      <c r="C548" s="14" t="s">
+      <c r="C549" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D548" s="24" t="s">
+      <c r="D549" s="24" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A549" s="55" t="s">
+    <row r="550" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A550" s="55" t="s">
         <v>2792</v>
       </c>
-      <c r="B549" s="46" t="s">
+      <c r="B550" s="46" t="s">
         <v>2794</v>
       </c>
-      <c r="C549" s="65" t="s">
+      <c r="C550" s="65" t="s">
         <v>1065</v>
       </c>
-      <c r="D549" s="65" t="s">
+      <c r="D550" s="65" t="s">
         <v>3397</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A550" s="55" t="s">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" s="55" t="s">
         <v>1276</v>
       </c>
-      <c r="B550" s="49" t="s">
+      <c r="B551" s="49" t="s">
         <v>1362</v>
       </c>
-      <c r="C550" s="14" t="s">
+      <c r="C551" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="D550" s="10" t="s">
+      <c r="D551" s="10" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A551" s="10" t="s">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" s="10" t="s">
         <v>1195</v>
       </c>
-      <c r="B551" s="34" t="s">
+      <c r="B552" s="34" t="s">
         <v>2384</v>
       </c>
-      <c r="C551" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D551" s="13" t="s">
+      <c r="C552" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D552" s="13" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A552" s="11" t="s">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" s="11" t="s">
         <v>2385</v>
       </c>
-      <c r="B552" s="50" t="s">
+      <c r="B553" s="50" t="s">
         <v>2386</v>
       </c>
-      <c r="C552" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D552" s="12" t="s">
+      <c r="C553" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D553" s="12" t="s">
         <v>3165</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A553" s="55" t="s">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" s="55" t="s">
         <v>1678</v>
       </c>
-      <c r="B553" s="34" t="s">
+      <c r="B554" s="34" t="s">
         <v>1679</v>
       </c>
-      <c r="C553" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D553" t="s">
+      <c r="C554" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D554" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A554" s="14" t="s">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="B554" s="50" t="s">
+      <c r="B555" s="50" t="s">
         <v>2387</v>
       </c>
-      <c r="C554" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D554" s="14" t="s">
+      <c r="C555" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D555" s="14" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A555" s="56" t="s">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556" s="56" t="s">
         <v>1249</v>
       </c>
-      <c r="B555" s="51" t="s">
+      <c r="B556" s="51" t="s">
         <v>1363</v>
       </c>
-      <c r="C555" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D555" s="14" t="s">
+      <c r="C556" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D556" s="14" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A556" s="55" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B556" s="34" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C556" s="55" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D556" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="55" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B557" s="34" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C557" s="55" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558" s="55" t="s">
         <v>1250</v>
       </c>
-      <c r="B557" s="34" t="s">
+      <c r="B558" s="34" t="s">
         <v>1365</v>
       </c>
-      <c r="C557" s="56" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D557" t="s">
+      <c r="C558" s="56" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D558" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A558" s="11" t="s">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B558" s="50" t="s">
+      <c r="B559" s="50" t="s">
         <v>2419</v>
       </c>
-      <c r="C558" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D558" s="12" t="s">
+      <c r="C559" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D559" s="12" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A559" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B559" s="51" t="s">
-        <v>2420</v>
-      </c>
-      <c r="C559" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D559" s="25" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B560" s="51" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C560" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D560" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" s="56" t="s">
         <v>936</v>
       </c>
-      <c r="B560" s="51" t="s">
+      <c r="B561" s="51" t="s">
         <v>2421</v>
       </c>
-      <c r="C560" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D560" s="25" t="s">
+      <c r="C561" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D561" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A561" s="10" t="s">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" s="10" t="s">
         <v>1959</v>
       </c>
-      <c r="B561" s="48" t="s">
+      <c r="B562" s="48" t="s">
         <v>1958</v>
       </c>
-      <c r="C561" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D561" s="10" t="s">
+      <c r="C562" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D562" s="10" t="s">
         <v>1960</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A562" s="55" t="s">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" s="55" t="s">
         <v>1426</v>
       </c>
-      <c r="B562" s="34" t="s">
+      <c r="B563" s="34" t="s">
         <v>1427</v>
       </c>
-      <c r="C562" s="55" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D562" t="s">
+      <c r="C563" s="55" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D563" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A563" s="56" t="s">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" s="56" t="s">
         <v>2388</v>
       </c>
-      <c r="B563" s="51" t="s">
+      <c r="B564" s="51" t="s">
         <v>2389</v>
       </c>
-      <c r="C563" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D563" s="25" t="s">
+      <c r="C564" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D564" s="25" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A564" s="11" t="s">
-        <v>2391</v>
-      </c>
-      <c r="B564" s="50" t="s">
-        <v>2390</v>
-      </c>
-      <c r="C564" s="11" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D564" s="12" t="s">
-        <v>3032</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="11" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B565" s="50" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C565" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D565" s="12" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B565" s="50" t="s">
+      <c r="B566" s="50" t="s">
         <v>2392</v>
       </c>
-      <c r="C565" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D565" s="12" t="s">
+      <c r="C566" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D566" s="12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A566" s="14" t="s">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B566" s="34" t="s">
+      <c r="B567" s="34" t="s">
         <v>2545</v>
       </c>
-      <c r="C566" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D566" s="14" t="s">
+      <c r="C567" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D567" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A567" s="10" t="s">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" s="10" t="s">
         <v>3207</v>
       </c>
-      <c r="B567" s="48" t="s">
+      <c r="B568" s="48" t="s">
         <v>3208</v>
       </c>
-      <c r="C567" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D567" s="10" t="s">
+      <c r="C568" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D568" s="10" t="s">
         <v>3209</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A568" s="14" t="s">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="B568" s="49" t="s">
+      <c r="B569" s="49" t="s">
         <v>2422</v>
       </c>
-      <c r="C568" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D568" s="14" t="s">
+      <c r="C569" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D569" s="14" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A569" s="64" t="s">
+    <row r="570" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A570" s="64" t="s">
         <v>2699</v>
       </c>
-      <c r="B569" s="46" t="s">
+      <c r="B570" s="46" t="s">
         <v>2700</v>
       </c>
-      <c r="C569" s="10" t="s">
+      <c r="C570" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="D569" s="65" t="s">
+      <c r="D570" s="65" t="s">
         <v>2701</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A570" s="10" t="s">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" s="10" t="s">
         <v>3290</v>
       </c>
-      <c r="B570" s="48" t="s">
+      <c r="B571" s="48" t="s">
         <v>3291</v>
       </c>
-      <c r="C570" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D570" s="10" t="s">
+      <c r="C571" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D571" s="10" t="s">
         <v>3292</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A571" s="64" t="s">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572" s="64" t="s">
         <v>2884</v>
       </c>
-      <c r="B571" s="34" t="s">
+      <c r="B572" s="34" t="s">
         <v>2885</v>
       </c>
-      <c r="C571" s="14" t="s">
+      <c r="C572" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="D571" s="65" t="s">
+      <c r="D572" s="65" t="s">
         <v>2886</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A572" s="11" t="s">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B572" s="50" t="s">
+      <c r="B573" s="50" t="s">
         <v>2425</v>
       </c>
-      <c r="C572" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D572" s="12" t="s">
+      <c r="C573" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D573" s="12" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A573" s="10" t="s">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574" s="10" t="s">
         <v>3316</v>
       </c>
-      <c r="B573" s="48" t="s">
+      <c r="B574" s="48" t="s">
         <v>3317</v>
       </c>
-      <c r="C573" s="10" t="s">
+      <c r="C574" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D573" s="10" t="s">
+      <c r="D574" s="10" t="s">
         <v>3318</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A574" s="14" t="s">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B574" s="49" t="s">
+      <c r="B575" s="49" t="s">
         <v>2393</v>
       </c>
-      <c r="C574" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D574" s="14" t="s">
+      <c r="C575" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D575" s="14" t="s">
         <v>1259</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A575" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B575" s="49" t="s">
-        <v>2394</v>
-      </c>
-      <c r="C575" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D575" s="12" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B576" s="49" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C576" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D576" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B577" s="49" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C577" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D577" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="B577" s="49" t="s">
+      <c r="B578" s="49" t="s">
         <v>2396</v>
       </c>
-      <c r="C577" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D577" s="12" t="s">
+      <c r="C578" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D578" s="12" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A578" s="14" t="s">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="B578" s="49" t="s">
+      <c r="B579" s="49" t="s">
         <v>2397</v>
       </c>
-      <c r="C578" s="14" t="s">
+      <c r="C579" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="D578" s="14" t="s">
+      <c r="D579" s="14" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A579" s="13" t="s">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580" s="13" t="s">
         <v>3240</v>
       </c>
-      <c r="B579" s="94" t="s">
+      <c r="B580" s="94" t="s">
         <v>3241</v>
       </c>
-      <c r="C579" s="10" t="s">
+      <c r="C580" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="D579" s="10" t="s">
+      <c r="D580" s="10" t="s">
         <v>3239</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A580" s="14" t="s">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581" s="14" t="s">
         <v>1376</v>
       </c>
-      <c r="B580" s="48" t="s">
+      <c r="B581" s="48" t="s">
         <v>2398</v>
       </c>
-      <c r="C580" s="14" t="s">
+      <c r="C581" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D580" s="14" t="s">
+      <c r="D581" s="14" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A581" s="10" t="s">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582" s="10" t="s">
         <v>3161</v>
       </c>
-      <c r="B581" s="48" t="s">
+      <c r="B582" s="48" t="s">
         <v>3162</v>
       </c>
-      <c r="C581" s="10" t="s">
+      <c r="C582" s="10" t="s">
         <v>2504</v>
       </c>
-      <c r="D581" s="10" t="s">
+      <c r="D582" s="10" t="s">
         <v>3163</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A582" s="55" t="s">
+    <row r="583" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A583" s="55" t="s">
         <v>2623</v>
       </c>
-      <c r="B582" s="46" t="s">
+      <c r="B583" s="46" t="s">
         <v>2633</v>
       </c>
-      <c r="C582" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D582" t="s">
+      <c r="C583" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D583" t="s">
         <v>2624</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A583" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="B583" s="49" t="s">
-        <v>2399</v>
-      </c>
-      <c r="C583" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D583" s="14" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="14" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="B584" s="49" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C584" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D584" s="14" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="B585" s="51" t="s">
-        <v>1740</v>
+        <v>700</v>
+      </c>
+      <c r="B585" s="49" t="s">
+        <v>2400</v>
       </c>
       <c r="C585" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D585" s="14" t="s">
-        <v>649</v>
+        <v>699</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B586" s="51" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C586" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D586" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="B586" s="49" t="s">
+      <c r="B587" s="49" t="s">
         <v>2401</v>
       </c>
-      <c r="C586" s="14" t="s">
+      <c r="C587" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="D586" s="14" t="s">
+      <c r="D587" s="14" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A587" s="55" t="s">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588" s="55" t="s">
         <v>1092</v>
       </c>
-      <c r="B587" s="34" t="s">
+      <c r="B588" s="34" t="s">
         <v>2402</v>
       </c>
-      <c r="C587" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D587" t="s">
+      <c r="C588" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D588" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A588" s="10" t="s">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589" s="10" t="s">
         <v>3210</v>
       </c>
-      <c r="B588" s="48" t="s">
+      <c r="B589" s="48" t="s">
         <v>3211</v>
       </c>
-      <c r="C588" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D588" s="10" t="s">
+      <c r="C589" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D589" s="10" t="s">
         <v>3212</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A589" s="14" t="s">
-        <v>858</v>
-      </c>
-      <c r="B589" s="49" t="s">
-        <v>2403</v>
-      </c>
-      <c r="C589" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D589" s="14" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="14" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B590" s="49" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C590" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D590" s="14" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="14" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="B591" s="49" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C591" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D591" s="14" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="14" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B592" s="49" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C592" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D592" s="14" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="14" t="s">
-        <v>927</v>
+        <v>878</v>
       </c>
       <c r="B593" s="49" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C593" s="14" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D593" s="14" t="s">
-        <v>930</v>
+        <v>879</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="B594" s="49" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C594" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D594" s="14" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="B594" s="49" t="s">
+      <c r="B595" s="49" t="s">
         <v>2079</v>
       </c>
-      <c r="C594" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D594" s="14" t="s">
+      <c r="C595" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D595" s="14" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A595" s="10" t="s">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596" s="10" t="s">
         <v>3109</v>
       </c>
-      <c r="B595" s="48" t="s">
+      <c r="B596" s="48" t="s">
         <v>3110</v>
       </c>
-      <c r="C595" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D595" s="10" t="s">
+      <c r="C596" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D596" s="10" t="s">
         <v>3111</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A596" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B596" s="50" t="s">
-        <v>2080</v>
-      </c>
-      <c r="C596" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D596" s="12" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B597" s="50" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C597" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D597" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="B597" s="50" t="s">
+      <c r="B598" s="50" t="s">
         <v>2081</v>
       </c>
-      <c r="C597" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D597" s="12" t="s">
+      <c r="C598" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D598" s="12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A598" s="11" t="s">
+    <row r="599" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A599" s="11" t="s">
         <v>2408</v>
       </c>
-      <c r="B598" s="50" t="s">
+      <c r="B599" s="50" t="s">
         <v>2082</v>
       </c>
-      <c r="C598" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D598" s="12" t="s">
+      <c r="C599" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D599" s="12" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A599" s="10" t="s">
-        <v>2409</v>
-      </c>
-      <c r="B599" s="48" t="s">
-        <v>2410</v>
-      </c>
-      <c r="C599" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D599" s="10" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="10" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B600" s="34" t="s">
-        <v>2437</v>
-      </c>
-      <c r="C600" s="10" t="s">
-        <v>1065</v>
+        <v>2409</v>
+      </c>
+      <c r="B600" s="48" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C600" s="14" t="s">
+        <v>1064</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1174</v>
+        <v>626</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="10" t="s">
-        <v>3224</v>
-      </c>
-      <c r="B601" s="48" t="s">
-        <v>3225</v>
+        <v>1183</v>
+      </c>
+      <c r="B601" s="34" t="s">
+        <v>2437</v>
       </c>
       <c r="C601" s="10" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>3223</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="10" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B602" s="48" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C602" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D602" s="10" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603" s="10" t="s">
         <v>2411</v>
       </c>
-      <c r="B602" s="48" t="s">
+      <c r="B603" s="48" t="s">
         <v>2412</v>
       </c>
-      <c r="C602" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D602" s="10" t="s">
+      <c r="C603" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D603" s="10" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A603" s="14" t="s">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="B603" s="49" t="s">
+      <c r="B604" s="49" t="s">
         <v>2413</v>
       </c>
-      <c r="C603" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D603" s="14" t="s">
+      <c r="C604" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D604" s="14" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A604" s="55" t="s">
+    <row r="605" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A605" s="55" t="s">
         <v>2627</v>
       </c>
-      <c r="B604" s="46" t="s">
+      <c r="B605" s="46" t="s">
         <v>2639</v>
       </c>
-      <c r="C604" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D604" t="s">
+      <c r="C605" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D605" t="s">
         <v>2628</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A605" s="10" t="s">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="B605" s="48" t="s">
+      <c r="B606" s="48" t="s">
         <v>2072</v>
       </c>
-      <c r="C605" s="10" t="s">
+      <c r="C606" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="D605" s="10" t="s">
+      <c r="D606" s="10" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A606" s="55" t="s">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607" s="55" t="s">
         <v>1288</v>
       </c>
-      <c r="B606" s="34" t="s">
+      <c r="B607" s="34" t="s">
         <v>1329</v>
       </c>
-      <c r="C606" s="55" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D606" t="s">
+      <c r="C607" s="55" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D607" t="s">
         <v>1289</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A607" s="64" t="s">
-        <v>2917</v>
-      </c>
-      <c r="B607" s="34" t="s">
-        <v>2918</v>
-      </c>
-      <c r="C607" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D607" t="s">
-        <v>2919</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="64" t="s">
-        <v>2934</v>
+        <v>2917</v>
       </c>
       <c r="B608" s="34" t="s">
-        <v>2932</v>
+        <v>2918</v>
       </c>
       <c r="C608" s="10" t="s">
         <v>1064</v>
       </c>
-      <c r="D608" s="65" t="s">
-        <v>2933</v>
+      <c r="D608" t="s">
+        <v>2919</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="64" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B609" s="34" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D609" s="65" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A610" s="64" t="s">
         <v>2914</v>
       </c>
-      <c r="B609" s="34" t="s">
+      <c r="B610" s="34" t="s">
         <v>2915</v>
       </c>
-      <c r="C609" s="10" t="s">
+      <c r="C610" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D609" s="65" t="s">
+      <c r="D610" s="65" t="s">
         <v>2916</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A610" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B610" s="48" t="s">
-        <v>2073</v>
-      </c>
-      <c r="C610" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D610" s="10" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="10" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="B611" s="48" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C611" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D611" s="10" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="10" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B612" s="48" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C612" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D612" s="10" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="10" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="B613" s="48" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C613" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D613" s="10" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B614" s="48" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C614" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D614" s="10" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A615" s="10" t="s">
         <v>3192</v>
       </c>
-      <c r="B614" s="48" t="s">
+      <c r="B615" s="48" t="s">
         <v>3193</v>
       </c>
-      <c r="C614" s="10" t="s">
+      <c r="C615" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D614" s="10" t="s">
+      <c r="D615" s="10" t="s">
         <v>3194</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A615" s="55" t="s">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A616" s="55" t="s">
         <v>1533</v>
       </c>
-      <c r="B615" s="48" t="s">
+      <c r="B616" s="48" t="s">
         <v>1536</v>
       </c>
-      <c r="C615" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D615" t="s">
+      <c r="C616" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D616" t="s">
         <v>860</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A616" s="10" t="s">
-        <v>3010</v>
-      </c>
-      <c r="B616" s="48" t="s">
-        <v>3011</v>
-      </c>
-      <c r="C616" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D616" s="10" t="s">
-        <v>2996</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="10" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B617" s="48" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D617" s="10" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A618" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="B617" s="48" t="s">
+      <c r="B618" s="48" t="s">
         <v>2128</v>
       </c>
-      <c r="C617" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D617" s="14" t="s">
+      <c r="C618" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D618" s="14" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A618" s="55" t="s">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A619" s="55" t="s">
         <v>2436</v>
       </c>
-      <c r="B618" s="48" t="s">
+      <c r="B619" s="48" t="s">
         <v>1540</v>
       </c>
-      <c r="C618" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D618" s="14" t="s">
+      <c r="C619" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D619" s="14" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A619" s="14" t="s">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A620" s="14" t="s">
         <v>1377</v>
       </c>
-      <c r="B619" s="48" t="s">
+      <c r="B620" s="48" t="s">
         <v>2129</v>
       </c>
-      <c r="C619" s="14" t="s">
+      <c r="C620" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D619" s="14" t="s">
+      <c r="D620" s="14" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A620" s="10" t="s">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A621" s="10" t="s">
         <v>3029</v>
       </c>
-      <c r="B620" s="48" t="s">
+      <c r="B621" s="48" t="s">
         <v>3028</v>
       </c>
-      <c r="C620" s="10" t="s">
+      <c r="C621" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D620" s="10" t="s">
+      <c r="D621" s="10" t="s">
         <v>3027</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A621" s="11" t="s">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A622" s="11" t="s">
         <v>1378</v>
       </c>
-      <c r="B621" s="48" t="s">
+      <c r="B622" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="C621" s="14" t="s">
+      <c r="C622" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D621" s="14" t="s">
+      <c r="D622" s="14" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A622" s="10" t="s">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A623" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="B622" s="34" t="s">
+      <c r="B623" s="34" t="s">
         <v>1361</v>
       </c>
-      <c r="C622" s="10" t="s">
+      <c r="C623" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D622" s="13" t="s">
+      <c r="D623" s="13" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A623" s="14" t="s">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A624" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="B623" s="48" t="s">
+      <c r="B624" s="48" t="s">
         <v>2083</v>
       </c>
-      <c r="C623" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D623" s="14" t="s">
+      <c r="C624" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D624" s="14" t="s">
         <v>715</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A624" s="55" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B624" s="34" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C624" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D624" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="55" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B625" s="34" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A626" s="55" t="s">
         <v>1505</v>
       </c>
-      <c r="B625" s="34" t="s">
+      <c r="B626" s="34" t="s">
         <v>1510</v>
       </c>
-      <c r="C625" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D625" t="s">
+      <c r="C626" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D626" t="s">
         <v>1506</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A626" s="14" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B626" s="48" t="s">
-        <v>2563</v>
-      </c>
-      <c r="C626" s="14" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D626" s="14" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="14" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B627" s="48" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C627" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D627" s="24" t="s">
+      <c r="D627" s="14" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A628" s="14" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B628" s="48" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C628" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D628" s="24" t="s">
         <v>932</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A628" s="55" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B628" s="46" t="s">
-        <v>2803</v>
-      </c>
-      <c r="C628" s="14" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D628" s="65" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A629" s="55" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B629" s="45" t="s">
-        <v>1962</v>
+        <v>2797</v>
+      </c>
+      <c r="B629" s="46" t="s">
+        <v>2803</v>
       </c>
       <c r="C629" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D629" t="s">
-        <v>1673</v>
+        <v>1065</v>
+      </c>
+      <c r="D629" s="65" t="s">
+        <v>2795</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A630" s="55" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B630" s="45" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C630" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A631" s="55" t="s">
         <v>2802</v>
       </c>
-      <c r="B630" s="46" t="s">
+      <c r="B631" s="46" t="s">
         <v>2804</v>
       </c>
-      <c r="C630" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D630" s="65" t="s">
+      <c r="C631" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D631" s="65" t="s">
         <v>2796</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A631" s="14" t="s">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A632" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="B631" s="48" t="s">
+      <c r="B632" s="48" t="s">
         <v>2565</v>
       </c>
-      <c r="C631" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D631" s="14" t="s">
+      <c r="C632" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D632" s="14" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A632" s="55" t="s">
+    <row r="633" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A633" s="55" t="s">
         <v>2614</v>
       </c>
-      <c r="B632" s="46" t="s">
+      <c r="B633" s="46" t="s">
         <v>2635</v>
       </c>
-      <c r="C632" s="14" t="s">
+      <c r="C633" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="D632" t="s">
+      <c r="D633" t="s">
         <v>2615</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A633" s="55" t="s">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A634" s="55" t="s">
         <v>2806</v>
       </c>
-      <c r="B633" s="34" t="s">
+      <c r="B634" s="34" t="s">
         <v>2810</v>
       </c>
-      <c r="C633" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D633" t="s">
+      <c r="C634" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D634" t="s">
         <v>2807</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A634" s="56" t="s">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A635" s="56" t="s">
         <v>1082</v>
       </c>
-      <c r="B634" s="34" t="s">
+      <c r="B635" s="34" t="s">
         <v>1707</v>
       </c>
-      <c r="C634" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D634" s="25" t="s">
+      <c r="C635" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D635" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A635" s="10" t="s">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A636" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="B635" s="34" t="s">
+      <c r="B636" s="34" t="s">
         <v>2130</v>
       </c>
-      <c r="C635" s="10" t="s">
+      <c r="C636" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D635" s="10" t="s">
+      <c r="D636" s="10" t="s">
         <v>1169</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A636" s="55" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B636" s="34" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C636" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D636" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="55" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B637" s="34" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C637" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A638" s="55" t="s">
         <v>1732</v>
       </c>
-      <c r="B637" s="34" t="s">
+      <c r="B638" s="34" t="s">
         <v>1743</v>
       </c>
-      <c r="C637" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D637" s="14" t="s">
+      <c r="C638" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D638" s="14" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A638" s="14" t="s">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A639" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="B638" s="48" t="s">
+      <c r="B639" s="48" t="s">
         <v>2549</v>
       </c>
-      <c r="C638" s="14" t="s">
+      <c r="C639" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="D638" s="14" t="s">
+      <c r="D639" s="14" t="s">
         <v>746</v>
-      </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A639" s="10" t="s">
-        <v>3171</v>
-      </c>
-      <c r="B639" s="48" t="s">
-        <v>3173</v>
-      </c>
-      <c r="C639" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D639" s="10" t="s">
-        <v>3172</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="10" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="B640" s="48" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="C640" s="10" t="s">
         <v>1065</v>
       </c>
       <c r="D640" s="10" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A641" s="10" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B641" s="48" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D641" s="10" t="s">
         <v>3176</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A641" s="14" t="s">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A642" s="14" t="s">
         <v>925</v>
       </c>
-      <c r="B641" s="48" t="s">
+      <c r="B642" s="48" t="s">
         <v>2550</v>
       </c>
-      <c r="C641" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D641" s="14" t="s">
+      <c r="C642" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D642" s="14" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A642" s="11" t="s">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A643" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B642" s="48" t="s">
+      <c r="B643" s="48" t="s">
         <v>2551</v>
       </c>
-      <c r="C642" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D642" s="12" t="s">
+      <c r="C643" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D643" s="12" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A643" s="58" t="s">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A644" s="58" t="s">
         <v>1623</v>
       </c>
-      <c r="B643" s="35" t="s">
+      <c r="B644" s="35" t="s">
         <v>1659</v>
       </c>
-      <c r="D643" t="s">
+      <c r="D644" t="s">
         <v>1624</v>
-      </c>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A644" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="B644" s="48" t="s">
-        <v>2552</v>
-      </c>
-      <c r="C644" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D644" s="14" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="B645" s="48" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C645" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D645" s="14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A646" s="14" t="s">
         <v>713</v>
-      </c>
-      <c r="B645" s="48" t="s">
-        <v>2553</v>
-      </c>
-      <c r="C645" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D645" s="14" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A646" s="10" t="s">
-        <v>1116</v>
       </c>
       <c r="B646" s="48" t="s">
         <v>2553</v>
@@ -23019,2562 +22944,2576 @@
       <c r="C646" s="14" t="s">
         <v>1064</v>
       </c>
-      <c r="D646" s="10" t="s">
-        <v>578</v>
+      <c r="D646" s="14" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B647" s="48" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C647" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D647" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A648" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="B647" s="48" t="s">
+      <c r="B648" s="48" t="s">
         <v>2084</v>
       </c>
-      <c r="C647" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D647" s="10" t="s">
+      <c r="C648" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D648" s="10" t="s">
         <v>3213</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A648" s="14" t="s">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A649" s="14" t="s">
         <v>876</v>
       </c>
-      <c r="B648" s="48" t="s">
+      <c r="B649" s="48" t="s">
         <v>2547</v>
       </c>
-      <c r="C648" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D648" s="14" t="s">
+      <c r="C649" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D649" s="14" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A649" s="64" t="s">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A650" s="64" t="s">
         <v>2708</v>
       </c>
-      <c r="B649" s="34" t="s">
+      <c r="B650" s="34" t="s">
         <v>2712</v>
       </c>
-      <c r="C649" s="10" t="s">
+      <c r="C650" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D649" s="65" t="s">
+      <c r="D650" s="65" t="s">
         <v>2709</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A650" s="10" t="s">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A651" s="10" t="s">
         <v>1380</v>
       </c>
-      <c r="B650" s="48" t="s">
+      <c r="B651" s="48" t="s">
         <v>2548</v>
       </c>
-      <c r="C650" s="14" t="s">
+      <c r="C651" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D650" s="14" t="s">
+      <c r="D651" s="14" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A651" s="55" t="s">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A652" s="55" t="s">
         <v>1589</v>
       </c>
-      <c r="B651" s="48" t="s">
+      <c r="B652" s="48" t="s">
         <v>2554</v>
       </c>
-      <c r="C651" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D651" s="10" t="s">
+      <c r="C652" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D652" s="10" t="s">
         <v>1588</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A652" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="B652" s="48" t="s">
-        <v>2570</v>
-      </c>
-      <c r="C652" s="14" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D652" s="14" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="14" t="s">
-        <v>2572</v>
+        <v>763</v>
       </c>
       <c r="B653" s="48" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C653" s="14" t="s">
         <v>1066</v>
       </c>
       <c r="D653" s="14" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="14" t="s">
-        <v>697</v>
+        <v>2572</v>
       </c>
       <c r="B654" s="48" t="s">
-        <v>2555</v>
+        <v>2571</v>
       </c>
       <c r="C654" s="14" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D654" s="14" t="s">
-        <v>698</v>
+        <v>754</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="B655" s="48" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C655" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D655" s="14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A656" s="14" t="s">
         <v>1381</v>
       </c>
-      <c r="B655" s="48" t="s">
+      <c r="B656" s="48" t="s">
         <v>2556</v>
       </c>
-      <c r="C655" s="14" t="s">
+      <c r="C656" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D655" s="14" t="s">
+      <c r="D656" s="14" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A656" s="76" t="s">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A657" s="76" t="s">
         <v>2948</v>
       </c>
-      <c r="B656" s="34" t="s">
+      <c r="B657" s="34" t="s">
         <v>2950</v>
       </c>
-      <c r="C656" s="76" t="s">
+      <c r="C657" s="76" t="s">
         <v>1065</v>
       </c>
-      <c r="D656" s="76" t="s">
+      <c r="D657" s="76" t="s">
         <v>2949</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A657" s="14" t="s">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A658" s="14" t="s">
         <v>1104</v>
       </c>
-      <c r="B657" s="49" t="s">
+      <c r="B658" s="49" t="s">
         <v>2131</v>
       </c>
-      <c r="C657" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D657" s="14" t="s">
+      <c r="C658" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D658" s="14" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A658" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B658" s="48" t="s">
-        <v>2557</v>
-      </c>
-      <c r="C658" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D658" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B659" s="48" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C659" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D659" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A660" s="55" t="s">
         <v>1254</v>
       </c>
-      <c r="B659" s="34" t="s">
+      <c r="B660" s="34" t="s">
         <v>1360</v>
       </c>
-      <c r="C659" s="55" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D659" t="s">
+      <c r="C660" s="55" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D660" t="s">
         <v>1255</v>
-      </c>
-    </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A660" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="B660" s="48" t="s">
-        <v>2558</v>
-      </c>
-      <c r="C660" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D660" s="14" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="B661" s="48" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C661" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D661" s="14" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A662" s="14" t="s">
         <v>1067</v>
       </c>
-      <c r="B661" s="48" t="s">
+      <c r="B662" s="48" t="s">
         <v>2559</v>
       </c>
-      <c r="C661" s="14" t="s">
+      <c r="C662" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D661" s="14" t="s">
+      <c r="D662" s="14" t="s">
         <v>834</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A662" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B662" s="48" t="s">
-        <v>2560</v>
-      </c>
-      <c r="C662" s="11" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D662" s="12" t="s">
-        <v>3033</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B663" s="48" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C663" s="11" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D663" s="12" t="s">
-        <v>373</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B664" s="48" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C664" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D664" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="11" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B665" s="34" t="s">
-        <v>1359</v>
+        <v>374</v>
+      </c>
+      <c r="B665" s="48" t="s">
+        <v>2562</v>
       </c>
       <c r="C665" s="11" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D665" t="s">
-        <v>1287</v>
+        <v>1064</v>
+      </c>
+      <c r="D665" s="12" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="B666" s="48" t="s">
-        <v>2132</v>
+        <v>1286</v>
+      </c>
+      <c r="B666" s="34" t="s">
+        <v>1359</v>
       </c>
       <c r="C666" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D666" s="12" t="s">
-        <v>379</v>
+        <v>1065</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B667" s="48" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C667" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D667" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A668" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="B667" s="48" t="s">
+      <c r="B668" s="48" t="s">
         <v>2133</v>
       </c>
-      <c r="C667" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D667" s="12" t="s">
+      <c r="C668" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D668" s="12" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A668" s="64" t="s">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A669" s="64" t="s">
         <v>2868</v>
       </c>
-      <c r="B668" s="34" t="s">
+      <c r="B669" s="34" t="s">
         <v>2870</v>
       </c>
-      <c r="C668" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D668" s="65" t="s">
+      <c r="C669" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D669" s="65" t="s">
         <v>2869</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A669" s="14" t="s">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A670" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="B669" s="48" t="s">
+      <c r="B670" s="48" t="s">
         <v>2134</v>
       </c>
-      <c r="C669" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D669" s="14" t="s">
+      <c r="C670" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D670" s="14" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A670" s="55" t="s">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A671" s="55" t="s">
         <v>1718</v>
       </c>
-      <c r="B670" s="34" t="s">
+      <c r="B671" s="34" t="s">
         <v>1720</v>
       </c>
-      <c r="C670" s="10" t="s">
+      <c r="C671" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="D670" t="s">
+      <c r="D671" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A671" s="55" t="s">
+    <row r="672" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A672" s="55" t="s">
         <v>2651</v>
       </c>
-      <c r="B671" s="46" t="s">
+      <c r="B672" s="46" t="s">
         <v>2652</v>
       </c>
-      <c r="C671" s="10" t="s">
+      <c r="C672" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D671" t="s">
+      <c r="D672" t="s">
         <v>2650</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A672" s="11" t="s">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A673" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="B672" s="48" t="s">
+      <c r="B673" s="48" t="s">
         <v>2135</v>
       </c>
-      <c r="C672" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D672" s="12" t="s">
+      <c r="C673" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D673" s="12" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A673" s="10" t="s">
-        <v>3217</v>
-      </c>
-      <c r="B673" s="48" t="s">
-        <v>3218</v>
-      </c>
-      <c r="C673" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D673" s="10" t="s">
-        <v>3219</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="10" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="B674" s="48" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C674" s="10" t="s">
         <v>1064</v>
       </c>
       <c r="D674" s="10" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="10" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B675" s="48" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C675" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D675" s="10" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A676" s="10" t="s">
         <v>1046</v>
       </c>
-      <c r="B675" s="48" t="s">
+      <c r="B676" s="48" t="s">
         <v>1542</v>
       </c>
-      <c r="C675" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D675" t="s">
+      <c r="C676" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D676" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A676" s="55" t="s">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A677" s="55" t="s">
         <v>1602</v>
       </c>
-      <c r="B676" s="50" t="s">
+      <c r="B677" s="50" t="s">
         <v>1603</v>
       </c>
-      <c r="C676" s="10" t="s">
+      <c r="C677" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="D676" s="10" t="s">
+      <c r="D677" s="10" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A677" s="11" t="s">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A678" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B677" s="50" t="s">
+      <c r="B678" s="50" t="s">
         <v>2069</v>
       </c>
-      <c r="C677" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D677" s="12" t="s">
+      <c r="C678" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D678" s="12" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A678" s="14" t="s">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A679" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="B678" s="49" t="s">
+      <c r="B679" s="49" t="s">
         <v>2071</v>
       </c>
-      <c r="C678" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D678" s="14" t="s">
+      <c r="C679" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D679" s="14" t="s">
         <v>726</v>
-      </c>
-    </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A679" s="10" t="s">
-        <v>2991</v>
-      </c>
-      <c r="B679" s="48" t="s">
-        <v>2992</v>
-      </c>
-      <c r="C679" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D679" s="10" t="s">
-        <v>2993</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="10" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B680" s="48" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C680" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D680" s="10" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A681" s="10" t="s">
         <v>3024</v>
       </c>
-      <c r="B680" s="48" t="s">
+      <c r="B681" s="48" t="s">
         <v>3025</v>
       </c>
-      <c r="C680" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D680" s="10" t="s">
+      <c r="C681" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D681" s="10" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A681" s="11" t="s">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A682" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="B681" s="50" t="s">
+      <c r="B682" s="50" t="s">
         <v>2068</v>
       </c>
-      <c r="C681" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D681" s="12" t="s">
+      <c r="C682" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D682" s="12" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A682" s="56" t="s">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A683" s="56" t="s">
         <v>1083</v>
       </c>
-      <c r="B682" s="48" t="s">
+      <c r="B683" s="48" t="s">
         <v>2566</v>
       </c>
-      <c r="C682" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D682" s="25" t="s">
+      <c r="C683" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D683" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A683" s="10" t="s">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A684" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B683" s="48" t="s">
+      <c r="B684" s="48" t="s">
         <v>2567</v>
       </c>
-      <c r="C683" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D683" s="10" t="s">
+      <c r="C684" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D684" s="10" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A684" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="B684" s="48" t="s">
-        <v>2568</v>
-      </c>
-      <c r="C684" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D684" s="14" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="14" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="B685" s="48" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C685" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D685" s="14" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="B686" s="48" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C686" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D686" s="14" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A687" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B686" s="48" t="s">
+      <c r="B687" s="48" t="s">
         <v>2070</v>
       </c>
-      <c r="C686" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D686" s="14" t="s">
+      <c r="C687" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D687" s="14" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A687" s="10" t="s">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A688" s="10" t="s">
         <v>3284</v>
       </c>
-      <c r="B687" s="48" t="s">
+      <c r="B688" s="48" t="s">
         <v>3295</v>
       </c>
-      <c r="C687" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D687" s="10" t="s">
+      <c r="C688" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D688" s="10" t="s">
         <v>3285</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A688" s="11" t="s">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A689" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B688" s="50" t="s">
+      <c r="B689" s="50" t="s">
         <v>2066</v>
       </c>
-      <c r="C688" s="11" t="s">
+      <c r="C689" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="D688" s="12" t="s">
+      <c r="D689" s="12" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A689" s="14" t="s">
-        <v>921</v>
-      </c>
-      <c r="B689" s="48" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C689" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D689" s="14" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="B690" s="48" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C690" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D690" s="14" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A691" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="B690" s="48" t="s">
+      <c r="B691" s="48" t="s">
         <v>2077</v>
       </c>
-      <c r="C690" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D690" s="14" t="s">
+      <c r="C691" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D691" s="14" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A691" s="10" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B691" s="48" t="s">
-        <v>2086</v>
-      </c>
-      <c r="C691" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D691" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="10" t="s">
-        <v>1112</v>
+        <v>1084</v>
       </c>
       <c r="B692" s="48" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="C692" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D692" s="10" t="s">
-        <v>574</v>
+        <v>48</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B693" s="48" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C693" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D693" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A694" s="10" t="s">
         <v>1454</v>
       </c>
-      <c r="B693" s="48" t="s">
+      <c r="B694" s="48" t="s">
         <v>1460</v>
       </c>
-      <c r="C693" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D693" s="10" t="s">
+      <c r="C694" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D694" s="10" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A694" s="55" t="s">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A695" s="55" t="s">
         <v>1529</v>
       </c>
-      <c r="B694" s="48" t="s">
+      <c r="B695" s="48" t="s">
         <v>2546</v>
       </c>
-      <c r="C694" s="55" t="s">
+      <c r="C695" s="55" t="s">
         <v>1387</v>
       </c>
-      <c r="D694" t="s">
+      <c r="D695" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A695" s="10" t="s">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A696" s="10" t="s">
         <v>1476</v>
       </c>
-      <c r="B695" s="48" t="s">
+      <c r="B696" s="48" t="s">
         <v>1477</v>
       </c>
-      <c r="C695" s="10" t="s">
+      <c r="C696" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="D695" s="10" t="s">
+      <c r="D696" s="10" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A696" s="11" t="s">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A697" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="B696" s="48" t="s">
+      <c r="B697" s="48" t="s">
         <v>2118</v>
       </c>
-      <c r="C696" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D696" s="12" t="s">
+      <c r="C697" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D697" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A697" s="14" t="s">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A698" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="B697" s="49" t="s">
+      <c r="B698" s="49" t="s">
         <v>2119</v>
       </c>
-      <c r="C697" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D697" s="14" t="s">
+      <c r="C698" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D698" s="14" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A698" s="10" t="s">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A699" s="10" t="s">
         <v>1114</v>
       </c>
-      <c r="B698" s="48" t="s">
+      <c r="B699" s="48" t="s">
         <v>2078</v>
       </c>
-      <c r="C698" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D698" s="10" t="s">
+      <c r="C699" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D699" s="10" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A699" s="11" t="s">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A700" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B699" s="34" t="s">
+      <c r="B700" s="34" t="s">
         <v>1445</v>
       </c>
-      <c r="C699" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D699" s="10" t="s">
+      <c r="C700" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D700" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A700" s="55" t="s">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A701" s="55" t="s">
         <v>1605</v>
       </c>
-      <c r="B700" s="34" t="s">
+      <c r="B701" s="34" t="s">
         <v>1665</v>
       </c>
-      <c r="C700" s="10" t="s">
+      <c r="C701" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D700" t="s">
+      <c r="D701" t="s">
         <v>1606</v>
-      </c>
-    </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A701" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="B701" s="48" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C701" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D701" s="12" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B702" s="48" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C702" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D702" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B703" s="48" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C703" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D703" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B704" s="48" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C704" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D704" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B705" s="48" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C705" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D705" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B706" s="48" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C706" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D706" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B707" s="48" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C707" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D707" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="11" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="B708" s="48" t="s">
-        <v>2117</v>
+        <v>2126</v>
       </c>
       <c r="C708" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D708" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="11" t="s">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="B709" s="48" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="C709" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D709" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B710" s="48" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C710" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D710" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A711" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="B710" s="48" t="s">
+      <c r="B711" s="48" t="s">
         <v>2115</v>
       </c>
-      <c r="C710" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D710" s="12" t="s">
+      <c r="C711" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D711" s="12" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A711" s="14" t="s">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A712" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B711" s="48" t="s">
+      <c r="B712" s="48" t="s">
         <v>2112</v>
       </c>
-      <c r="C711" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D711" s="14" t="s">
+      <c r="C712" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D712" s="14" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A712" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B712" s="48" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C712" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D712" s="12" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B713" s="48" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C713" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D713" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A714" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B713" s="48" t="s">
+      <c r="B714" s="48" t="s">
         <v>2113</v>
       </c>
-      <c r="C713" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D713" s="12" t="s">
+      <c r="C714" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D714" s="12" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A714" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="B714" s="48" t="s">
-        <v>2591</v>
-      </c>
-      <c r="C714" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D714" s="14" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B715" s="48" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C715" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D715" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A716" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="B715" s="48" t="s">
+      <c r="B716" s="48" t="s">
         <v>2592</v>
       </c>
-      <c r="C715" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D715" s="14" t="s">
+      <c r="C716" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D716" s="14" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A716" s="10" t="s">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A717" s="10" t="s">
         <v>1111</v>
       </c>
-      <c r="B716" s="48" t="s">
+      <c r="B717" s="48" t="s">
         <v>2593</v>
       </c>
-      <c r="C716" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D716" s="10" t="s">
+      <c r="C717" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D717" s="10" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A717" s="14" t="s">
-        <v>2087</v>
-      </c>
-      <c r="B717" s="48" t="s">
-        <v>2594</v>
-      </c>
-      <c r="C717" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D717" s="14" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="14" t="s">
-        <v>506</v>
+        <v>2087</v>
       </c>
       <c r="B718" s="48" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="C718" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D718" s="14" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="14" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B719" s="48" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="C719" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D719" s="14" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B720" s="48" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C720" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D720" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A721" s="14" t="s">
         <v>2088</v>
       </c>
-      <c r="B720" s="48" t="s">
+      <c r="B721" s="48" t="s">
         <v>2597</v>
       </c>
-      <c r="C720" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D720" s="14" t="s">
+      <c r="C721" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D721" s="14" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A721" s="10" t="s">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A722" s="10" t="s">
         <v>1118</v>
       </c>
-      <c r="B721" s="48" t="s">
+      <c r="B722" s="48" t="s">
         <v>2598</v>
       </c>
-      <c r="C721" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D721" s="10" t="s">
+      <c r="C722" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D722" s="10" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="722" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A722" s="11" t="s">
+    <row r="723" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A723" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="B722" s="48" t="s">
+      <c r="B723" s="48" t="s">
         <v>2089</v>
       </c>
-      <c r="C722" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D722" s="12" t="s">
+      <c r="C723" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D723" s="12" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A723" s="55" t="s">
+    <row r="724" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A724" s="55" t="s">
         <v>2780</v>
       </c>
-      <c r="B723" s="46" t="s">
+      <c r="B724" s="46" t="s">
         <v>2784</v>
       </c>
-      <c r="C723" s="11" t="s">
+      <c r="C724" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="D723" s="65" t="s">
+      <c r="D724" s="65" t="s">
         <v>2781</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A724" s="14" t="s">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A725" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B724" s="48" t="s">
+      <c r="B725" s="48" t="s">
         <v>1563</v>
       </c>
-      <c r="C724" s="14" t="s">
+      <c r="C725" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="D724" s="10" t="s">
+      <c r="D725" s="10" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A725" s="10" t="s">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A726" s="10" t="s">
         <v>1393</v>
       </c>
-      <c r="B725" s="48" t="s">
+      <c r="B726" s="48" t="s">
         <v>2573</v>
       </c>
-      <c r="C725" s="10" t="s">
+      <c r="C726" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="D725" s="10" t="s">
+      <c r="D726" s="10" t="s">
         <v>1394</v>
-      </c>
-    </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A726" s="56" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B726" s="48" t="s">
-        <v>2574</v>
-      </c>
-      <c r="C726" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D726" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="56" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B727" s="48" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C727" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D727" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A728" s="56" t="s">
         <v>423</v>
       </c>
-      <c r="B727" s="48" t="s">
+      <c r="B728" s="48" t="s">
         <v>2575</v>
       </c>
-      <c r="C727" s="14" t="s">
+      <c r="C728" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="D727" s="12" t="s">
+      <c r="D728" s="12" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A728" s="76" t="s">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A729" s="76" t="s">
         <v>2982</v>
       </c>
-      <c r="B728" s="34" t="s">
+      <c r="B729" s="34" t="s">
         <v>2983</v>
       </c>
-      <c r="C728" s="76" t="s">
+      <c r="C729" s="76" t="s">
         <v>1065</v>
       </c>
-      <c r="D728" s="76" t="s">
+      <c r="D729" s="76" t="s">
         <v>2984</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A729" s="14" t="s">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A730" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="B729" s="49" t="s">
+      <c r="B730" s="49" t="s">
         <v>2065</v>
       </c>
-      <c r="C729" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D729" s="14" t="s">
+      <c r="C730" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D730" s="14" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A730" s="55" t="s">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A731" s="55" t="s">
         <v>1272</v>
       </c>
-      <c r="B730" s="34" t="s">
+      <c r="B731" s="34" t="s">
         <v>2111</v>
       </c>
-      <c r="C730" s="55" t="s">
+      <c r="C731" s="55" t="s">
         <v>1065</v>
       </c>
-      <c r="D730" t="s">
+      <c r="D731" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A731" s="56" t="s">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A732" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B731" s="51" t="s">
+      <c r="B732" s="51" t="s">
         <v>2064</v>
       </c>
-      <c r="C731" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D731" s="25" t="s">
+      <c r="C732" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D732" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A732" s="10" t="s">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A733" s="10" t="s">
         <v>1457</v>
       </c>
-      <c r="B732" s="51" t="s">
+      <c r="B733" s="51" t="s">
         <v>1463</v>
       </c>
-      <c r="C732" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D732" s="10" t="s">
+      <c r="C733" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D733" s="10" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A733" s="64" t="s">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A734" s="64" t="s">
         <v>2704</v>
       </c>
-      <c r="B733" s="34" t="s">
+      <c r="B734" s="34" t="s">
         <v>2711</v>
       </c>
-      <c r="C733" s="10" t="s">
+      <c r="C734" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="D733" s="65" t="s">
+      <c r="D734" s="65" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A734" s="14" t="s">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A735" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="B734" s="48" t="s">
+      <c r="B735" s="48" t="s">
         <v>2063</v>
-      </c>
-      <c r="C734" s="14" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D734" s="14" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A735" s="55" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B735" s="48" t="s">
-        <v>1570</v>
       </c>
       <c r="C735" s="14" t="s">
         <v>1074</v>
       </c>
       <c r="D735" s="14" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A736" s="55" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B736" s="48" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C736" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D736" s="14" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="736" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A736" s="76" t="s">
+    <row r="737" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A737" s="76" t="s">
         <v>2908</v>
       </c>
-      <c r="B736" s="34" t="s">
+      <c r="B737" s="34" t="s">
         <v>2909</v>
       </c>
-      <c r="C736" s="76"/>
-      <c r="D736" s="76" t="s">
+      <c r="C737" s="76"/>
+      <c r="D737" s="76" t="s">
         <v>2910</v>
       </c>
     </row>
-    <row r="737" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A737" s="55" t="s">
+    <row r="738" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A738" s="55" t="s">
         <v>2729</v>
       </c>
-      <c r="B737" s="46" t="s">
+      <c r="B738" s="46" t="s">
         <v>2730</v>
       </c>
-      <c r="C737" s="14" t="s">
+      <c r="C738" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D737" s="65" t="s">
+      <c r="D738" s="65" t="s">
         <v>2731</v>
       </c>
     </row>
-    <row r="738" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A738" s="56" t="s">
+    <row r="739" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A739" s="56" t="s">
         <v>1101</v>
       </c>
-      <c r="B738" s="48" t="s">
+      <c r="B739" s="48" t="s">
         <v>2090</v>
       </c>
-      <c r="C738" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D738" s="25" t="s">
+      <c r="C739" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D739" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A739" s="10" t="s">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A740" s="10" t="s">
         <v>1485</v>
       </c>
-      <c r="B739" s="51" t="s">
+      <c r="B740" s="51" t="s">
         <v>1486</v>
       </c>
-      <c r="C739" s="10" t="s">
+      <c r="C740" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="D739" s="10" t="s">
+      <c r="D740" s="10" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A740" s="11" t="s">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A741" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B740" s="50" t="s">
+      <c r="B741" s="50" t="s">
         <v>2061</v>
       </c>
-      <c r="C740" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D740" s="12" t="s">
+      <c r="C741" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D741" s="12" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A741" s="58" t="s">
+    <row r="742" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A742" s="58" t="s">
         <v>2759</v>
       </c>
-      <c r="B741" s="46" t="s">
+      <c r="B742" s="46" t="s">
         <v>2760</v>
       </c>
-      <c r="C741"/>
-      <c r="D741" s="65" t="s">
+      <c r="C742"/>
+      <c r="D742" s="65" t="s">
         <v>2761</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A742" s="14" t="s">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A743" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="B742" s="48" t="s">
+      <c r="B743" s="48" t="s">
         <v>2584</v>
       </c>
-      <c r="C742" s="14" t="s">
+      <c r="C743" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="D742" s="14" t="s">
+      <c r="D743" s="14" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A743" s="55" t="s">
+    <row r="744" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A744" s="55" t="s">
         <v>2612</v>
       </c>
-      <c r="B743" s="46" t="s">
+      <c r="B744" s="46" t="s">
         <v>2630</v>
       </c>
-      <c r="C743" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D743" t="s">
+      <c r="C744" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D744" t="s">
         <v>2613</v>
-      </c>
-    </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A744" s="10" t="s">
-        <v>941</v>
-      </c>
-      <c r="B744" s="48" t="s">
-        <v>2110</v>
-      </c>
-      <c r="C744" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D744" s="10" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="B745" s="48" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C745" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D745" s="10" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A746" s="10" t="s">
         <v>3298</v>
       </c>
-      <c r="B745" s="48" t="s">
+      <c r="B746" s="48" t="s">
         <v>3299</v>
       </c>
-      <c r="C745" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D745" s="10" t="s">
+      <c r="C746" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D746" s="10" t="s">
         <v>3300</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A746" s="76" t="s">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A747" s="76" t="s">
         <v>2979</v>
       </c>
-      <c r="B746" s="34" t="s">
+      <c r="B747" s="34" t="s">
         <v>2980</v>
       </c>
-      <c r="C746" s="76" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D746" s="76" t="s">
+      <c r="C747" s="76" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D747" s="76" t="s">
         <v>2981</v>
-      </c>
-    </row>
-    <row r="747" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A747" s="55" t="s">
-        <v>2744</v>
-      </c>
-      <c r="B747" s="46" t="s">
-        <v>2753</v>
-      </c>
-      <c r="C747" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D747" s="65" t="s">
-        <v>2745</v>
       </c>
     </row>
     <row r="748" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A748" s="55" t="s">
-        <v>2748</v>
+        <v>2744</v>
       </c>
       <c r="B748" s="46" t="s">
-        <v>2755</v>
-      </c>
-      <c r="C748" s="10" t="s">
-        <v>2504</v>
+        <v>2753</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1074</v>
       </c>
       <c r="D748" s="65" t="s">
-        <v>2749</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="749" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A749" s="55" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B749" s="46" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C749" s="10" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D749" s="65" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A750" s="55" t="s">
         <v>2746</v>
       </c>
-      <c r="B749" s="46" t="s">
+      <c r="B750" s="46" t="s">
         <v>2754</v>
       </c>
-      <c r="C749" t="s">
+      <c r="C750" t="s">
         <v>1065</v>
       </c>
-      <c r="D749" s="65" t="s">
+      <c r="D750" s="65" t="s">
         <v>2747</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A750" s="10" t="s">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A751" s="10" t="s">
         <v>1068</v>
       </c>
-      <c r="B750" s="48" t="s">
+      <c r="B751" s="48" t="s">
         <v>2091</v>
       </c>
-      <c r="C750" s="14" t="s">
+      <c r="C751" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D750" s="14" t="s">
+      <c r="D751" s="14" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A751" s="11" t="s">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A752" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="B751" s="48" t="s">
+      <c r="B752" s="48" t="s">
         <v>2107</v>
       </c>
-      <c r="C751" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D751" s="12" t="s">
+      <c r="C752" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D752" s="12" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A752" s="10" t="s">
-        <v>3276</v>
-      </c>
-      <c r="B752" s="48" t="s">
-        <v>3277</v>
-      </c>
-      <c r="C752" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D752" s="10" t="s">
-        <v>3280</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="10" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B753" s="48" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C753" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D753" s="10" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A754" s="10" t="s">
         <v>1052</v>
       </c>
-      <c r="B753" s="48" t="s">
+      <c r="B754" s="48" t="s">
         <v>2585</v>
       </c>
-      <c r="C753" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D753" s="10" t="s">
+      <c r="C754" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D754" s="10" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A754" s="56" t="s">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A755" s="56" t="s">
         <v>1300</v>
       </c>
-      <c r="B754" s="49" t="s">
+      <c r="B755" s="49" t="s">
         <v>2062</v>
       </c>
-      <c r="C754" s="14" t="s">
+      <c r="C755" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="D754" s="25" t="s">
+      <c r="D755" s="25" t="s">
         <v>3226</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A755" s="55" t="s">
+    <row r="756" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A756" s="55" t="s">
         <v>2739</v>
       </c>
-      <c r="B755" s="46" t="s">
+      <c r="B756" s="46" t="s">
         <v>2740</v>
       </c>
-      <c r="C755" s="14" t="s">
+      <c r="C756" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D755" s="65" t="s">
+      <c r="D756" s="65" t="s">
         <v>2738</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A756" s="11" t="s">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A757" s="11" t="s">
         <v>2529</v>
       </c>
-      <c r="B756" s="50" t="s">
+      <c r="B757" s="50" t="s">
         <v>2058</v>
       </c>
-      <c r="C756" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D756" s="12" t="s">
+      <c r="C757" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D757" s="12" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A757" s="10" t="s">
-        <v>2530</v>
-      </c>
-      <c r="B757" s="48" t="s">
-        <v>2531</v>
-      </c>
-      <c r="C757" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D757" s="10" t="s">
-        <v>2532</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="10" t="s">
-        <v>1157</v>
+        <v>2530</v>
       </c>
       <c r="B758" s="48" t="s">
-        <v>2059</v>
+        <v>2531</v>
       </c>
       <c r="C758" s="10" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D758" s="10" t="s">
-        <v>1158</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="10" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B759" s="48" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C759" s="10" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D759" s="10" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B760" s="48" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C760" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D760" s="10" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A761" s="10" t="s">
         <v>3304</v>
       </c>
-      <c r="B760" s="48" t="s">
+      <c r="B761" s="48" t="s">
         <v>3305</v>
       </c>
-      <c r="C760" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D760" s="10" t="s">
+      <c r="C761" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D761" s="10" t="s">
         <v>3306</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A761" s="56" t="s">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A762" s="56" t="s">
         <v>1085</v>
       </c>
-      <c r="B761" s="48" t="s">
+      <c r="B762" s="48" t="s">
         <v>2586</v>
       </c>
-      <c r="C761" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D761" s="25" t="s">
+      <c r="C762" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D762" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A762" s="10" t="s">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A763" s="10" t="s">
         <v>3077</v>
       </c>
-      <c r="B762" s="48" t="s">
+      <c r="B763" s="48" t="s">
         <v>2576</v>
       </c>
-      <c r="C762" s="14" t="s">
+      <c r="C763" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D762" s="10" t="s">
+      <c r="D763" s="10" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A763" s="11" t="s">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A764" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="B763" s="48" t="s">
+      <c r="B764" s="48" t="s">
         <v>2599</v>
       </c>
-      <c r="C763" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D763" s="12" t="s">
+      <c r="C764" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D764" s="12" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A764" s="55" t="s">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A765" s="55" t="s">
         <v>1093</v>
       </c>
-      <c r="B764" s="48" t="s">
+      <c r="B765" s="48" t="s">
         <v>2600</v>
       </c>
-      <c r="C764" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D764" t="s">
+      <c r="C765" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D765" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A765" s="10" t="s">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A766" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="B765" s="48" t="s">
+      <c r="B766" s="48" t="s">
         <v>2601</v>
       </c>
-      <c r="C765" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D765" s="10" t="s">
+      <c r="C766" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D766" s="10" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A766" s="11" t="s">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A767" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B766" s="48" t="s">
+      <c r="B767" s="48" t="s">
         <v>2108</v>
       </c>
-      <c r="C766" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D766" s="12" t="s">
+      <c r="C767" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D767" s="12" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A767" s="14" t="s">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A768" s="14" t="s">
         <v>1700</v>
       </c>
-      <c r="B767" s="48" t="s">
+      <c r="B768" s="48" t="s">
         <v>2109</v>
       </c>
-      <c r="C767" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D767" s="14" t="s">
+      <c r="C768" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D768" s="14" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A768" s="10" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B768" s="48" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C768" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D768" s="10" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B769" s="48" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C769" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D769" s="10" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A770" s="10" t="s">
         <v>1470</v>
       </c>
-      <c r="B769" s="48" t="s">
+      <c r="B770" s="48" t="s">
         <v>1471</v>
-      </c>
-      <c r="C769" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D769" s="10" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="770" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A770" s="55" t="s">
-        <v>2733</v>
-      </c>
-      <c r="B770" s="46" t="s">
-        <v>2735</v>
       </c>
       <c r="C770" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="D770" s="65" t="s">
+      <c r="D770" s="10" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A771" s="55" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B771" s="46" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C771" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D771" s="65" t="s">
         <v>2734</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A771" s="11" t="s">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A772" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="B771" s="48" t="s">
+      <c r="B772" s="48" t="s">
         <v>2105</v>
       </c>
-      <c r="C771" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D771" s="12" t="s">
+      <c r="C772" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D772" s="12" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A772" s="10" t="s">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A773" s="10" t="s">
         <v>3166</v>
       </c>
-      <c r="B772" s="48" t="s">
+      <c r="B773" s="48" t="s">
         <v>3167</v>
       </c>
-      <c r="C772" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D772" s="10" t="s">
+      <c r="C773" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D773" s="10" t="s">
         <v>3164</v>
-      </c>
-    </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A773" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B773" s="48" t="s">
-        <v>2577</v>
-      </c>
-      <c r="C773" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D773" s="14" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B774" s="48" t="s">
-        <v>2101</v>
+        <v>2577</v>
       </c>
       <c r="C774" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="D774" s="12" t="s">
-        <v>2581</v>
+      <c r="D774" s="14" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B775" s="48" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="C775" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D775" s="12" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B776" s="48" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C776" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="D776" s="12" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B777" s="48" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C777" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D777" s="12" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A778" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B777" s="48" t="s">
+      <c r="B778" s="48" t="s">
         <v>2102</v>
       </c>
-      <c r="C777" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D777" s="12" t="s">
+      <c r="C778" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D778" s="12" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A778" s="55" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B778" s="34" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C778" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D778" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="55" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B779" s="34" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C779" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A780" s="55" t="s">
         <v>1524</v>
       </c>
-      <c r="B779" s="34" t="s">
+      <c r="B780" s="34" t="s">
         <v>2578</v>
       </c>
-      <c r="C779" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D779" t="s">
+      <c r="C780" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D780" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A780" s="10" t="s">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A781" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="B780" s="34" t="s">
+      <c r="B781" s="34" t="s">
         <v>1368</v>
       </c>
-      <c r="C780" s="10" t="s">
+      <c r="C781" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D780" s="10" t="s">
+      <c r="D781" s="10" t="s">
         <v>1175</v>
-      </c>
-    </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A781" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B781" s="48" t="s">
-        <v>2106</v>
-      </c>
-      <c r="C781" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D781" s="12" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B782" s="48" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C782" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D782" s="12" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A783" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B782" s="48" t="s">
+      <c r="B783" s="48" t="s">
         <v>2100</v>
       </c>
-      <c r="C782" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D782" s="12" t="s">
+      <c r="C783" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D783" s="12" t="s">
         <v>3188</v>
-      </c>
-    </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A783" s="55" t="s">
-        <v>1643</v>
-      </c>
-      <c r="B783" s="34" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C783" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D783" s="14" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" s="55" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B784" s="34" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C784" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D784" s="14" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A785" s="55" t="s">
         <v>1642</v>
       </c>
-      <c r="B784" s="51" t="s">
+      <c r="B785" s="51" t="s">
         <v>1657</v>
       </c>
-      <c r="C784" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D784" s="10" t="s">
+      <c r="C785" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D785" s="10" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A785" s="14" t="s">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A786" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="B785" s="48" t="s">
+      <c r="B786" s="48" t="s">
         <v>2092</v>
       </c>
-      <c r="C785" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D785" s="14" t="s">
+      <c r="C786" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D786" s="14" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A786" s="11" t="s">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A787" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="B786" s="48" t="s">
+      <c r="B787" s="48" t="s">
         <v>2095</v>
       </c>
-      <c r="C786" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D786" s="12" t="s">
+      <c r="C787" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D787" s="12" t="s">
         <v>2580</v>
-      </c>
-    </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A787" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="B787" s="48" t="s">
-        <v>2098</v>
-      </c>
-      <c r="C787" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D787" s="14" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="14" t="s">
-        <v>2096</v>
+        <v>542</v>
       </c>
       <c r="B788" s="48" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="C788" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D788" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="14" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B789" s="48" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C789" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D789" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A790" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="B789" s="48" t="s">
+      <c r="B790" s="48" t="s">
         <v>2099</v>
       </c>
-      <c r="C789" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D789" s="14" t="s">
+      <c r="C790" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D790" s="14" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A790" s="11" t="s">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A791" s="11" t="s">
         <v>3074</v>
       </c>
-      <c r="B790" s="48" t="s">
+      <c r="B791" s="48" t="s">
         <v>2094</v>
       </c>
-      <c r="C790" s="11" t="s">
+      <c r="C791" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="D790" s="12" t="s">
+      <c r="D791" s="12" t="s">
         <v>3073</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A791" s="55" t="s">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A792" s="55" t="s">
         <v>1753</v>
       </c>
-      <c r="B791" s="34" t="s">
+      <c r="B792" s="34" t="s">
         <v>1756</v>
       </c>
-      <c r="C791" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D791" t="s">
+      <c r="C792" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D792" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A792" s="56" t="s">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A793" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B792" s="51" t="s">
+      <c r="B793" s="51" t="s">
         <v>2093</v>
       </c>
-      <c r="C792" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D792" s="25" t="s">
+      <c r="C793" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D793" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A793" s="10" t="s">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A794" s="10" t="s">
         <v>3075</v>
       </c>
-      <c r="B793" s="49" t="s">
+      <c r="B794" s="49" t="s">
         <v>3076</v>
       </c>
-      <c r="C793" s="14" t="s">
+      <c r="C794" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="D793" s="13" t="s">
+      <c r="D794" s="13" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A794" s="64" t="s">
+    <row r="795" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A795" s="64" t="s">
         <v>2602</v>
       </c>
-      <c r="B794" s="37" t="s">
+      <c r="B795" s="37" t="s">
         <v>2603</v>
-      </c>
-      <c r="C794" s="10" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D794" s="65" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="795" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A795" s="55" t="s">
-        <v>2643</v>
-      </c>
-      <c r="B795" s="46" t="s">
-        <v>2654</v>
       </c>
       <c r="C795" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="D795" t="s">
-        <v>2642</v>
+      <c r="D795" s="65" t="s">
+        <v>2604</v>
       </c>
     </row>
     <row r="796" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A796" s="55" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B796" s="46" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C796" s="10" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D796" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A797" s="55" t="s">
         <v>2641</v>
       </c>
-      <c r="B796" s="46" t="s">
+      <c r="B797" s="46" t="s">
         <v>2653</v>
       </c>
-      <c r="C796" s="10" t="s">
+      <c r="C797" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D796" t="s">
+      <c r="D797" t="s">
         <v>2640</v>
-      </c>
-    </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A797" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B797" s="48" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C797" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D797" s="62" t="s">
-        <v>2433</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B798" s="48" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C798" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D798" s="62" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A799" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B798" s="50" t="s">
+      <c r="B799" s="50" t="s">
         <v>1997</v>
       </c>
-      <c r="C798" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D798" s="12" t="s">
+      <c r="C799" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D799" s="12" t="s">
         <v>3189</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A799" s="14" t="s">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A800" s="14" t="s">
         <v>1730</v>
       </c>
-      <c r="B799" s="34" t="s">
+      <c r="B800" s="34" t="s">
         <v>1736</v>
       </c>
-      <c r="C799" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D799" t="s">
+      <c r="C800" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D800" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A800" s="11" t="s">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A801" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B800" s="50" t="s">
+      <c r="B801" s="50" t="s">
         <v>1996</v>
       </c>
-      <c r="C800" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D800" s="12" t="s">
+      <c r="C801" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D801" s="12" t="s">
         <v>2528</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A801" s="10" t="s">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A802" s="10" t="s">
         <v>1994</v>
       </c>
-      <c r="B801" s="48" t="s">
+      <c r="B802" s="48" t="s">
         <v>1995</v>
       </c>
-      <c r="C801" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D801" s="10" t="s">
+      <c r="C802" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D802" s="10" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A802" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B802" s="34" t="s">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A803" s="56" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B803" s="34" t="s">
         <v>1354</v>
       </c>
-      <c r="C802" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D802" s="25" t="s">
+      <c r="C803" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D803" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A803" s="10" t="s">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A804" s="10" t="s">
         <v>1193</v>
       </c>
-      <c r="B803" s="34" t="s">
+      <c r="B804" s="34" t="s">
         <v>1993</v>
       </c>
-      <c r="C803" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D803" s="10" t="s">
+      <c r="C804" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D804" s="10" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A804" s="14" t="s">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A805" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B804" s="34" t="s">
+      <c r="B805" s="34" t="s">
         <v>1355</v>
       </c>
-      <c r="C804" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D804" s="14" t="s">
+      <c r="C805" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D805" s="14" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A805" s="55" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B805" s="34" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C805" s="55" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D805" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" s="55" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B806" s="34" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C806" s="55" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A807" s="55" t="s">
         <v>1252</v>
       </c>
-      <c r="B806" s="34" t="s">
+      <c r="B807" s="34" t="s">
         <v>1357</v>
       </c>
-      <c r="C806" s="55" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D806" t="s">
+      <c r="C807" s="55" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D807" t="s">
         <v>1253</v>
-      </c>
-    </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A807" s="10" t="s">
-        <v>3006</v>
-      </c>
-      <c r="B807" s="48" t="s">
-        <v>3007</v>
-      </c>
-      <c r="C807" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D807" s="10" t="s">
-        <v>2994</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" s="10" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B808" s="48" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C808" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D808" s="10" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A809" s="10" t="s">
         <v>3008</v>
       </c>
-      <c r="B808" s="48" t="s">
+      <c r="B809" s="48" t="s">
         <v>3009</v>
       </c>
-      <c r="C808" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D808" s="10" t="s">
+      <c r="C809" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D809" s="10" t="s">
         <v>2995</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A809" s="55" t="s">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A810" s="55" t="s">
         <v>1281</v>
       </c>
-      <c r="B809" s="34" t="s">
+      <c r="B810" s="34" t="s">
         <v>1358</v>
       </c>
-      <c r="C809" s="55" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D809" t="s">
+      <c r="C810" s="55" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D810" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A810" s="64" t="s">
+    <row r="811" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A811" s="64" t="s">
         <v>2658</v>
       </c>
-      <c r="B810" s="37" t="s">
+      <c r="B811" s="37" t="s">
         <v>2659</v>
       </c>
-      <c r="C810" s="10" t="s">
+      <c r="C811" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="D810" s="65" t="s">
+      <c r="D811" s="65" t="s">
         <v>2660</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A811" s="11" t="s">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A812" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="B811" s="50" t="s">
+      <c r="B812" s="50" t="s">
         <v>1992</v>
       </c>
-      <c r="C811" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D811" s="12" t="s">
+      <c r="C812" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D812" s="12" t="s">
         <v>2579</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A812" s="55" t="s">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A813" s="55" t="s">
         <v>1704</v>
       </c>
-      <c r="B812" s="34" t="s">
+      <c r="B813" s="34" t="s">
         <v>1705</v>
       </c>
-      <c r="C812" s="10" t="s">
+      <c r="C813" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D812" t="s">
+      <c r="D813" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A813" s="56" t="s">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A814" s="56" t="s">
         <v>1311</v>
       </c>
-      <c r="B813" s="51" t="s">
+      <c r="B814" s="51" t="s">
         <v>1991</v>
       </c>
-      <c r="C813" s="14" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D813" s="25" t="s">
+      <c r="C814" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D814" s="25" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A814" s="10" t="s">
-        <v>3104</v>
-      </c>
-      <c r="B814" s="48" t="s">
-        <v>3105</v>
-      </c>
-      <c r="C814" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D814" s="10" t="s">
-        <v>3106</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" s="10" t="s">
-        <v>3337</v>
+        <v>3104</v>
       </c>
       <c r="B815" s="48" t="s">
-        <v>3340</v>
+        <v>3105</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="D815" s="10" t="s">
-        <v>2793</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" s="10" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="B816" s="48" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="C816" s="10" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D816" s="10" t="s">
-        <v>3338</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" s="10" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B817" s="48" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C817" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D817" s="10" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A818" s="10" t="s">
         <v>3342</v>
       </c>
-      <c r="B817" s="48" t="s">
+      <c r="B818" s="48" t="s">
         <v>3343</v>
       </c>
-      <c r="C817" s="10" t="s">
+      <c r="C818" s="10" t="s">
         <v>1065</v>
       </c>
-      <c r="D817" s="10" t="s">
+      <c r="D818" s="10" t="s">
         <v>3344</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D817" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D814">
-    <sortCondition ref="A2:A814"/>
+  <autoFilter ref="A1:D818" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D815">
+    <sortCondition ref="A2:A815"/>
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="D733:D735 F666:F729 E538:E598 D1:D22 D24:D47 D49:D537 D739:D1048576">
-    <cfRule type="duplicateValues" dxfId="277" priority="101"/>
+  <conditionalFormatting sqref="D734:D736 F667:F730 E539:E599 D1:D22 D24:D47 D49:D538 D740:D1048576">
+    <cfRule type="duplicateValues" dxfId="266" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A769:A1048576 A733:A735 A364:A365 A520:A537 A367:A518 A252:A362 A188:A250 A1:A186 A739:A754">
-    <cfRule type="duplicateValues" dxfId="276" priority="103"/>
+  <conditionalFormatting sqref="A770:A1048576 A734:A736 A364:A365 A521:A538 A367:A519 A252:A362 A188:A250 A1:A186 A740:A755">
+    <cfRule type="duplicateValues" dxfId="265" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A769:A1048576 A733:A735 A520:A537 A1:A518 A739:A754">
-    <cfRule type="duplicateValues" dxfId="275" priority="108"/>
+  <conditionalFormatting sqref="A770:A1048576 A734:A736 A521:A538 A1:A519 A740:A755">
+    <cfRule type="duplicateValues" dxfId="264" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A592:A598 A538:A539 A588 A571:A581 A554:A557 A559:A568 A541:A552">
-    <cfRule type="duplicateValues" dxfId="274" priority="99"/>
+  <conditionalFormatting sqref="A593:A599 A539:A540 A589 A572:A582 A555:A558 A560:A569 A542:A553">
+    <cfRule type="duplicateValues" dxfId="263" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A769:A1048576 A733:A735 A1:A598 A739:A754">
-    <cfRule type="duplicateValues" dxfId="273" priority="98"/>
+  <conditionalFormatting sqref="A770:A1048576 A734:A736 A1:A599 A740:A755">
+    <cfRule type="duplicateValues" dxfId="262" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A628:A630 A599:A626 A632:A637">
-    <cfRule type="duplicateValues" dxfId="272" priority="97"/>
+  <conditionalFormatting sqref="A629:A631 A600:A627 A633:A638">
+    <cfRule type="duplicateValues" dxfId="261" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A627">
-    <cfRule type="duplicateValues" dxfId="271" priority="96"/>
+  <conditionalFormatting sqref="A628">
+    <cfRule type="duplicateValues" dxfId="260" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A632:A637 A599:A630">
-    <cfRule type="duplicateValues" dxfId="270" priority="86"/>
+  <conditionalFormatting sqref="A633:A638 A600:A631">
+    <cfRule type="duplicateValues" dxfId="259" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D628:D637 D599:D626">
-    <cfRule type="duplicateValues" dxfId="269" priority="85"/>
+  <conditionalFormatting sqref="D629:D638 D600:D627">
+    <cfRule type="duplicateValues" dxfId="258" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A769:A1048576 A733:A735 A1:A630 A632:A637 A739:A754">
-    <cfRule type="duplicateValues" dxfId="268" priority="84"/>
+  <conditionalFormatting sqref="A770:A1048576 A734:A736 A1:A631 A633:A638 A740:A755">
+    <cfRule type="duplicateValues" dxfId="257" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A769:A1048576 A733:A735 A739:A754">
-    <cfRule type="duplicateValues" dxfId="267" priority="76"/>
+  <conditionalFormatting sqref="A770:A1048576 A734:A736 A740:A755">
+    <cfRule type="duplicateValues" dxfId="256" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="266" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="265" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D733:D735 D1:D637 D739:D1048576">
-    <cfRule type="duplicateValues" dxfId="264" priority="72"/>
+  <conditionalFormatting sqref="D734:D736 D1:D638 D740:D1048576">
+    <cfRule type="duplicateValues" dxfId="253" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="263" priority="70"/>
+  <conditionalFormatting sqref="A678:A680">
+    <cfRule type="duplicateValues" dxfId="252" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="262" priority="69"/>
+  <conditionalFormatting sqref="A678:A680">
+    <cfRule type="duplicateValues" dxfId="251" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="261" priority="68"/>
+  <conditionalFormatting sqref="A678:A680">
+    <cfRule type="duplicateValues" dxfId="250" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A697">
-    <cfRule type="duplicateValues" dxfId="260" priority="67"/>
+  <conditionalFormatting sqref="A698">
+    <cfRule type="duplicateValues" dxfId="249" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D677:D696">
-    <cfRule type="duplicateValues" dxfId="259" priority="65"/>
+  <conditionalFormatting sqref="D678:D697">
+    <cfRule type="duplicateValues" dxfId="248" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D677:D696 D698:D709 D711:D716 D718:D719 D721">
-    <cfRule type="duplicateValues" dxfId="258" priority="127"/>
+  <conditionalFormatting sqref="D678:D697 D699:D710 D712:D717 D719:D720 D722">
+    <cfRule type="duplicateValues" dxfId="247" priority="127"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A717">
-    <cfRule type="duplicateValues" dxfId="257" priority="64"/>
+  <conditionalFormatting sqref="A718">
+    <cfRule type="duplicateValues" dxfId="246" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A728">
-    <cfRule type="duplicateValues" dxfId="256" priority="63"/>
+  <conditionalFormatting sqref="A729">
+    <cfRule type="duplicateValues" dxfId="245" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A728">
-    <cfRule type="duplicateValues" dxfId="255" priority="62"/>
+  <conditionalFormatting sqref="A729">
+    <cfRule type="duplicateValues" dxfId="244" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A731:A732">
-    <cfRule type="duplicateValues" dxfId="254" priority="61"/>
+  <conditionalFormatting sqref="A732:A733">
+    <cfRule type="duplicateValues" dxfId="243" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A731:A732">
-    <cfRule type="duplicateValues" dxfId="253" priority="60"/>
+  <conditionalFormatting sqref="A732:A733">
+    <cfRule type="duplicateValues" dxfId="242" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A736:A738">
-    <cfRule type="duplicateValues" dxfId="252" priority="59"/>
+  <conditionalFormatting sqref="A737:A739">
+    <cfRule type="duplicateValues" dxfId="241" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A736:A738">
-    <cfRule type="duplicateValues" dxfId="251" priority="58"/>
+  <conditionalFormatting sqref="A737:A739">
+    <cfRule type="duplicateValues" dxfId="240" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A769:A1048576 A1:A754">
-    <cfRule type="duplicateValues" dxfId="250" priority="57"/>
+  <conditionalFormatting sqref="A770:A1048576 A1:A755">
+    <cfRule type="duplicateValues" dxfId="239" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="249" priority="55"/>
+  <conditionalFormatting sqref="A758">
+    <cfRule type="duplicateValues" dxfId="238" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="248" priority="56"/>
+  <conditionalFormatting sqref="A758">
+    <cfRule type="duplicateValues" dxfId="237" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="247" priority="54"/>
+  <conditionalFormatting sqref="A758">
+    <cfRule type="duplicateValues" dxfId="236" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="246" priority="53"/>
+  <conditionalFormatting sqref="A758">
+    <cfRule type="duplicateValues" dxfId="235" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="245" priority="52"/>
+  <conditionalFormatting sqref="A758">
+    <cfRule type="duplicateValues" dxfId="234" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="244" priority="50"/>
+  <conditionalFormatting sqref="A761">
+    <cfRule type="duplicateValues" dxfId="233" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="243" priority="51"/>
+  <conditionalFormatting sqref="A761">
+    <cfRule type="duplicateValues" dxfId="232" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="242" priority="49"/>
+  <conditionalFormatting sqref="A761">
+    <cfRule type="duplicateValues" dxfId="231" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="241" priority="48"/>
+  <conditionalFormatting sqref="A761">
+    <cfRule type="duplicateValues" dxfId="230" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="240" priority="47"/>
+  <conditionalFormatting sqref="A761">
+    <cfRule type="duplicateValues" dxfId="229" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="239" priority="30"/>
+  <conditionalFormatting sqref="A765:A766">
+    <cfRule type="duplicateValues" dxfId="228" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="238" priority="31"/>
+  <conditionalFormatting sqref="A765:A766">
+    <cfRule type="duplicateValues" dxfId="227" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="237" priority="29"/>
+  <conditionalFormatting sqref="A765:A766">
+    <cfRule type="duplicateValues" dxfId="226" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="236" priority="28"/>
+  <conditionalFormatting sqref="A765:A766">
+    <cfRule type="duplicateValues" dxfId="225" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="235" priority="27"/>
+  <conditionalFormatting sqref="A765:A766">
+    <cfRule type="duplicateValues" dxfId="224" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="234" priority="26"/>
+  <conditionalFormatting sqref="A765:A766">
+    <cfRule type="duplicateValues" dxfId="223" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="233" priority="6"/>
+  <conditionalFormatting sqref="A769">
+    <cfRule type="duplicateValues" dxfId="222" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="232" priority="7"/>
+  <conditionalFormatting sqref="A769">
+    <cfRule type="duplicateValues" dxfId="221" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="231" priority="5"/>
+  <conditionalFormatting sqref="A769">
+    <cfRule type="duplicateValues" dxfId="220" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="230" priority="4"/>
+  <conditionalFormatting sqref="A769">
+    <cfRule type="duplicateValues" dxfId="219" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="229" priority="3"/>
+  <conditionalFormatting sqref="A769">
+    <cfRule type="duplicateValues" dxfId="218" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="228" priority="2"/>
+  <conditionalFormatting sqref="A769">
+    <cfRule type="duplicateValues" dxfId="217" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="227" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A766:A767 A755:A763">
-    <cfRule type="duplicateValues" dxfId="226" priority="404"/>
+  <conditionalFormatting sqref="A767:A768 A756:A764">
+    <cfRule type="duplicateValues" dxfId="215" priority="404"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25779,31 +25718,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26903,16 +26842,16 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <conditionalFormatting sqref="A3:B8 A10:B10">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B8 A10:B10">
-    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C13">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31858,7 +31797,7 @@
     <sortCondition ref="A2:A119"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D33" location="'Zhdetl (from Alien Book 4)'!A19" display="'Zhdetl (from Alien Book 4)'!A19" xr:uid="{F22ED44C-2884-447F-9EEA-635AD96A4C7F}"/>
@@ -32594,7 +32533,7 @@
     <sortCondition ref="A2:A91"/>
   </sortState>
   <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
-    <cfRule type="duplicateValues" dxfId="225" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33433,43 +33372,43 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="duplicateValues" dxfId="224" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="223" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="duplicateValues" dxfId="222" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="duplicateValues" dxfId="221" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A44">
-    <cfRule type="duplicateValues" dxfId="220" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="219" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="218" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="217" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="216" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="215" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="214" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="duplicateValues" dxfId="213" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="212" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -34233,28 +34172,28 @@
     <sortCondition ref="A2:A68"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="211" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="210" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="209" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="208" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="207" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="206" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="205" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A67 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="204" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35084,28 +35023,28 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="203" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="202" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="201" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="200" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="199" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="198" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="197" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="196" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36143,211 +36082,211 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="195" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="194" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="193" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="192" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="191" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="190" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="189" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="188" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="187" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="186" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="185" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="184" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="183" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="182" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="181" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="180" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="179" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="178" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="177" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="176" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="175" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="174" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="173" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="172" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="171" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="170" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="169" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="168" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="167" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="166" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="165" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="164" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="163" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="162" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="161" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="160" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="159" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="duplicateValues" dxfId="158" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="duplicateValues" dxfId="157" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A48 A1:A44 A52:A53 A56 A61 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="156" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="155" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="154" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A1:A58 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="153" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="152" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="151" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="150" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="149" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="148" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="147" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="146" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="145" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="144" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="143" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="142" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="141" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="140" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="139" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="138" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="137" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="136" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="135" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="134" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="133" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="132" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="131" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="130" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="129" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="128" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="127" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37257,253 +37196,253 @@
     <sortCondition ref="A2:A74"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="126" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="125" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="124" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="123" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="122" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="121" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="120" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="119" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="118" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="117" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="116" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="115" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="114" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="113" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="112" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="111" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="110" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="109" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="108" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="107" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="106" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="105" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="104" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="103" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="102" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="101" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="100" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="99" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="98" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="97" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="96" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="95" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="94" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="93" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="92" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="91" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="90" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="89" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="88" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="87" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="86" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="85" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A34 A38:A39 A41:A61 A64:A1048576">
-    <cfRule type="duplicateValues" dxfId="84" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="83" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="82" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="81" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="80" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="79" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="78" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="77" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="76" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="75" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="74" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="73" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="72" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="71" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="70" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="69" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="68" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="67" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="66" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="65" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="64" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="63" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="62" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="61" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="60" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="57" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="56" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="55" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="54" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="53" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="52" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38147,31 +38086,31 @@
     <sortCondition ref="A2:A44"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="43" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38870,34 +38809,34 @@
     <sortCondition ref="A2:A48"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A2C62-5667-43DB-B627-E0F0A98CFF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4198A98-838E-454B-A047-630570C9D33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -18,26 +18,27 @@
     <sheet name="BZ 3 Vocabulary" sheetId="11" state="hidden" r:id="rId3"/>
     <sheet name="BZ 4 Vocabulary" sheetId="12" state="hidden" r:id="rId4"/>
     <sheet name="BZ 5 Vocabulary" sheetId="14" state="hidden" r:id="rId5"/>
-    <sheet name="BZ 6 Vocabulary" sheetId="15" r:id="rId6"/>
+    <sheet name="BZ 6 Vocabulary" sheetId="15" state="hidden" r:id="rId6"/>
     <sheet name="BZ 7 Vocabulary" sheetId="16" r:id="rId7"/>
     <sheet name="BZ 8 Vocabulary" sheetId="17" r:id="rId8"/>
     <sheet name="BZ 9 Vocabulary" sheetId="18" r:id="rId9"/>
     <sheet name="BZ 10 Vocabulary" sheetId="19" r:id="rId10"/>
     <sheet name="BZ 11 Vocabulary" sheetId="20" r:id="rId11"/>
-    <sheet name="Pronunciation Guide" sheetId="13" r:id="rId12"/>
-    <sheet name="Common affixes" sheetId="7" r:id="rId13"/>
-    <sheet name="Zhdetl (from Alien Book 4)" sheetId="5" r:id="rId14"/>
-    <sheet name="Root Words (from other lists)" sheetId="3" r:id="rId15"/>
-    <sheet name="Correlative Words" sheetId="6" r:id="rId16"/>
-    <sheet name="Verb forms and conjugations" sheetId="4" r:id="rId17"/>
-    <sheet name="Conjunctions and logical forms" sheetId="8" r:id="rId18"/>
-    <sheet name="Lessons" sheetId="1" state="hidden" r:id="rId19"/>
+    <sheet name="BZ 12 Vocabulary" sheetId="21" r:id="rId12"/>
+    <sheet name="Pronunciation Guide" sheetId="13" r:id="rId13"/>
+    <sheet name="Common affixes" sheetId="7" r:id="rId14"/>
+    <sheet name="Zhdetl (from Alien Book 4)" sheetId="5" r:id="rId15"/>
+    <sheet name="Root Words (from other lists)" sheetId="3" r:id="rId16"/>
+    <sheet name="Correlative Words" sheetId="6" r:id="rId17"/>
+    <sheet name="Verb forms and conjugations" sheetId="4" r:id="rId18"/>
+    <sheet name="Conjunctions and logical forms" sheetId="8" r:id="rId19"/>
+    <sheet name="Lessons" sheetId="1" state="hidden" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BZ 4 Vocabulary'!$A$1:$A$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Lessons!$A$1:$C$229</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lexicon!$A$1:$D$850</definedName>
-    <definedName name="ExternalData_1" localSheetId="13" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">Lessons!$A$1:$C$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lexicon!$A$1:$D$873</definedName>
+    <definedName name="ExternalData_1" localSheetId="14" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6899" uniqueCount="3577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7006" uniqueCount="3625">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -10821,6 +10822,150 @@
   </si>
   <si>
     <t>ĈTIO</t>
+  </si>
+  <si>
+    <t>zhochtli</t>
+  </si>
+  <si>
+    <t>ŹOĈṪI</t>
+  </si>
+  <si>
+    <t>tlaztle'</t>
+  </si>
+  <si>
+    <t>to call out (to someone)</t>
+  </si>
+  <si>
+    <t>ṪAZṪE'</t>
+  </si>
+  <si>
+    <t>kokati</t>
+  </si>
+  <si>
+    <t>KOKATI</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kokate </t>
+  </si>
+  <si>
+    <t>KOKATE</t>
+  </si>
+  <si>
+    <t>musically</t>
+  </si>
+  <si>
+    <t>kokate'</t>
+  </si>
+  <si>
+    <t>KOKATE'</t>
+  </si>
+  <si>
+    <t>to make music</t>
+  </si>
+  <si>
+    <t>brojeve'</t>
+  </si>
+  <si>
+    <t>ḄOJEVE'</t>
+  </si>
+  <si>
+    <t>to walk, stroll</t>
+  </si>
+  <si>
+    <t>yekoe'</t>
+  </si>
+  <si>
+    <t>YEKOE'</t>
+  </si>
+  <si>
+    <t>to intend (to do something)</t>
+  </si>
+  <si>
+    <t>light (weight)</t>
+  </si>
+  <si>
+    <t>kalmeki</t>
+  </si>
+  <si>
+    <t>KALMEKI</t>
+  </si>
+  <si>
+    <t>corridor</t>
+  </si>
+  <si>
+    <t>-poye</t>
+  </si>
+  <si>
+    <t>-POYE</t>
+  </si>
+  <si>
+    <t>indicates a part of a more complex system or object, such as a gear in a machine or a body part</t>
+  </si>
+  <si>
+    <t>to complete</t>
+  </si>
+  <si>
+    <t>teme'</t>
+  </si>
+  <si>
+    <t>TEME'</t>
+  </si>
+  <si>
+    <t>to seek</t>
+  </si>
+  <si>
+    <t>zanen</t>
+  </si>
+  <si>
+    <t>ZANEN</t>
+  </si>
+  <si>
+    <t>a pen or other writing implement</t>
+  </si>
+  <si>
+    <t>topke'</t>
+  </si>
+  <si>
+    <t>TOPKE'</t>
+  </si>
+  <si>
+    <t>to be well</t>
+  </si>
+  <si>
+    <t>topka</t>
+  </si>
+  <si>
+    <t>TOPKA</t>
+  </si>
+  <si>
+    <t>chaktopka</t>
+  </si>
+  <si>
+    <t>unhealthy</t>
+  </si>
+  <si>
+    <t>topki</t>
+  </si>
+  <si>
+    <t>TOPKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health </t>
+  </si>
+  <si>
+    <t>totome'</t>
+  </si>
+  <si>
+    <t>TOTOME'</t>
+  </si>
+  <si>
+    <t>to come</t>
+  </si>
+  <si>
+    <t>ĈAKTOPKA</t>
   </si>
 </sst>
 </file>
@@ -11225,7 +11370,727 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="280">
+  <dxfs count="352">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14047,8 +14912,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="279"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="278"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="351"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="350"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14351,11 +15216,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:D863"/>
+  <dimension ref="A1:D873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D524" sqref="D524"/>
+      <pane ySplit="1" topLeftCell="A767" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D782" sqref="D782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16080,7 +16945,9 @@
       <c r="B123" s="54" t="s">
         <v>2885</v>
       </c>
-      <c r="C123" s="22"/>
+      <c r="C123" s="22" t="s">
+        <v>1385</v>
+      </c>
       <c r="D123" s="74" t="s">
         <v>2884</v>
       </c>
@@ -17169,7 +18036,7 @@
         <v>3371</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>3173</v>
+        <v>101</v>
       </c>
       <c r="D201" s="18" t="s">
         <v>3356</v>
@@ -17408,7 +18275,7 @@
         <v>1062</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>51</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -17982,7 +18849,7 @@
         <v>1072</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>2735</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -18119,7 +18986,7 @@
         <v>1766</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>1072</v>
+        <v>1385</v>
       </c>
       <c r="D269" s="25" t="s">
         <v>1764</v>
@@ -20705,7 +21572,7 @@
         <v>3369</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>3173</v>
+        <v>101</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>3357</v>
@@ -22678,7 +23545,7 @@
         <v>1062</v>
       </c>
       <c r="D595" s="14" t="s">
-        <v>1257</v>
+        <v>51</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
@@ -26008,10 +26875,10 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" s="14" t="s">
-        <v>1727</v>
+        <v>3577</v>
       </c>
       <c r="B834" s="34" t="s">
-        <v>1733</v>
+        <v>3578</v>
       </c>
       <c r="C834" s="14" t="s">
         <v>1062</v>
@@ -26426,168 +27293,308 @@
         <v>3574</v>
       </c>
     </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A864" s="10" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B864" s="48" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C864" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D864" s="10" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A865" s="10" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B865" s="48" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C865" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D865" s="10" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A866" s="10" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B866" s="48" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C866" s="10" t="s">
+        <v>2497</v>
+      </c>
+      <c r="D866" s="10" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A867" s="10" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B867" s="48" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C867" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D867" s="10" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A868" s="10" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B868" s="48" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C868" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D868" s="10" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A869" s="10" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B869" s="48" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C869" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D869" s="10" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A870" s="10" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B870" s="48" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C870" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D870" s="10" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A871" s="10" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B871" s="48" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C871" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D871" s="10" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A872" s="10" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B872" s="48" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C872" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D872" s="10" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A873" s="10" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B873" s="48" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C873" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D873" s="10" t="s">
+        <v>3623</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D850" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <autoFilter ref="A1:D873" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D850">
     <sortCondition ref="A2:A850"/>
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D733:D735 F667:F729 E539:E599 D1:D22 D24:D47 D49:D538 D739:D1048576">
-    <cfRule type="duplicateValues" dxfId="277" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A364:A365 A521:A538 A367:A519 A252:A362 A188:A250 A1:A186 A739:A754">
-    <cfRule type="duplicateValues" dxfId="276" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A521:A538 A1:A519 A739:A754">
-    <cfRule type="duplicateValues" dxfId="275" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A593:A599 A539:A540 A589 A572:A582 A555:A558 A560:A569 A542:A553">
-    <cfRule type="duplicateValues" dxfId="274" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A1:A599 A739:A754">
-    <cfRule type="duplicateValues" dxfId="273" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A629:A631 A600:A627 A633:A638">
-    <cfRule type="duplicateValues" dxfId="272" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A628">
-    <cfRule type="duplicateValues" dxfId="271" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A633:A638 A600:A631">
-    <cfRule type="duplicateValues" dxfId="270" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D629:D638 D600:D627">
-    <cfRule type="duplicateValues" dxfId="269" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A1:A631 A633:A638 A739:A754">
-    <cfRule type="duplicateValues" dxfId="268" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A733:A735 A739:A754">
-    <cfRule type="duplicateValues" dxfId="267" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="266" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="265" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D733:D735 D1:D638 D739:D1048576">
-    <cfRule type="duplicateValues" dxfId="264" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A678:A680">
-    <cfRule type="duplicateValues" dxfId="263" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A678:A680">
-    <cfRule type="duplicateValues" dxfId="262" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A678:A680">
-    <cfRule type="duplicateValues" dxfId="261" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A698">
-    <cfRule type="duplicateValues" dxfId="260" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D678:D697">
-    <cfRule type="duplicateValues" dxfId="259" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D678:D697 D699:D710 D712:D717 D719:D720 D722">
-    <cfRule type="duplicateValues" dxfId="258" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A718">
-    <cfRule type="duplicateValues" dxfId="257" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A728">
-    <cfRule type="duplicateValues" dxfId="256" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A728">
-    <cfRule type="duplicateValues" dxfId="255" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731:A732">
-    <cfRule type="duplicateValues" dxfId="254" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731:A732">
-    <cfRule type="duplicateValues" dxfId="253" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738">
-    <cfRule type="duplicateValues" dxfId="252" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736:A738">
-    <cfRule type="duplicateValues" dxfId="251" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769:A1048576 A1:A754">
-    <cfRule type="duplicateValues" dxfId="250" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="249" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="248" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="247" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="246" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="duplicateValues" dxfId="245" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="244" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="243" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="242" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="241" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="duplicateValues" dxfId="240" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="239" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="238" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="237" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="236" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="235" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A765">
-    <cfRule type="duplicateValues" dxfId="234" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="233" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="232" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="231" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="230" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="229" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="duplicateValues" dxfId="228" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="227" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A766:A767 A755:A763">
-    <cfRule type="duplicateValues" dxfId="226" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="404"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26864,31 +27871,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26897,10 +27904,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4406AD-1F51-4D91-8B98-2559886AEE0B}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27134,38 +28141,496 @@
         <v>3547</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3604</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
     <sortCondition ref="A2:A16"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="83" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="82" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="81" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="80" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A17">
+    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B1ACC5-A67E-4275-AF61-49773D2F5A99}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>2497</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>3615</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="duplicateValues" dxfId="77" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="76" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="75" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="74" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="73" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="72" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="duplicateValues" dxfId="71" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="70" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="69" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="68" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="67" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="66" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="65" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="64" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="63" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="62" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="61" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="60" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D6">
+    <cfRule type="duplicateValues" dxfId="59" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="58" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="57" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="56" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="55" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="54" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D6">
+    <cfRule type="duplicateValues" dxfId="53" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="52" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="51" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="50" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="49" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="48" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="47" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="46" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="45" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="44" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="43" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="42" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="duplicateValues" dxfId="41" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="40" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="39" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="38" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="36" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="duplicateValues" dxfId="35" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="34" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="33" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="31" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="30" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="D15">
     <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27173,7 +28638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41784C-9F42-4128-89B3-6E7D0464A767}">
   <dimension ref="A1:D53"/>
   <sheetViews>
@@ -27937,12 +29402,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B86E83E-55B3-40BB-BA96-58035B5D13E3}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28325,6 +29790,17 @@
       </c>
       <c r="C33" s="14" t="s">
         <v>3570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B34" s="95" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>3603</v>
       </c>
     </row>
   </sheetData>
@@ -28349,7 +29825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BFE38-5763-453D-9FF5-A2457E37E84D}">
   <dimension ref="A1:B186"/>
   <sheetViews>
@@ -29857,7 +31333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB61E12-6C74-4701-A254-825366490294}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -30053,7 +31529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9877E8E-BB57-4FF2-A3FB-8FEBE988B88E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -30319,7 +31795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CA9072-8D62-4A02-9166-5FE417EB9B7F}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -30476,7 +31952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3353A3-B398-4076-8CF8-A68F635577B8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -30572,7 +32048,733 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7F781C-0661-4824-A35E-D444CE3A2392}">
+  <dimension ref="A1:C65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C23" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C28" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="31"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="31"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C91">
+    <sortCondition ref="A2:A91"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
+    <cfRule type="duplicateValues" dxfId="297" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A37324B-2868-4E4C-8751-CECEDA1C21E7}">
   <dimension ref="A1:I234"/>
   <sheetViews>
@@ -33305,732 +35507,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7F781C-0661-4824-A35E-D444CE3A2392}">
-  <dimension ref="A1:C65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C19" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C23" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C28" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C59" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="31"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="31"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C91">
-    <sortCondition ref="A2:A91"/>
-  </sortState>
-  <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
-    <cfRule type="duplicateValues" dxfId="225" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9096239-BD92-4704-8D1C-40341C993307}">
   <dimension ref="A1:C84"/>
@@ -34863,43 +36339,43 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="duplicateValues" dxfId="224" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="223" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="duplicateValues" dxfId="222" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="duplicateValues" dxfId="221" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A44">
-    <cfRule type="duplicateValues" dxfId="220" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="219" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="218" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="217" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="216" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="215" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="214" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="duplicateValues" dxfId="213" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="212" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35663,28 +37139,28 @@
     <sortCondition ref="A2:A68"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="211" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="210" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="209" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="208" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="207" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="206" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="205" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A67 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="204" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36514,28 +37990,28 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="203" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="202" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="201" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="200" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="199" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="198" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="197" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="196" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37573,211 +39049,211 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="195" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="194" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="193" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="192" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="191" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="190" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="189" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="188" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="187" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="186" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="185" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="184" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="183" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="182" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="181" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="180" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="179" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="178" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="177" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="176" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="175" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="174" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="173" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="172" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="171" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="170" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="169" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="168" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="167" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="166" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="165" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="164" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="163" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="162" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="161" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="160" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="159" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="duplicateValues" dxfId="158" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="duplicateValues" dxfId="157" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A48 A1:A44 A52:A53 A56 A61 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="156" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="155" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="154" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A1:A58 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="153" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="152" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="151" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="150" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="149" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="148" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="147" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="146" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="145" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="144" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="143" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="142" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="141" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="140" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="139" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="138" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="137" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="136" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="135" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="134" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="133" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="132" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="131" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="130" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="129" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="128" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="127" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38687,253 +40163,253 @@
     <sortCondition ref="A2:A74"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="126" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="125" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="124" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="123" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="122" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="121" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="120" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="119" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="118" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="117" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="116" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="115" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="114" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="113" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="112" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="111" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="110" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="109" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="108" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="107" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="106" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="105" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="104" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="103" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="102" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="101" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="100" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="99" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="98" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="97" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="96" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="95" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="94" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="93" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="92" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="91" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="90" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="89" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="88" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="87" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="86" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="85" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A34 A38:A39 A41:A61 A64:A1048576">
-    <cfRule type="duplicateValues" dxfId="84" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="83" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="82" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="81" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="80" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="79" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="78" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="77" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="76" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="75" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="74" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="73" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="72" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="71" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="70" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="69" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="68" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="67" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="66" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="65" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="64" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="63" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="62" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="61" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="60" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="57" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="56" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="55" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="54" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="53" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="52" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38944,8 +40420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCFC9F8-4C76-48D0-B662-02AAA8D192D0}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39577,31 +41053,31 @@
     <sortCondition ref="A2:A44"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="43" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39612,7 +41088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AD2021-A592-469F-9F0D-AAD89469E5C2}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A61" sqref="A61:D61"/>
     </sheetView>
   </sheetViews>
@@ -40468,34 +41944,34 @@
     <sortCondition ref="A2:A60"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="34" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="32" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A60 A62:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA39A36-9A6B-494A-BEB9-358F63C41084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72678725-A5C2-4362-B93D-F855EA99923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" activeTab="13" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7347" uniqueCount="3858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7350" uniqueCount="3863">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -11663,6 +11663,21 @@
   </si>
   <si>
     <t>ŻEḊADI</t>
+  </si>
+  <si>
+    <t>One of six Zhodani seasons containing 40 zhdanstial equivalent to 45 standard days.</t>
+  </si>
+  <si>
+    <t>good journey'. An 800-ton liner used in the core regions of the Consulate.</t>
+  </si>
+  <si>
+    <t>fel-</t>
+  </si>
+  <si>
+    <t>FEL-</t>
+  </si>
+  <si>
+    <t>indicates loose morals or depravity</t>
   </si>
 </sst>
 </file>
@@ -12115,14 +12130,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12139,6 +12154,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -12589,16 +12614,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -15701,8 +15716,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16007,9 +16022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
   <dimension ref="A1:E908"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A849" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B874" sqref="B874"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A503" sqref="A503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -17542,7 +17557,7 @@
       <c r="D100" s="19" t="s">
         <v>3131</v>
       </c>
-      <c r="E100" s="114" t="s">
+      <c r="E100" s="113" t="s">
         <v>3727</v>
       </c>
     </row>
@@ -20629,7 +20644,7 @@
         <v>1056</v>
       </c>
       <c r="D306" s="72"/>
-      <c r="E306" s="113" t="s">
+      <c r="E306" s="112" t="s">
         <v>2936</v>
       </c>
     </row>
@@ -25343,8 +25358,8 @@
         <v>1056</v>
       </c>
       <c r="D622" s="11"/>
-      <c r="E622" s="12" t="s">
-        <v>331</v>
+      <c r="E622" s="60" t="s">
+        <v>3859</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
@@ -25359,7 +25374,7 @@
       </c>
       <c r="D623" s="11"/>
       <c r="E623" s="12" t="s">
-        <v>333</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
@@ -28475,7 +28490,7 @@
         <v>1057</v>
       </c>
       <c r="D834" s="72"/>
-      <c r="E834" s="113" t="s">
+      <c r="E834" s="112" t="s">
         <v>2939</v>
       </c>
     </row>
@@ -29645,157 +29660,157 @@
     <cfRule type="duplicateValues" dxfId="354" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768:A878 A731:A733 A363:A364 A518:A535 A366:A516 A251:A361 A187:A249 A1:A185 A737:A752 A880:A1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768:A878 A731:A733 A518:A535 A1:A516 A737:A752 A880:A1048576">
-    <cfRule type="duplicateValues" dxfId="43" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A590:A596 A536:A537 A586 A569:A579 A552:A555 A557:A566 A539:A550">
-    <cfRule type="duplicateValues" dxfId="42" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768:A878 A731:A733 A1:A596 A737:A752 A880:A1048576">
-    <cfRule type="duplicateValues" dxfId="41" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A626:A628 A597:A624 A630:A635">
-    <cfRule type="duplicateValues" dxfId="40" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A625">
-    <cfRule type="duplicateValues" dxfId="39" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A630:A635 A597:A628">
-    <cfRule type="duplicateValues" dxfId="38" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E626:E635 E597:E624">
-    <cfRule type="duplicateValues" dxfId="353" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768:A878 A731:A733 A1:A628 A630:A635 A737:A752 A880:A1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768:A878 A731:A733 A737:A752 A880:A1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="duplicateValues" dxfId="352" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="duplicateValues" dxfId="351" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E731:E733 E1:E635 E737:E893 E895:E904 E906:E1048576">
-    <cfRule type="duplicateValues" dxfId="350" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A676:A678">
-    <cfRule type="duplicateValues" dxfId="35" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A676:A678">
-    <cfRule type="duplicateValues" dxfId="34" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A676:A678">
-    <cfRule type="duplicateValues" dxfId="33" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A696">
-    <cfRule type="duplicateValues" dxfId="32" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E676:E695">
-    <cfRule type="duplicateValues" dxfId="349" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E676:E695 E697:E708 E710:E715 E717:E718 E720">
-    <cfRule type="duplicateValues" dxfId="348" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A716">
-    <cfRule type="duplicateValues" dxfId="31" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A726">
-    <cfRule type="duplicateValues" dxfId="30" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A726">
-    <cfRule type="duplicateValues" dxfId="29" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A729:A730">
-    <cfRule type="duplicateValues" dxfId="28" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A729:A730">
-    <cfRule type="duplicateValues" dxfId="27" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A734:A736">
-    <cfRule type="duplicateValues" dxfId="26" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A734:A736">
-    <cfRule type="duplicateValues" dxfId="25" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768:A878 A1:A752 A880:A1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="23" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="22" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="21" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="20" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="19" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="duplicateValues" dxfId="18" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="duplicateValues" dxfId="17" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="duplicateValues" dxfId="16" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="duplicateValues" dxfId="15" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="duplicateValues" dxfId="14" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="13" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="12" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="11" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="10" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="9" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="8" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A880:A1048576 A1:A878">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A766 A753:A761">
-    <cfRule type="duplicateValues" dxfId="0" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="404"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30313,31 +30328,31 @@
     <sortCondition ref="A2:A35"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="146" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="145" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="144" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="143" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="142" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="141" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="140" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="139" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="138" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30729,34 +30744,34 @@
     <sortCondition ref="A2:A16"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="137" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="136" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="135" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="134" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="133" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="132" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="131" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="130" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="129" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A26">
-    <cfRule type="duplicateValues" dxfId="128" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31018,232 +31033,232 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="127" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="126" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="125" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="124" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="123" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="122" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="121" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="120" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="119" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="118" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="117" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="116" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="115" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="114" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="113" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="112" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="111" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="110" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6">
-    <cfRule type="duplicateValues" dxfId="109" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="108" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="107" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="106" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="105" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="104" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6">
-    <cfRule type="duplicateValues" dxfId="103" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="102" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="101" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="100" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="99" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="98" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="97" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="96" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="95" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="94" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="93" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="92" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="91" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="90" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="89" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="88" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="87" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="86" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="85" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="84" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="83" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="82" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="81" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="80" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="79" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="78" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="77" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="76" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="75" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="74" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="duplicateValues" dxfId="73" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="72" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="71" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="70" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="68" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="duplicateValues" dxfId="67" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="66" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="64" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="63" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="62" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="60" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="59" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="58" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="57" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32016,10 +32031,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B86E83E-55B3-40BB-BA96-58035B5D13E3}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32413,19 +32428,30 @@
         <v>3013</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>3861</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>3862</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E34">
     <sortCondition ref="A2:A34"/>
   </sortState>
   <conditionalFormatting sqref="C3:C13">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B8 A10:B10">
-    <cfRule type="duplicateValues" dxfId="48" priority="405"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="405"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -34156,15 +34182,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>936</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
@@ -35374,7 +35400,7 @@
     <sortCondition ref="A2:A91"/>
   </sortState>
   <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
-    <cfRule type="duplicateValues" dxfId="347" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38097,7 +38123,7 @@
     <sortCondition ref="A2:A119"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D33" location="'Zhdetl (from Alien Book 4)'!A19" display="'Zhdetl (from Alien Book 4)'!A19" xr:uid="{F22ED44C-2884-447F-9EEA-635AD96A4C7F}"/>
@@ -38946,43 +38972,43 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="duplicateValues" dxfId="346" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="345" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="duplicateValues" dxfId="344" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="duplicateValues" dxfId="343" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A44">
-    <cfRule type="duplicateValues" dxfId="342" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="341" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="340" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="339" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="338" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="337" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="336" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="duplicateValues" dxfId="335" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="334" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39746,28 +39772,28 @@
     <sortCondition ref="A2:A68"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="333" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="332" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="331" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="330" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="329" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="328" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="327" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A67 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="326" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40597,28 +40623,28 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="325" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="324" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="323" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="322" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="321" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="320" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="319" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="318" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41656,211 +41682,211 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="317" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="316" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="315" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="314" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="313" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="312" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="311" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="310" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="309" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="308" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="307" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="306" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="305" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="304" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="303" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="302" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="301" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="300" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="299" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="298" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="297" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="296" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="295" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="294" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="293" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="292" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="291" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="290" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="289" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="288" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="287" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="286" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="285" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="284" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="283" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="282" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="281" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="duplicateValues" dxfId="280" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="duplicateValues" dxfId="279" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A48 A1:A44 A52:A53 A56 A61 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="278" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="277" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="276" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A1:A58 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="275" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="274" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="273" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="272" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="271" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="270" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="269" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="268" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="267" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="266" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="265" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="264" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="263" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="262" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="261" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="260" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="259" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="258" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="257" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="256" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="255" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="254" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="253" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="252" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="251" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="250" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="249" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42770,253 +42796,253 @@
     <sortCondition ref="A2:A74"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="248" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="247" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="246" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="245" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="244" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="243" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="242" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="241" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="240" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="239" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="238" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="237" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="236" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="235" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="234" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="233" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="232" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="231" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="230" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="229" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="228" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="227" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="226" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="225" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="224" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="223" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="222" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="221" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="220" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="219" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="218" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="217" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="216" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="215" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="214" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="213" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="212" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="211" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="210" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="209" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="208" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="207" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A34 A38:A39 A41:A61 A64:A1048576">
-    <cfRule type="duplicateValues" dxfId="206" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="205" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="204" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="203" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="202" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="201" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="200" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="199" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="198" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="197" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="196" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="195" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="194" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="193" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="192" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="191" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="190" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="189" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="188" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="187" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="186" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="185" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="184" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="183" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="182" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="181" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="180" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="179" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="178" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="177" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="176" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="175" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="174" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="173" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="172" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="171" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="170" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="169" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="168" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="167" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="166" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43660,31 +43686,31 @@
     <sortCondition ref="A2:A44"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="165" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="164" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="163" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="162" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="161" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="160" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="159" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="158" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="157" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44575,34 +44601,34 @@
     <sortCondition ref="A2:A62"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="156" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="155" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="154" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="153" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="152" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="151" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="150" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="149" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="148" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A1048576 A1:A62">
-    <cfRule type="duplicateValues" dxfId="147" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4D4FC4-18A8-4C0D-9BF7-E1F4570685CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB9966-5A3F-472D-9CF0-AA685EB37A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BZ 4 Vocabulary'!$A$1:$A$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">Lessons!$A$1:$C$229</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lexicon!$A$1:$D$933</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lexicon!$A$1:$D$934</definedName>
     <definedName name="ExternalData_1" localSheetId="14" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7629" uniqueCount="3990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7633" uniqueCount="3993">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -12159,6 +12159,15 @@
   </si>
   <si>
     <t>Jump drive, colloquially</t>
+  </si>
+  <si>
+    <t>zhante'</t>
+  </si>
+  <si>
+    <t>to be common</t>
+  </si>
+  <si>
+    <t>ŹANTE'</t>
   </si>
 </sst>
 </file>
@@ -12656,9 +12665,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -12674,6 +12680,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16556,11 +16565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:E955"/>
+  <dimension ref="A1:E956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B608" sqref="B608"/>
+      <pane ySplit="1" topLeftCell="A892" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B902" sqref="B902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16576,7 +16585,7 @@
       <c r="A1" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="71" t="s">
         <v>433</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -24464,11 +24473,11 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="61" t="s">
         <v>2560</v>
       </c>
-      <c r="B566" s="35" t="s">
+      <c r="B566" s="32" t="s">
         <v>2561</v>
       </c>
       <c r="C566" s="14" t="s">
@@ -29154,795 +29163,809 @@
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A901" s="10" t="s">
-        <v>3119</v>
+      <c r="A901" s="11" t="s">
+        <v>3990</v>
       </c>
       <c r="B901" s="46" t="s">
-        <v>3120</v>
-      </c>
-      <c r="C901" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D901" s="99" t="s">
-        <v>3117</v>
+        <v>3992</v>
+      </c>
+      <c r="C901" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D901" s="12" t="s">
+        <v>3991</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A902" s="10" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B902" s="46" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C902" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D902" s="99" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A903" s="10" t="s">
         <v>3933</v>
       </c>
-      <c r="B902" s="46" t="s">
+      <c r="B903" s="46" t="s">
         <v>3934</v>
       </c>
-      <c r="C902" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D902" s="10" t="s">
+      <c r="C903" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D903" s="10" t="s">
         <v>3935</v>
-      </c>
-    </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A903" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B903" s="46" t="s">
-        <v>2537</v>
-      </c>
-      <c r="C903" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D903" s="100" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A904" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B904" s="46" t="s">
-        <v>2077</v>
+        <v>2537</v>
       </c>
       <c r="C904" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="D904" s="12" t="s">
-        <v>2541</v>
+      <c r="D904" s="100" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A905" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B905" s="46" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="C905" s="11" t="s">
         <v>1056</v>
       </c>
       <c r="D905" s="12" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A906" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B906" s="46" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C906" s="11" t="s">
         <v>1056</v>
       </c>
       <c r="D906" s="12" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A907" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B907" s="46" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C907" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D907" s="12" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A908" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B907" s="46" t="s">
+      <c r="B908" s="46" t="s">
         <v>2078</v>
       </c>
-      <c r="C907" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D907" s="12" t="s">
+      <c r="C908" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D908" s="12" t="s">
         <v>3468</v>
-      </c>
-    </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A908" s="10" t="s">
-        <v>3290</v>
-      </c>
-      <c r="B908" s="46" t="s">
-        <v>3293</v>
-      </c>
-      <c r="C908" s="10" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D908" s="99" t="s">
-        <v>2746</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A909" s="10" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B909" s="46" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C909" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D909" s="99" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A910" s="10" t="s">
         <v>3292</v>
       </c>
-      <c r="B909" s="46" t="s">
+      <c r="B910" s="46" t="s">
         <v>3294</v>
       </c>
-      <c r="C909" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D909" s="99" t="s">
+      <c r="C910" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D910" s="99" t="s">
         <v>3291</v>
-      </c>
-    </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A910" s="53" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B910" s="32" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C910" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D910" s="27" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A911" s="53" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B911" s="32" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C911" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D911" s="27" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A912" s="53" t="s">
         <v>1511</v>
       </c>
-      <c r="B911" s="32" t="s">
+      <c r="B912" s="32" t="s">
         <v>2538</v>
       </c>
-      <c r="C911" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D911" s="27" t="s">
+      <c r="C912" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D912" s="27" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A912" s="10" t="s">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A913" s="10" t="s">
         <v>1173</v>
       </c>
-      <c r="B912" s="32" t="s">
+      <c r="B913" s="32" t="s">
         <v>1357</v>
       </c>
-      <c r="C912" s="10" t="s">
+      <c r="C913" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="D912" s="99" t="s">
+      <c r="D913" s="99" t="s">
         <v>1164</v>
-      </c>
-    </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A913" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B913" s="46" t="s">
-        <v>2082</v>
-      </c>
-      <c r="C913" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D913" s="12" t="s">
-        <v>3140</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A914" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B914" s="46" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C914" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D914" s="12" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A915" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B914" s="46" t="s">
+      <c r="B915" s="46" t="s">
         <v>2076</v>
       </c>
-      <c r="C914" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D914" s="12" t="s">
+      <c r="C915" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D915" s="12" t="s">
         <v>3141</v>
-      </c>
-    </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A915" s="53" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B915" s="32" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C915" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D915" s="100" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A916" s="53" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B916" s="32" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C916" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D916" s="100" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A917" s="53" t="s">
         <v>3424</v>
       </c>
-      <c r="B916" s="49" t="s">
+      <c r="B917" s="49" t="s">
         <v>3425</v>
       </c>
-      <c r="C916" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D916" s="99" t="s">
+      <c r="C917" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D917" s="99" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A917" s="10" t="s">
-        <v>3334</v>
-      </c>
-      <c r="B917" s="46" t="s">
-        <v>3335</v>
-      </c>
-      <c r="C917" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D917" s="99" t="s">
-        <v>3336</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A918" s="10" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="B918" s="46" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="C918" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="D918" s="99" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A919" s="10" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="B919" s="46" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="C919" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="D919" s="99" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" s="10" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B920" s="46" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C920" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D920" s="99" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A921" s="10" t="s">
         <v>3331</v>
       </c>
-      <c r="B920" s="46" t="s">
+      <c r="B921" s="46" t="s">
         <v>3332</v>
       </c>
-      <c r="C920" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D920" s="99" t="s">
+      <c r="C921" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D921" s="99" t="s">
         <v>3333</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A921" s="14" t="s">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A922" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="B921" s="46" t="s">
+      <c r="B922" s="46" t="s">
         <v>2068</v>
       </c>
-      <c r="C921" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D921" s="100" t="s">
+      <c r="C922" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D922" s="100" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A922" s="11" t="s">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A923" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="B922" s="46" t="s">
+      <c r="B923" s="46" t="s">
         <v>2071</v>
       </c>
-      <c r="C922" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D922" s="12" t="s">
+      <c r="C923" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D923" s="12" t="s">
         <v>2540</v>
-      </c>
-    </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A923" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="B923" s="46" t="s">
-        <v>2074</v>
-      </c>
-      <c r="C923" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D923" s="100" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A924" s="14" t="s">
-        <v>2072</v>
+        <v>542</v>
       </c>
       <c r="B924" s="46" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="C924" s="14" t="s">
         <v>1056</v>
       </c>
       <c r="D924" s="100" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A925" s="14" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B925" s="46" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C925" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D925" s="100" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A926" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="B925" s="46" t="s">
+      <c r="B926" s="46" t="s">
         <v>2075</v>
       </c>
-      <c r="C925" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D925" s="100" t="s">
+      <c r="C926" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D926" s="100" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A926" s="10" t="s">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A927" s="10" t="s">
         <v>3686</v>
       </c>
-      <c r="B926" s="46" t="s">
+      <c r="B927" s="46" t="s">
         <v>3687</v>
       </c>
-      <c r="C926" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D926" s="99" t="s">
+      <c r="C927" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D927" s="99" t="s">
         <v>3688</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A927" s="11" t="s">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A928" s="11" t="s">
         <v>3027</v>
       </c>
-      <c r="B927" s="46" t="s">
+      <c r="B928" s="46" t="s">
         <v>2070</v>
       </c>
-      <c r="C927" s="11" t="s">
+      <c r="C928" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="D927" s="12" t="s">
+      <c r="D928" s="12" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A928" s="53" t="s">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A929" s="53" t="s">
         <v>1739</v>
       </c>
-      <c r="B928" s="32" t="s">
+      <c r="B929" s="32" t="s">
         <v>1742</v>
       </c>
-      <c r="C928" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D928" s="27" t="s">
+      <c r="C929" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D929" s="27" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A929" s="54" t="s">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A930" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B929" s="49" t="s">
+      <c r="B930" s="49" t="s">
         <v>2069</v>
       </c>
-      <c r="C929" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D929" s="101" t="s">
+      <c r="C930" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D930" s="101" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A930" s="10" t="s">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A931" s="10" t="s">
         <v>3028</v>
       </c>
-      <c r="B930" s="47" t="s">
+      <c r="B931" s="47" t="s">
         <v>3029</v>
       </c>
-      <c r="C930" s="14" t="s">
+      <c r="C931" s="14" t="s">
         <v>1064</v>
       </c>
-      <c r="D930" s="110" t="s">
+      <c r="D931" s="110" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="931" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A931" s="61" t="s">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A932" s="61" t="s">
         <v>2557</v>
       </c>
-      <c r="B931" s="35" t="s">
+      <c r="B932" s="32" t="s">
         <v>2558</v>
-      </c>
-      <c r="C931" s="10" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D931" s="108" t="s">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="932" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A932" s="53" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B932" s="44" t="s">
-        <v>2609</v>
       </c>
       <c r="C932" s="10" t="s">
         <v>1376</v>
       </c>
-      <c r="D932" s="27" t="s">
-        <v>2597</v>
+      <c r="D932" s="108" t="s">
+        <v>2559</v>
       </c>
     </row>
     <row r="933" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A933" s="53" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B933" s="44" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C933" s="10" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D933" s="27" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A934" s="53" t="s">
         <v>2596</v>
       </c>
-      <c r="B933" s="44" t="s">
+      <c r="B934" s="44" t="s">
         <v>2608</v>
       </c>
-      <c r="C933" s="10" t="s">
+      <c r="C934" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="D933" s="27" t="s">
+      <c r="D934" s="27" t="s">
         <v>2595</v>
-      </c>
-    </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A934" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B934" s="46" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C934" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D934" s="60" t="s">
-        <v>2399</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A935" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B935" s="46" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C935" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D935" s="60" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A936" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B935" s="48" t="s">
+      <c r="B936" s="48" t="s">
         <v>1982</v>
       </c>
-      <c r="C935" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D935" s="12" t="s">
+      <c r="C936" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D936" s="12" t="s">
         <v>3142</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A936" s="14" t="s">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A937" s="14" t="s">
         <v>3532</v>
       </c>
-      <c r="B936" s="32" t="s">
+      <c r="B937" s="32" t="s">
         <v>3533</v>
       </c>
-      <c r="C936" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D936" s="27" t="s">
+      <c r="C937" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D937" s="27" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A937" s="11" t="s">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A938" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B937" s="48" t="s">
+      <c r="B938" s="48" t="s">
         <v>1981</v>
       </c>
-      <c r="C937" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D937" s="12" t="s">
+      <c r="C938" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D938" s="12" t="s">
         <v>2494</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A938" s="10" t="s">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A939" s="10" t="s">
         <v>1979</v>
       </c>
-      <c r="B938" s="46" t="s">
+      <c r="B939" s="46" t="s">
         <v>1980</v>
       </c>
-      <c r="C938" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D938" s="99" t="s">
+      <c r="C939" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D939" s="99" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A939" s="54" t="s">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A940" s="54" t="s">
         <v>1245</v>
       </c>
-      <c r="B939" s="32" t="s">
+      <c r="B940" s="32" t="s">
         <v>1343</v>
       </c>
-      <c r="C939" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D939" s="101" t="s">
+      <c r="C940" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D940" s="101" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A940" s="10" t="s">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A941" s="10" t="s">
         <v>1182</v>
       </c>
-      <c r="B940" s="32" t="s">
+      <c r="B941" s="32" t="s">
         <v>1978</v>
       </c>
-      <c r="C940" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D940" s="99" t="s">
+      <c r="C941" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D941" s="99" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A941" s="14" t="s">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A942" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B941" s="32" t="s">
+      <c r="B942" s="32" t="s">
         <v>1344</v>
       </c>
-      <c r="C941" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D941" s="100" t="s">
+      <c r="C942" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D942" s="100" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A942" s="53" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B942" s="32" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C942" s="53" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D942" s="27" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A943" s="53" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B943" s="32" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C943" s="53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D943" s="27" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A944" s="53" t="s">
         <v>1241</v>
       </c>
-      <c r="B943" s="32" t="s">
+      <c r="B944" s="32" t="s">
         <v>1346</v>
       </c>
-      <c r="C943" s="53" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D943" s="27" t="s">
+      <c r="C944" s="53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D944" s="27" t="s">
         <v>1242</v>
-      </c>
-    </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A944" s="10" t="s">
-        <v>3982</v>
-      </c>
-      <c r="B944" s="46" t="s">
-        <v>3952</v>
-      </c>
-      <c r="C944" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D944" s="10" t="s">
-        <v>3953</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A945" s="10" t="s">
-        <v>2959</v>
+        <v>3982</v>
       </c>
       <c r="B945" s="46" t="s">
-        <v>2960</v>
+        <v>3952</v>
       </c>
       <c r="C945" s="10" t="s">
         <v>1056</v>
       </c>
-      <c r="D945" s="99" t="s">
-        <v>2947</v>
+      <c r="D945" s="10" t="s">
+        <v>3953</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A946" s="10" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B946" s="46" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C946" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D946" s="99" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A947" s="10" t="s">
         <v>2961</v>
       </c>
-      <c r="B946" s="46" t="s">
+      <c r="B947" s="46" t="s">
         <v>2962</v>
       </c>
-      <c r="C946" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D946" s="99" t="s">
+      <c r="C947" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D947" s="99" t="s">
         <v>2948</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A947" s="53" t="s">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A948" s="53" t="s">
         <v>1270</v>
       </c>
-      <c r="B947" s="32" t="s">
+      <c r="B948" s="32" t="s">
         <v>1347</v>
       </c>
-      <c r="C947" s="53" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D947" s="27" t="s">
+      <c r="C948" s="53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D948" s="27" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="948" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A948" s="61" t="s">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A949" s="61" t="s">
         <v>2613</v>
       </c>
-      <c r="B948" s="35" t="s">
+      <c r="B949" s="32" t="s">
         <v>2614</v>
       </c>
-      <c r="C948" s="10" t="s">
+      <c r="C949" s="10" t="s">
         <v>1376</v>
       </c>
-      <c r="D948" s="108" t="s">
+      <c r="D949" s="108" t="s">
         <v>2615</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A949" s="11" t="s">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A950" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="B949" s="48" t="s">
+      <c r="B950" s="48" t="s">
         <v>1977</v>
       </c>
-      <c r="C949" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D949" s="12" t="s">
+      <c r="C950" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D950" s="12" t="s">
         <v>2539</v>
-      </c>
-    </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A950" s="10" t="s">
-        <v>3882</v>
-      </c>
-      <c r="B950" s="46" t="s">
-        <v>3876</v>
-      </c>
-      <c r="C950" s="10" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D950" s="99" t="s">
-        <v>3877</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A951" s="10" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B951" s="46" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C951" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D951" s="99" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A952" s="10" t="s">
         <v>3885</v>
       </c>
-      <c r="B951" s="46" t="s">
+      <c r="B952" s="46" t="s">
         <v>3886</v>
       </c>
-      <c r="C951" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D951" s="99" t="s">
+      <c r="C952" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D952" s="99" t="s">
         <v>3878</v>
       </c>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A952" s="53" t="s">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A953" s="53" t="s">
         <v>1690</v>
       </c>
-      <c r="B952" s="32" t="s">
+      <c r="B953" s="32" t="s">
         <v>1691</v>
       </c>
-      <c r="C952" s="10" t="s">
+      <c r="C953" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="D952" s="27" t="s">
+      <c r="D953" s="27" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A953" s="10" t="s">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A954" s="10" t="s">
         <v>3441</v>
       </c>
-      <c r="B953" s="46" t="s">
+      <c r="B954" s="46" t="s">
         <v>3442</v>
       </c>
-      <c r="C953" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D953" s="99" t="s">
+      <c r="C954" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D954" s="99" t="s">
         <v>3438</v>
       </c>
     </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A954" s="54" t="s">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A955" s="54" t="s">
         <v>1300</v>
       </c>
-      <c r="B954" s="49" t="s">
+      <c r="B955" s="49" t="s">
         <v>1976</v>
       </c>
-      <c r="C954" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D954" s="101" t="s">
+      <c r="C955" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D955" s="101" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A955" s="10" t="s">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A956" s="10" t="s">
         <v>3057</v>
       </c>
-      <c r="B955" s="46" t="s">
+      <c r="B956" s="46" t="s">
         <v>3058</v>
       </c>
-      <c r="C955" s="10" t="s">
+      <c r="C956" s="10" t="s">
         <v>1064</v>
       </c>
-      <c r="D955" s="99" t="s">
+      <c r="D956" s="99" t="s">
         <v>3059</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D933" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E975">
-    <sortCondition ref="A2:A975"/>
+  <autoFilter ref="A1:D934" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E976">
+    <sortCondition ref="A2:A976"/>
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="D957:D1048576 D915:D934 D732:D734 F666:F728 E536:E596 D1:D22 D24:D47 D49:D535 D738:D893 D895:D903 D905:D908">
+  <conditionalFormatting sqref="D958:D1048576 D916:D935 D732:D734 F666:F728 E536:E596 D1:D22 D24:D47 D49:D535 D738:D893 D895:D904 D906:D909">
     <cfRule type="duplicateValues" dxfId="352" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A926:A1048576 A768:A878 A732:A734 A363:A364 A518:A535 A366:A516 A251:A361 A187:A249 A1:A185 A738:A752 A880:A924">
+  <conditionalFormatting sqref="A927:A1048576 A768:A878 A732:A734 A363:A364 A518:A535 A366:A516 A251:A361 A187:A249 A1:A185 A738:A752 A880:A925">
     <cfRule type="duplicateValues" dxfId="351" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A926:A1048576 A768:A878 A732:A734 A518:A535 A1:A516 A738:A752 A880:A924">
+  <conditionalFormatting sqref="A927:A1048576 A768:A878 A732:A734 A518:A535 A1:A516 A738:A752 A880:A925">
     <cfRule type="duplicateValues" dxfId="350" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A590:A596 A536:A537 A586 A569:A579 A552:A555 A557:A566 A539:A550">
     <cfRule type="duplicateValues" dxfId="349" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A926:A1048576 A768:A878 A732:A734 A1:A596 A738:A752 A880:A924">
+  <conditionalFormatting sqref="A927:A1048576 A768:A878 A732:A734 A1:A596 A738:A752 A880:A925">
     <cfRule type="duplicateValues" dxfId="348" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A627:A629 A597:A625 A631:A636">
@@ -29957,10 +29980,10 @@
   <conditionalFormatting sqref="D627:D636 D597:D608 D610:D625">
     <cfRule type="duplicateValues" dxfId="344" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A926:A1048576 A768:A878 A732:A734 A1:A629 A631:A636 A738:A752 A880:A924">
+  <conditionalFormatting sqref="A927:A1048576 A768:A878 A732:A734 A1:A629 A631:A636 A738:A752 A880:A925">
     <cfRule type="duplicateValues" dxfId="343" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A926:A1048576 A768:A878 A732:A734 A738:A752 A880:A924">
+  <conditionalFormatting sqref="A927:A1048576 A768:A878 A732:A734 A738:A752 A880:A925">
     <cfRule type="duplicateValues" dxfId="342" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
@@ -29969,7 +29992,7 @@
   <conditionalFormatting sqref="D48">
     <cfRule type="duplicateValues" dxfId="340" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D957:D1048576 D915:D934 D732:D734 D1:D608 D610:D636 D738:D893 D895:D903 D905:D908">
+  <conditionalFormatting sqref="D958:D1048576 D916:D935 D732:D734 D1:D608 D610:D636 D738:D893 D895:D904 D906:D909">
     <cfRule type="duplicateValues" dxfId="339" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677:A679">
@@ -30011,7 +30034,7 @@
   <conditionalFormatting sqref="A735:A737">
     <cfRule type="duplicateValues" dxfId="326" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A926:A1048576 A768:A878 A1:A752 A880:A924">
+  <conditionalFormatting sqref="A927:A1048576 A768:A878 A1:A752 A880:A925">
     <cfRule type="duplicateValues" dxfId="325" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
@@ -30080,7 +30103,7 @@
   <conditionalFormatting sqref="A767">
     <cfRule type="duplicateValues" dxfId="303" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A926:A1048576 A880:A924 A1:A878">
+  <conditionalFormatting sqref="A927:A1048576 A880:A925 A1:A878">
     <cfRule type="duplicateValues" dxfId="302" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A766 A753:A761">
@@ -31420,7 +31443,7 @@
       <c r="A1" s="71" t="s">
         <v>815</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="128" t="s">
         <v>433</v>
       </c>
       <c r="C1" s="71" t="s">
@@ -31431,14 +31454,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="124" t="s">
         <v>3974</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="123" t="s">
         <v>3971</v>
       </c>
       <c r="C2" s="116"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="124" t="s">
         <v>3972</v>
       </c>
     </row>
@@ -31788,7 +31811,7 @@
       <c r="A30" s="117" t="s">
         <v>3967</v>
       </c>
-      <c r="B30" s="127" t="s">
+      <c r="B30" s="126" t="s">
         <v>3968</v>
       </c>
       <c r="D30" s="117" t="s">
@@ -31810,7 +31833,7 @@
       <c r="A32" s="118" t="s">
         <v>3964</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="127" t="s">
         <v>3965</v>
       </c>
       <c r="D32" s="118" t="s">
@@ -31821,7 +31844,7 @@
       <c r="A33" s="117" t="s">
         <v>3961</v>
       </c>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="126" t="s">
         <v>3962</v>
       </c>
       <c r="D33" s="117" t="s">
@@ -31829,14 +31852,14 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="124" t="s">
         <v>3973</v>
       </c>
-      <c r="B34" s="124" t="s">
+      <c r="B34" s="123" t="s">
         <v>3959</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="D34" s="125" t="s">
+      <c r="C34" s="125"/>
+      <c r="D34" s="124" t="s">
         <v>3960</v>
       </c>
     </row>
@@ -35091,15 +35114,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="129" t="s">
         <v>936</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB9966-5A3F-472D-9CF0-AA685EB37A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C75CD-3C99-447A-84F0-7DB5EAC15A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BZ 4 Vocabulary'!$A$1:$A$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">Lessons!$A$1:$C$229</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lexicon!$A$1:$D$934</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lexicon!$A$1:$D$956</definedName>
     <definedName name="ExternalData_1" localSheetId="14" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7633" uniqueCount="3993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7658" uniqueCount="4011">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -12168,6 +12168,60 @@
   </si>
   <si>
     <t>ŹANTE'</t>
+  </si>
+  <si>
+    <t>iaqotze'</t>
+  </si>
+  <si>
+    <t>to fight, to make war</t>
+  </si>
+  <si>
+    <t>iaqotzinad</t>
+  </si>
+  <si>
+    <t>warrior</t>
+  </si>
+  <si>
+    <t>ĨQOTZINAD</t>
+  </si>
+  <si>
+    <t>ĨQOTZE'</t>
+  </si>
+  <si>
+    <t>ketze'</t>
+  </si>
+  <si>
+    <t>KETZE'</t>
+  </si>
+  <si>
+    <t>to lead</t>
+  </si>
+  <si>
+    <t>ketznad</t>
+  </si>
+  <si>
+    <t>KETZNAD</t>
+  </si>
+  <si>
+    <t>a leader</t>
+  </si>
+  <si>
+    <t>temoliqchedl</t>
+  </si>
+  <si>
+    <t>Inquisitor</t>
+  </si>
+  <si>
+    <t>Zhinstebr</t>
+  </si>
+  <si>
+    <t>Overseer</t>
+  </si>
+  <si>
+    <t>Qindievlnad</t>
+  </si>
+  <si>
+    <t>Novice, the lowest ranking in a religious order</t>
   </si>
 </sst>
 </file>
@@ -16565,16 +16619,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:E956"/>
+  <dimension ref="A1:E964"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A892" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B902" sqref="B902"/>
+      <pane ySplit="1" topLeftCell="A943" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B963" sqref="B963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="46.21875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="108.5546875" style="99" customWidth="1"/>
@@ -29946,8 +30000,97 @@
         <v>3059</v>
       </c>
     </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A958" s="10" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B958" s="46" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C958" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D958" s="99" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A959" s="10" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B959" s="46" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C959" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D959" s="99" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A960" s="10" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B960" s="46" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C960" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D960" s="99" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A961" s="10" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B961" s="46" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C961" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D961" s="99" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A962" s="10" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C962" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D962" s="99" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A963" s="10" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C963" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D963" s="99" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A964" s="10" t="s">
+        <v>4009</v>
+      </c>
+      <c r="C964" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D964" s="99" t="s">
+        <v>4010</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D934" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <autoFilter ref="A1:D956" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E976">
     <sortCondition ref="A2:A976"/>
   </sortState>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C75CD-3C99-447A-84F0-7DB5EAC15A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA60E2D-42AB-46DF-B09C-F1F019803997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7658" uniqueCount="4011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7730" uniqueCount="4063">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -12222,6 +12222,162 @@
   </si>
   <si>
     <t>Novice, the lowest ranking in a religious order</t>
+  </si>
+  <si>
+    <t>pochita</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>chtaka</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Achtotnad</t>
+  </si>
+  <si>
+    <t>AĈTOTNAD</t>
+  </si>
+  <si>
+    <t>Initiate, the next rank in a religious order</t>
+  </si>
+  <si>
+    <t>QINDĪṾNAD</t>
+  </si>
+  <si>
+    <t>ŹINSTEḄ</t>
+  </si>
+  <si>
+    <t>teacher, educator</t>
+  </si>
+  <si>
+    <t>Yzqenad</t>
+  </si>
+  <si>
+    <t>YZQENAD</t>
+  </si>
+  <si>
+    <t>observer, one who observes</t>
+  </si>
+  <si>
+    <t>TLAMAĈTŘNAD</t>
+  </si>
+  <si>
+    <t>Tlamachtrnad</t>
+  </si>
+  <si>
+    <t>temole'</t>
+  </si>
+  <si>
+    <t>TEMOLE'</t>
+  </si>
+  <si>
+    <t>to investigate</t>
+  </si>
+  <si>
+    <t>temolinad</t>
+  </si>
+  <si>
+    <t>TEMOLINAD</t>
+  </si>
+  <si>
+    <t>investigator</t>
+  </si>
+  <si>
+    <t>Zhdevvi</t>
+  </si>
+  <si>
+    <t>ŽEVVI</t>
+  </si>
+  <si>
+    <t>Chopchti</t>
+  </si>
+  <si>
+    <t>ĈOPIĈTI</t>
+  </si>
+  <si>
+    <t>Deacon</t>
+  </si>
+  <si>
+    <t>priest</t>
+  </si>
+  <si>
+    <t>Aiavrdiqr</t>
+  </si>
+  <si>
+    <t>AĨṼDIỢ</t>
+  </si>
+  <si>
+    <t>Acolyte, a middle rank in a religious order</t>
+  </si>
+  <si>
+    <t>POĈITA</t>
+  </si>
+  <si>
+    <t>ĈTAKA</t>
+  </si>
+  <si>
+    <t>tianqize'</t>
+  </si>
+  <si>
+    <t>to trade</t>
+  </si>
+  <si>
+    <t>tianqiznad</t>
+  </si>
+  <si>
+    <t>a merchant, trader</t>
+  </si>
+  <si>
+    <t>TĨNQIZNAD</t>
+  </si>
+  <si>
+    <t>TĨNQIZE'</t>
+  </si>
+  <si>
+    <t>pechatle'</t>
+  </si>
+  <si>
+    <t>PEĈAṪE'</t>
+  </si>
+  <si>
+    <t>to conquer, to be victorious</t>
+  </si>
+  <si>
+    <t>toyodievl</t>
+  </si>
+  <si>
+    <t>TOYODIEṾ</t>
+  </si>
+  <si>
+    <t>dream; more literally, 'night thoughts'</t>
+  </si>
+  <si>
+    <t>tlatonatl</t>
+  </si>
+  <si>
+    <t>a word</t>
+  </si>
+  <si>
+    <t>tlatonatledl</t>
+  </si>
+  <si>
+    <t>a sentence</t>
+  </si>
+  <si>
+    <t>dzaqsht'zy</t>
+  </si>
+  <si>
+    <t>a serious emotional or mental outburst associated with serious mental health problems, PTSD, usually involving thoughts of violence or self-harm.</t>
+  </si>
+  <si>
+    <t>zilsht'zy</t>
+  </si>
+  <si>
+    <t>sht'zy</t>
   </si>
 </sst>
 </file>
@@ -12511,7 +12667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12735,6 +12891,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12753,6 +12915,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -16274,16 +16446,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -16315,8 +16477,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="354"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="353"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16619,17 +16781,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:E964"/>
+  <dimension ref="A1:E983"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A943" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B963" sqref="B963"/>
+      <pane ySplit="1" topLeftCell="A962" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A984" sqref="A984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="46.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="108.5546875" style="99" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="10"/>
@@ -30060,6 +30222,9 @@
       <c r="A962" s="10" t="s">
         <v>4005</v>
       </c>
+      <c r="B962" s="46" t="s">
+        <v>4018</v>
+      </c>
       <c r="C962" s="10" t="s">
         <v>1056</v>
       </c>
@@ -30071,6 +30236,9 @@
       <c r="A963" s="10" t="s">
         <v>4007</v>
       </c>
+      <c r="B963" s="46" t="s">
+        <v>4019</v>
+      </c>
       <c r="C963" s="10" t="s">
         <v>1056</v>
       </c>
@@ -30082,11 +30250,259 @@
       <c r="A964" s="10" t="s">
         <v>4009</v>
       </c>
+      <c r="B964" s="32" t="s">
+        <v>4018</v>
+      </c>
       <c r="C964" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="D964" s="99" t="s">
         <v>4010</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A965" s="10" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B965" s="46" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C965" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D965" s="99" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A966" s="14" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B966" s="47" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C966" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D966" s="99" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A967" s="129" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B967" s="130" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C967" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D967" s="99" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A968" s="129" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B968" s="130" t="s">
+        <v>4024</v>
+      </c>
+      <c r="C968" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D968" s="99" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A969" s="129" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B969" s="130" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C969" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D969" s="99" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A970" s="10" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B970" s="46" t="s">
+        <v>4027</v>
+      </c>
+      <c r="C970" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D970" s="99" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A971" s="10" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B971" s="46" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C971" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D971" s="99" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A972" s="10" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B972" s="46" t="s">
+        <v>4033</v>
+      </c>
+      <c r="C972" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D972" s="99" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A973" s="10" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B973" s="46" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C973" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D973" s="99" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A974" s="129" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B974" s="130" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C974" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D974" s="99" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A975" s="10" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B975" s="32" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C975" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D975" s="99" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A976" s="10" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B976" s="32" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C976" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D976" s="99" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A977" s="10" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B977" s="46" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C977" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D977" s="99" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A978" s="10" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B978" s="46" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C978" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D978" s="99" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A979" s="10" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C979" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D979" s="99" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A980" s="10" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C980" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D980" s="99" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A981" s="10" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C981" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D981" s="99" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A982" s="10" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C982" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A983" s="10" t="s">
+        <v>4062</v>
+      </c>
+      <c r="C983" s="10" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -30097,160 +30513,160 @@
   <dataConsolidate/>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D958:D1048576 D916:D935 D732:D734 F666:F728 E536:E596 D1:D22 D24:D47 D49:D535 D738:D893 D895:D904 D906:D909">
-    <cfRule type="duplicateValues" dxfId="352" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A927:A1048576 A768:A878 A732:A734 A363:A364 A518:A535 A366:A516 A251:A361 A187:A249 A1:A185 A738:A752 A880:A925">
-    <cfRule type="duplicateValues" dxfId="351" priority="103"/>
+  <conditionalFormatting sqref="A927:A966 A768:A878 A732:A734 A363:A364 A518:A535 A366:A516 A251:A361 A187:A249 A1:A185 A738:A752 A880:A925 A970:A973 A975:A1048576">
+    <cfRule type="duplicateValues" dxfId="353" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A927:A1048576 A768:A878 A732:A734 A518:A535 A1:A516 A738:A752 A880:A925">
-    <cfRule type="duplicateValues" dxfId="350" priority="108"/>
+  <conditionalFormatting sqref="A927:A966 A768:A878 A732:A734 A518:A535 A1:A516 A738:A752 A880:A925 A970:A973 A975:A1048576">
+    <cfRule type="duplicateValues" dxfId="352" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A590:A596 A536:A537 A586 A569:A579 A552:A555 A557:A566 A539:A550">
-    <cfRule type="duplicateValues" dxfId="349" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A927:A1048576 A768:A878 A732:A734 A1:A596 A738:A752 A880:A925">
-    <cfRule type="duplicateValues" dxfId="348" priority="98"/>
+  <conditionalFormatting sqref="A927:A966 A768:A878 A732:A734 A1:A596 A738:A752 A880:A925 A970:A973 A975:A1048576">
+    <cfRule type="duplicateValues" dxfId="350" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A627:A629 A597:A625 A631:A636">
-    <cfRule type="duplicateValues" dxfId="347" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A626">
-    <cfRule type="duplicateValues" dxfId="346" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A631:A636 A597:A629">
-    <cfRule type="duplicateValues" dxfId="345" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D627:D636 D597:D608 D610:D625">
-    <cfRule type="duplicateValues" dxfId="344" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A927:A1048576 A768:A878 A732:A734 A1:A629 A631:A636 A738:A752 A880:A925">
-    <cfRule type="duplicateValues" dxfId="343" priority="84"/>
+  <conditionalFormatting sqref="A927:A966 A768:A878 A732:A734 A1:A629 A631:A636 A738:A752 A880:A925 A970:A973 A975:A1048576">
+    <cfRule type="duplicateValues" dxfId="345" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A927:A1048576 A768:A878 A732:A734 A738:A752 A880:A925">
-    <cfRule type="duplicateValues" dxfId="342" priority="76"/>
+  <conditionalFormatting sqref="A927:A966 A768:A878 A732:A734 A738:A752 A880:A925 A970:A973 A975:A1048576">
+    <cfRule type="duplicateValues" dxfId="344" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="341" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="340" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D958:D1048576 D916:D935 D732:D734 D1:D608 D610:D636 D738:D893 D895:D904 D906:D909">
-    <cfRule type="duplicateValues" dxfId="339" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="338" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="337" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A677:A679">
-    <cfRule type="duplicateValues" dxfId="336" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A697">
-    <cfRule type="duplicateValues" dxfId="335" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D677:D696">
-    <cfRule type="duplicateValues" dxfId="334" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D677:D696 D698:D709 D711:D716 D718:D719 D721">
-    <cfRule type="duplicateValues" dxfId="333" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A717">
-    <cfRule type="duplicateValues" dxfId="332" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A727">
-    <cfRule type="duplicateValues" dxfId="331" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A727">
-    <cfRule type="duplicateValues" dxfId="330" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A730:A731">
-    <cfRule type="duplicateValues" dxfId="329" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A730:A731">
-    <cfRule type="duplicateValues" dxfId="328" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737">
-    <cfRule type="duplicateValues" dxfId="327" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A735:A737">
-    <cfRule type="duplicateValues" dxfId="326" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A927:A1048576 A768:A878 A1:A752 A880:A925">
-    <cfRule type="duplicateValues" dxfId="325" priority="57"/>
+  <conditionalFormatting sqref="A927:A966 A768:A878 A1:A752 A880:A925 A970:A973 A975:A1048576">
+    <cfRule type="duplicateValues" dxfId="327" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="324" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="323" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="322" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="321" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="320" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="duplicateValues" dxfId="319" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="duplicateValues" dxfId="318" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="duplicateValues" dxfId="317" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="duplicateValues" dxfId="316" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="duplicateValues" dxfId="315" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="314" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="313" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="312" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="311" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="310" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A762:A763">
-    <cfRule type="duplicateValues" dxfId="309" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="308" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="307" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="306" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="305" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="304" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="duplicateValues" dxfId="303" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A927:A1048576 A880:A925 A1:A878">
-    <cfRule type="duplicateValues" dxfId="302" priority="1"/>
+  <conditionalFormatting sqref="A927:A966 A880:A925 A1:A878 A970:A973 A975:A1048576">
+    <cfRule type="duplicateValues" dxfId="304" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764:A766 A753:A761">
-    <cfRule type="duplicateValues" dxfId="301" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="404"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31115,31 +31531,31 @@
     <sortCondition ref="A2:A60"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="99" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="98" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="97" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="96" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="95" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="94" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="93" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="92" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="91" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31531,34 +31947,34 @@
     <sortCondition ref="A2:A26"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="90" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="89" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="88" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="87" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="86" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="85" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="84" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="83" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="82" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A26">
-    <cfRule type="duplicateValues" dxfId="81" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32108,232 +32524,232 @@
     <sortCondition ref="A2:A43"/>
   </sortState>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="80" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="79" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="78" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="77" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="76" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="75" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="74" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="73" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="72" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="71" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="70" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="69" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="68" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="67" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="66" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="65" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="64" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6">
-    <cfRule type="duplicateValues" dxfId="62" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="61" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="60" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="59" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="58" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="57" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6">
-    <cfRule type="duplicateValues" dxfId="56" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="55" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="54" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="52" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="51" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="50" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="49" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="48" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="47" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="46" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="45" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="43" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="42" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="41" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="40" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="39" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="38" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="37" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="34" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="33" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="32" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="31" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="28" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33519,14 +33935,14 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <conditionalFormatting sqref="C3:C13">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B8 A10:B10">
-    <cfRule type="duplicateValues" dxfId="1" priority="405"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="405"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35257,15 +35673,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>936</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
@@ -36475,7 +36891,7 @@
     <sortCondition ref="A2:A91"/>
   </sortState>
   <conditionalFormatting sqref="A1:A3 A90:A1048576 A57:A83 A53 A36:A46 A28:A33 A18:A21 A5:A16 A23:A26">
-    <cfRule type="duplicateValues" dxfId="300" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40047,43 +40463,43 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="duplicateValues" dxfId="299" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A30">
-    <cfRule type="duplicateValues" dxfId="298" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="duplicateValues" dxfId="297" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="duplicateValues" dxfId="296" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A44">
-    <cfRule type="duplicateValues" dxfId="295" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="294" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="293" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="292" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="291" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="290" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="289" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="duplicateValues" dxfId="288" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="287" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40847,28 +41263,28 @@
     <sortCondition ref="A2:A68"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="286" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="285" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="284" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="283" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="282" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="281" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="280" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A67 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="279" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41698,28 +42114,28 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="278" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="277" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="276" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="275" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A44">
-    <cfRule type="duplicateValues" dxfId="274" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="273" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C61 C63:C73">
-    <cfRule type="duplicateValues" dxfId="272" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="271" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42757,211 +43173,211 @@
     <sortCondition ref="A2:A73"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="270" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="269" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="268" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="267" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="266" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="265" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="264" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="263" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="262" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="261" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="260" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="259" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="258" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="257" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="256" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="255" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="254" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="253" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="252" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="251" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="250" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="249" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="248" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="247" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="246" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="245" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="244" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="243" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="242" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="241" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="240" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="239" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="238" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="237" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="236" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="235" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="duplicateValues" dxfId="234" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="duplicateValues" dxfId="233" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="duplicateValues" dxfId="232" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A48 A1:A44 A52:A53 A56 A61 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="231" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="230" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="229" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A1:A58 A63:A65 A67 A71:A1048576">
-    <cfRule type="duplicateValues" dxfId="228" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="227" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="226" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="225" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="224" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="223" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="222" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="221" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="220" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="219" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="218" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="217" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="216" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="215" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="214" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="213" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="212" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="211" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="210" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="209" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="208" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="207" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="206" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="205" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="204" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="203" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="202" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43871,253 +44287,253 @@
     <sortCondition ref="A2:A74"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="201" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="200" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="199" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="198" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="197" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="196" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="195" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="194" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="193" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="192" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="191" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="190" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="189" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="188" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="187" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="186" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="185" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="184" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="183" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="182" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="181" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="180" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="179" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="178" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="177" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="176" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="175" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="174" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="173" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="172" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="171" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="170" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="169" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="168" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="167" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="166" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="165" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="164" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="163" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="162" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="161" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="160" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A34 A38:A39 A41:A61 A64:A1048576">
-    <cfRule type="duplicateValues" dxfId="159" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="158" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="157" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="156" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="155" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="154" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="153" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="duplicateValues" dxfId="152" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="151" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="150" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="149" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="148" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="147" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="146" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="145" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="144" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="143" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="142" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="141" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="140" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="139" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="138" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="137" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="136" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="135" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="134" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="133" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="132" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="131" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="130" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="129" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="128" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="127" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="126" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="125" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="124" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="123" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="122" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="121" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="duplicateValues" dxfId="120" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="119" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44761,31 +45177,31 @@
     <sortCondition ref="A2:A44"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="118" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="117" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="116" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="115" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="114" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="113" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="112" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="111" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="110" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45676,34 +46092,34 @@
     <sortCondition ref="A2:A62"/>
   </sortState>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="109" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="108" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="107" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="106" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="105" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="104" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="103" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="102" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="101" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A1048576 A1:A62">
-    <cfRule type="duplicateValues" dxfId="100" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0E735D-986C-497D-9B1B-2EA5AA30F653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1D6D5-E24F-47BA-99BD-F8E1010028EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="2016" windowWidth="17304" windowHeight="8892" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7999" uniqueCount="4270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8005" uniqueCount="4274">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -13020,6 +13020,18 @@
   </si>
   <si>
     <t>KAZEVŽA</t>
+  </si>
+  <si>
+    <t>prisoner, captive</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>tieplikali</t>
+  </si>
+  <si>
+    <t>kalinad</t>
   </si>
 </sst>
 </file>
@@ -17351,11 +17363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:E1049"/>
+  <dimension ref="A1:E1051"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1037" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1050" sqref="A1050"/>
+      <pane ySplit="1" topLeftCell="A1034" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -32010,6 +32022,28 @@
       </c>
       <c r="D1049" s="10" t="s">
         <v>4268</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1050" s="9" t="s">
+        <v>4272</v>
+      </c>
+      <c r="C1050" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1050" s="10" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1051" s="9" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C1051" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1051" s="10" t="s">
+        <v>4271</v>
       </c>
     </row>
   </sheetData>
@@ -34012,7 +34046,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
         <v>3981</v>
       </c>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1D6D5-E24F-47BA-99BD-F8E1010028EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75D7E75-8140-4E87-A5FB-9EE137070719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8005" uniqueCount="4274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8055" uniqueCount="4312">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -13032,6 +13032,120 @@
   </si>
   <si>
     <t>kalinad</t>
+  </si>
+  <si>
+    <t>kolchiqitse'</t>
+  </si>
+  <si>
+    <t>to apologize (for)</t>
+  </si>
+  <si>
+    <t>kocholi</t>
+  </si>
+  <si>
+    <t>sedative</t>
+  </si>
+  <si>
+    <t>kochole'</t>
+  </si>
+  <si>
+    <t>to sedate</t>
+  </si>
+  <si>
+    <t>zhdazopi</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>zhdazope'</t>
+  </si>
+  <si>
+    <t>to protect</t>
+  </si>
+  <si>
+    <t>dzaqdievl</t>
+  </si>
+  <si>
+    <t>seizure</t>
+  </si>
+  <si>
+    <t>zachteve'</t>
+  </si>
+  <si>
+    <t>to revive</t>
+  </si>
+  <si>
+    <t>chakdievlnad</t>
+  </si>
+  <si>
+    <t>a "blank," one who can't be "seen" psionically</t>
+  </si>
+  <si>
+    <t>good fortune</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>fortunately</t>
+  </si>
+  <si>
+    <t>TĪṖIKALI</t>
+  </si>
+  <si>
+    <t>KALINAD</t>
+  </si>
+  <si>
+    <t>KOLĈIQIṮE'</t>
+  </si>
+  <si>
+    <t>KOĈOLI</t>
+  </si>
+  <si>
+    <t>KOĈOLE'</t>
+  </si>
+  <si>
+    <t>ŽAZOPI</t>
+  </si>
+  <si>
+    <t>ŽAZOPE'</t>
+  </si>
+  <si>
+    <t>DZAQDĪṾ</t>
+  </si>
+  <si>
+    <t>ZAĈTEVE'</t>
+  </si>
+  <si>
+    <t>ĈAKDĪṾNAD</t>
+  </si>
+  <si>
+    <t>yektaelyi</t>
+  </si>
+  <si>
+    <t>aelyi</t>
+  </si>
+  <si>
+    <t>YEKTAELYI</t>
+  </si>
+  <si>
+    <t>AELYI</t>
+  </si>
+  <si>
+    <t>YEKTAELYE</t>
+  </si>
+  <si>
+    <t>yektaelye</t>
+  </si>
+  <si>
+    <t>-sap</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>dull or tedious</t>
   </si>
 </sst>
 </file>
@@ -17363,11 +17477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:E1051"/>
+  <dimension ref="A1:E1063"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1034" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
+      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D582" sqref="D582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -32028,6 +32142,9 @@
       <c r="A1050" s="9" t="s">
         <v>4272</v>
       </c>
+      <c r="B1050" s="38" t="s">
+        <v>4293</v>
+      </c>
       <c r="C1050" s="9" t="s">
         <v>1056</v>
       </c>
@@ -32039,11 +32156,182 @@
       <c r="A1051" s="9" t="s">
         <v>4273</v>
       </c>
+      <c r="B1051" s="38" t="s">
+        <v>4294</v>
+      </c>
       <c r="C1051" s="9" t="s">
         <v>1056</v>
       </c>
       <c r="D1051" s="10" t="s">
         <v>4271</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1052" s="9" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B1052" s="38" t="s">
+        <v>4295</v>
+      </c>
+      <c r="C1052" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1052" s="10" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1053" s="9" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B1053" s="38" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C1053" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1053" s="10" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1054" s="9" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B1054" s="38" t="s">
+        <v>4297</v>
+      </c>
+      <c r="C1054" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1054" s="10" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1055" s="9" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B1055" s="38" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C1055" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1055" s="10" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1056" s="9" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B1056" s="38" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C1056" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1056" s="10" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1057" s="9" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B1057" s="38" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C1057" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1057" s="10" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1058" s="9" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B1058" s="38" t="s">
+        <v>4301</v>
+      </c>
+      <c r="C1058" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1058" s="10" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1059" s="9" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B1059" s="38" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C1059" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1059" s="10" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1060" s="9" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B1060" s="38" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C1060" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1060" s="10" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1061" s="9" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B1061" s="38" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C1061" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1061" s="10" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1062" s="9" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B1062" s="38" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C1062" s="9" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D1062" s="10" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1063" s="11" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B1063" s="38" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C1063" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1063" s="10" t="s">
+        <v>4311</v>
       </c>
     </row>
   </sheetData>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B92CF84-B488-469E-8652-42A3B2EFE280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E45268-663A-4BCB-A857-9D555BEF16D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1488" yWindow="1536" windowWidth="21552" windowHeight="8880" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="28680" yWindow="-11835" windowWidth="29040" windowHeight="15720" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lexicon" sheetId="2" r:id="rId1"/>
@@ -17657,8 +17657,8 @@
   <dimension ref="A1:E1082"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1003" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1007" sqref="B1007"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E45268-663A-4BCB-A857-9D555BEF16D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733B26AC-7150-443B-B0E6-2EF79E3093E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-11835" windowWidth="29040" windowHeight="15720" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8133" uniqueCount="4371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8154" uniqueCount="4385">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -13323,6 +13323,48 @@
   </si>
   <si>
     <t>skilled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yotlkemetnad</t>
+  </si>
+  <si>
+    <t>a family name meaning Machinist, Mechanic, or Smith</t>
+  </si>
+  <si>
+    <t>yoktli</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>tatli</t>
+  </si>
+  <si>
+    <t>ground, earth</t>
+  </si>
+  <si>
+    <t>chilotli</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>chilotle'</t>
+  </si>
+  <si>
+    <t>to make comfortable</t>
+  </si>
+  <si>
+    <t>paltile'</t>
+  </si>
+  <si>
+    <t>to comfort, to assuage</t>
+  </si>
+  <si>
+    <t>chilotla</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
 </sst>
 </file>
@@ -17654,11 +17696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:E1082"/>
+  <dimension ref="A1:E1089"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B306" sqref="B306"/>
+      <pane ySplit="1" topLeftCell="A1052" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1070" sqref="B1070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -32782,6 +32824,83 @@
       </c>
       <c r="D1082" s="10" t="s">
         <v>4370</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1083" s="9" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C1083" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1083" s="10" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1084" s="9" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C1084" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1084" s="10" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1085" s="9" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C1085" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1085" s="10" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1086" s="9" t="s">
+        <v>4377</v>
+      </c>
+      <c r="C1086" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1086" s="10" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1087" s="9" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C1087" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1087" s="10" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1088" s="9" t="s">
+        <v>4381</v>
+      </c>
+      <c r="C1088" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1088" s="10" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1089" s="9" t="s">
+        <v>4383</v>
+      </c>
+      <c r="C1089" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1089" s="10" t="s">
+        <v>4384</v>
       </c>
     </row>
   </sheetData>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffkazmierski/Documents/GitHub/Zdetl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABB535E-B78E-A140-BF28-4FFD16BF484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25587D5E-CB84-9F47-AE94-BC8031FE59EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9548" uniqueCount="5089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9717" uniqueCount="5195">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -15251,6 +15251,9 @@
     <t>Colors</t>
   </si>
   <si>
+    <t>as</t>
+  </si>
+  <si>
     <t>Single natural satellite of Zhdant. It is possible that Viepchakl, while being "natural" in the sense that it was not constructed, was not originally a satellite of Zhdant but was, in fact, placed there for some purpose during the time of the Ancients.</t>
   </si>
   <si>
@@ -15477,13 +15480,328 @@
   </si>
   <si>
     <t>literally, "Star Trek", a popular video drama series documenting the Core Expeditions</t>
+  </si>
+  <si>
+    <t>suffix indicating an item for military use, usually a weapon</t>
+  </si>
+  <si>
+    <t>-ine</t>
+  </si>
+  <si>
+    <t>INE</t>
+  </si>
+  <si>
+    <t>-ienz</t>
+  </si>
+  <si>
+    <t>eU</t>
+  </si>
+  <si>
+    <t>suffix indicating a thing for commercial use</t>
+  </si>
+  <si>
+    <t>-iabr</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>suffix indicating a generic item</t>
+  </si>
+  <si>
+    <t>suffix indicating an abstract state of being; usually translated as '-ment' or '-ity'</t>
+  </si>
+  <si>
+    <t>suffix indicating a concrete instance of something, when appended to a verb</t>
+  </si>
+  <si>
+    <t>-da</t>
+  </si>
+  <si>
+    <t>-ad</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>-sa</t>
+  </si>
+  <si>
+    <t>-as</t>
+  </si>
+  <si>
+    <t>-di</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>yonder, far away</t>
+  </si>
+  <si>
+    <t>above, better</t>
+  </si>
+  <si>
+    <t>in front of (chedle' - to guard, to stand in front of)</t>
+  </si>
+  <si>
+    <t>up to, as far as (but no farther)</t>
+  </si>
+  <si>
+    <t>on,</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>collective; about, near, concerning</t>
+  </si>
+  <si>
+    <t>by way of</t>
+  </si>
+  <si>
+    <t>with, along with</t>
+  </si>
+  <si>
+    <t>from (a place)</t>
+  </si>
+  <si>
+    <t>from (a person or thing)</t>
+  </si>
+  <si>
+    <t>in spite of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from </t>
+  </si>
+  <si>
+    <t>except for</t>
+  </si>
+  <si>
+    <t>because of, due to</t>
+  </si>
+  <si>
+    <t>at, for, against</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>to, in</t>
+  </si>
+  <si>
+    <t>-af</t>
+  </si>
+  <si>
+    <t>-che`</t>
+  </si>
+  <si>
+    <t>-chedl</t>
+  </si>
+  <si>
+    <t>-chrnt</t>
+  </si>
+  <si>
+    <t>-dliez</t>
+  </si>
+  <si>
+    <t>-enz</t>
+  </si>
+  <si>
+    <t>-flints</t>
+  </si>
+  <si>
+    <t>-'ia</t>
+  </si>
+  <si>
+    <t>-iash</t>
+  </si>
+  <si>
+    <t>-ir</t>
+  </si>
+  <si>
+    <t>-pratl</t>
+  </si>
+  <si>
+    <t>-prebr'</t>
+  </si>
+  <si>
+    <t>-pri'</t>
+  </si>
+  <si>
+    <t>-qaf</t>
+  </si>
+  <si>
+    <t>-qlets</t>
+  </si>
+  <si>
+    <t>-shtivl'</t>
+  </si>
+  <si>
+    <t>-tia</t>
+  </si>
+  <si>
+    <t>-tiaql</t>
+  </si>
+  <si>
+    <t>-tlieb</t>
+  </si>
+  <si>
+    <t>-zaf</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>CE`</t>
+  </si>
+  <si>
+    <t>Ced</t>
+  </si>
+  <si>
+    <t>Cw]</t>
+  </si>
+  <si>
+    <t>deZ</t>
+  </si>
+  <si>
+    <t>GI[</t>
+  </si>
+  <si>
+    <t>`a</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>oAt</t>
+  </si>
+  <si>
+    <t>oEn`</t>
+  </si>
+  <si>
+    <t>oI`</t>
+  </si>
+  <si>
+    <t>QAF</t>
+  </si>
+  <si>
+    <t>Weu</t>
+  </si>
+  <si>
+    <t>hIv`</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>TaW</t>
+  </si>
+  <si>
+    <t>teB</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -fraq   ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -fredr  ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -kekl   stale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -iensh  old </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -klie   slow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -med    clean </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -nie    ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -qapl   fresh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -riem   ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -shte   fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -tlas   large; great </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -zda    ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -zdo    dull</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -zdodl  dirty; unclean</t>
+  </si>
+  <si>
+    <t>small, lowly</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>large, great</t>
+  </si>
+  <si>
+    <t>dull</t>
+  </si>
+  <si>
+    <t>dirty or unclean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -atch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -davr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -dro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15757,6 +16075,12 @@
       <name val="Segoe UI Historic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -15849,7 +16173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -16068,12 +16392,23 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="631">
+  <dxfs count="632">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -22405,8 +22740,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="630"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="629"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="631"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="630"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22709,11 +23044,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:F1248"/>
+  <dimension ref="A1:F1293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1249" sqref="A1249"/>
+      <pane ySplit="1" topLeftCell="A1273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1280" sqref="A1280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -22753,7 +23088,7 @@
         <v>3581</v>
       </c>
       <c r="D2" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>2961</v>
@@ -22770,7 +23105,7 @@
         <v>3581</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3009</v>
@@ -22787,7 +23122,7 @@
         <v>3581</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3144</v>
@@ -22807,7 +23142,7 @@
         <v>4940</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>5068</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -22821,7 +23156,7 @@
         <v>3581</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>3243</v>
@@ -22838,7 +23173,7 @@
         <v>3581</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>3247</v>
@@ -22849,13 +23184,13 @@
         <v>3647</v>
       </c>
       <c r="B8" s="110" t="s">
-        <v>5069</v>
+        <v>5070</v>
       </c>
       <c r="C8" s="91" t="s">
         <v>3581</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E8" s="96" t="s">
         <v>3648</v>
@@ -22866,13 +23201,13 @@
         <v>3363</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>3581</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>3365</v>
@@ -22883,13 +23218,13 @@
         <v>3235</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>5071</v>
+        <v>5072</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>3581</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3170</v>
@@ -22906,7 +23241,7 @@
         <v>3581</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>2963</v>
@@ -22923,7 +23258,7 @@
         <v>3581</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2964</v>
@@ -22940,7 +23275,7 @@
         <v>3581</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>901</v>
@@ -22957,7 +23292,7 @@
         <v>3581</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>898</v>
@@ -22968,13 +23303,13 @@
         <v>3462</v>
       </c>
       <c r="B15" s="108" t="s">
-        <v>5072</v>
+        <v>5073</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>3581</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>3463</v>
@@ -22985,13 +23320,13 @@
         <v>3366</v>
       </c>
       <c r="B16" s="108" t="s">
-        <v>5073</v>
+        <v>5074</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>3581</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>3368</v>
@@ -23008,7 +23343,7 @@
         <v>3581</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1062</v>
@@ -23025,7 +23360,7 @@
         <v>3581</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>1210</v>
@@ -23036,13 +23371,13 @@
         <v>3650</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>5074</v>
+        <v>5075</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>3581</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>3649</v>
@@ -23059,7 +23394,7 @@
         <v>3581</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3174</v>
@@ -23070,13 +23405,13 @@
         <v>3498</v>
       </c>
       <c r="B21" s="108" t="s">
-        <v>5075</v>
+        <v>5076</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>3581</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>3500</v>
@@ -23093,7 +23428,7 @@
         <v>3581</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>1212</v>
@@ -23110,7 +23445,7 @@
         <v>3581</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3142</v>
@@ -23127,7 +23462,7 @@
         <v>3581</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>4207</v>
@@ -23144,7 +23479,7 @@
         <v>3581</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>899</v>
@@ -23155,13 +23490,13 @@
         <v>3139</v>
       </c>
       <c r="B26" s="107" t="s">
-        <v>5076</v>
+        <v>5077</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>3581</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>3138</v>
@@ -23178,7 +23513,7 @@
         <v>3581</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3169</v>
@@ -23195,7 +23530,7 @@
         <v>3581</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>1218</v>
@@ -23212,7 +23547,7 @@
         <v>3581</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>3244</v>
@@ -23229,7 +23564,7 @@
         <v>3581</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>900</v>
@@ -23246,7 +23581,7 @@
         <v>3581</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>3177</v>
@@ -23263,7 +23598,7 @@
         <v>3581</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>2960</v>
@@ -23591,7 +23926,7 @@
         <v>1056</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>3940</v>
@@ -23678,7 +24013,7 @@
         <v>2358</v>
       </c>
       <c r="B59" s="111" t="s">
-        <v>5042</v>
+        <v>5043</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>1056</v>
@@ -23714,7 +24049,7 @@
         <v>1376</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E61" s="63" t="s">
         <v>1653</v>
@@ -23746,7 +24081,7 @@
         <v>1056</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>3962</v>
@@ -24058,7 +24393,7 @@
         <v>1376</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E83" s="63" t="s">
         <v>1285</v>
@@ -24137,7 +24472,7 @@
         <v>1376</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E88" s="63" t="s">
         <v>1286</v>
@@ -24203,7 +24538,7 @@
         <v>1376</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E92" s="63" t="s">
         <v>1504</v>
@@ -24989,7 +25324,7 @@
         <v>2437</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>3469</v>
@@ -25299,7 +25634,7 @@
         <v>101</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E162" s="13" t="s">
         <v>2395</v>
@@ -25363,7 +25698,7 @@
         <v>2437</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E166" s="63" t="s">
         <v>1215</v>
@@ -25397,7 +25732,7 @@
         <v>1056</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E168" s="13" t="s">
         <v>53</v>
@@ -25511,7 +25846,7 @@
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="63" t="s">
-        <v>5065</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -25602,7 +25937,7 @@
         <v>2437</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E181" s="63" t="s">
         <v>1284</v>
@@ -25634,7 +25969,7 @@
         <v>1056</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>5066</v>
+        <v>5067</v>
       </c>
       <c r="E183" s="13" t="s">
         <v>1129</v>
@@ -25651,7 +25986,7 @@
         <v>1056</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>5067</v>
+        <v>5068</v>
       </c>
       <c r="E184" s="13" t="s">
         <v>776</v>
@@ -26031,7 +26366,7 @@
         <v>1376</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E208" s="63" t="s">
         <v>2795</v>
@@ -26762,7 +27097,7 @@
         <v>2467</v>
       </c>
       <c r="D256" s="91" t="s">
-        <v>5083</v>
+        <v>5084</v>
       </c>
       <c r="E256" s="96" t="s">
         <v>1453</v>
@@ -26923,7 +27258,7 @@
       </c>
       <c r="D266" s="91"/>
       <c r="E266" s="96" t="s">
-        <v>5044</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -26952,7 +27287,7 @@
         <v>1376</v>
       </c>
       <c r="D268" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E268" s="95" t="s">
         <v>1501</v>
@@ -26987,7 +27322,7 @@
         <v>5006</v>
       </c>
       <c r="E270" s="96" t="s">
-        <v>5043</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -27377,7 +27712,7 @@
         <v>1056</v>
       </c>
       <c r="D295" s="91" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E295" s="10" t="s">
         <v>2410</v>
@@ -27422,7 +27757,7 @@
         <v>1056</v>
       </c>
       <c r="D298" s="91" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>38</v>
@@ -27439,7 +27774,7 @@
         <v>1056</v>
       </c>
       <c r="D299" s="92" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>1224</v>
@@ -27456,7 +27791,7 @@
         <v>1056</v>
       </c>
       <c r="D300" s="91" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E300" s="3" t="s">
         <v>1233</v>
@@ -27473,7 +27808,7 @@
         <v>1056</v>
       </c>
       <c r="D301" s="102" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E301" s="3" t="s">
         <v>1280</v>
@@ -27490,7 +27825,7 @@
         <v>1056</v>
       </c>
       <c r="D302" s="91" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E302" s="10" t="s">
         <v>2413</v>
@@ -27757,7 +28092,7 @@
         <v>1376</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>1709</v>
@@ -27806,7 +28141,7 @@
         <v>101</v>
       </c>
       <c r="D322" s="91" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E322" s="10" t="s">
         <v>3024</v>
@@ -27838,7 +28173,7 @@
         <v>101</v>
       </c>
       <c r="D324" s="91" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E324" s="10" t="s">
         <v>3261</v>
@@ -27873,7 +28208,7 @@
         <v>5006</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>5047</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -27920,7 +28255,7 @@
       </c>
       <c r="D329" s="91"/>
       <c r="E329" s="10" t="s">
-        <v>5045</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="32">
@@ -27934,7 +28269,7 @@
         <v>1056</v>
       </c>
       <c r="E330" s="10" t="s">
-        <v>5046</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -28008,10 +28343,10 @@
         <v>1056</v>
       </c>
       <c r="D335" s="91" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>5048</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -28084,7 +28419,7 @@
         <v>2437</v>
       </c>
       <c r="D340" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E340" s="10" t="s">
         <v>3467</v>
@@ -28101,7 +28436,7 @@
         <v>2437</v>
       </c>
       <c r="D341" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E341" s="10" t="s">
         <v>3770</v>
@@ -28191,10 +28526,10 @@
         <v>1056</v>
       </c>
       <c r="D347" s="91" t="s">
-        <v>5058</v>
+        <v>5059</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>5049</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="32">
@@ -28208,10 +28543,10 @@
         <v>1056</v>
       </c>
       <c r="D348" s="91" t="s">
-        <v>5058</v>
+        <v>5059</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>5050</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="32">
@@ -28225,24 +28560,24 @@
         <v>1056</v>
       </c>
       <c r="D349" s="91" t="s">
-        <v>5058</v>
+        <v>5059</v>
       </c>
       <c r="E349" s="10" t="s">
-        <v>5051</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="9" t="s">
-        <v>5033</v>
+        <v>5034</v>
       </c>
       <c r="B350" s="111" t="s">
-        <v>5034</v>
+        <v>5035</v>
       </c>
       <c r="C350" s="14" t="s">
         <v>1056</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>5035</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -28256,7 +28591,7 @@
         <v>1056</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>5052</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -28285,7 +28620,7 @@
         <v>2437</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E353" s="10" t="s">
         <v>3528</v>
@@ -28317,10 +28652,10 @@
         <v>1056</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>5058</v>
+        <v>5059</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>5053</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -28382,7 +28717,7 @@
         <v>5007</v>
       </c>
       <c r="E359" s="10" t="s">
-        <v>5054</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -28429,7 +28764,7 @@
         <v>5006</v>
       </c>
       <c r="E362" s="10" t="s">
-        <v>5055</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -28473,7 +28808,7 @@
         <v>1056</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>5057</v>
+        <v>5058</v>
       </c>
       <c r="E365" s="10" t="s">
         <v>614</v>
@@ -28490,7 +28825,7 @@
         <v>1056</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>5057</v>
+        <v>5058</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>1282</v>
@@ -28554,7 +28889,7 @@
         <v>101</v>
       </c>
       <c r="D370" s="91" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E370" s="10" t="s">
         <v>3072</v>
@@ -28684,7 +29019,7 @@
         <v>1056</v>
       </c>
       <c r="D378" s="91" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E378" s="10" t="s">
         <v>3921</v>
@@ -28701,7 +29036,7 @@
         <v>1056</v>
       </c>
       <c r="D379" s="91" t="s">
-        <v>5057</v>
+        <v>5058</v>
       </c>
       <c r="E379" s="10" t="s">
         <v>2423</v>
@@ -28735,7 +29070,7 @@
         <v>1056</v>
       </c>
       <c r="D381" s="91" t="s">
-        <v>5057</v>
+        <v>5058</v>
       </c>
       <c r="E381" s="10" t="s">
         <v>2428</v>
@@ -28784,7 +29119,7 @@
         <v>101</v>
       </c>
       <c r="D384" s="91" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E384" s="42" t="s">
         <v>2363</v>
@@ -28831,7 +29166,7 @@
         <v>2437</v>
       </c>
       <c r="D387" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>2959</v>
@@ -28923,7 +29258,7 @@
         <v>1376</v>
       </c>
       <c r="D393" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>1499</v>
@@ -29346,7 +29681,7 @@
         <v>1376</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>1753</v>
@@ -29467,7 +29802,7 @@
         <v>1376</v>
       </c>
       <c r="D428" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E428" s="10" t="s">
         <v>1560</v>
@@ -30112,7 +30447,7 @@
         <v>1376</v>
       </c>
       <c r="D471" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E471" s="3" t="s">
         <v>2825</v>
@@ -30479,7 +30814,7 @@
         <v>2437</v>
       </c>
       <c r="D495" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E495" s="3" t="s">
         <v>3145</v>
@@ -31947,7 +32282,7 @@
         <v>1376</v>
       </c>
       <c r="D594" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E594" s="10" t="s">
         <v>1571</v>
@@ -32357,7 +32692,7 @@
         <v>2467</v>
       </c>
       <c r="D622" s="9" t="s">
-        <v>5083</v>
+        <v>5084</v>
       </c>
       <c r="E622" s="10" t="s">
         <v>1454</v>
@@ -33293,7 +33628,7 @@
         <v>1376</v>
       </c>
       <c r="D688" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E688" s="3" t="s">
         <v>2678</v>
@@ -33635,7 +33970,7 @@
         <v>1376</v>
       </c>
       <c r="D712" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E712" s="3" t="s">
         <v>1518</v>
@@ -33680,7 +34015,7 @@
         <v>101</v>
       </c>
       <c r="D715" s="9" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E715" s="10" t="s">
         <v>3262</v>
@@ -34215,7 +34550,7 @@
         <v>1376</v>
       </c>
       <c r="D752" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E752" s="3" t="s">
         <v>2515</v>
@@ -34595,7 +34930,7 @@
         <v>101</v>
       </c>
       <c r="D778" s="9" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E778" s="10" t="s">
         <v>888</v>
@@ -34612,7 +34947,7 @@
         <v>101</v>
       </c>
       <c r="D779" s="9" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E779" s="10" t="s">
         <v>885</v>
@@ -34846,7 +35181,7 @@
         <v>101</v>
       </c>
       <c r="D795" s="9" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E795" s="42" t="s">
         <v>882</v>
@@ -34914,7 +35249,7 @@
         <v>1056</v>
       </c>
       <c r="E799" s="10" t="s">
-        <v>5059</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="800" spans="1:5" ht="32">
@@ -34928,7 +35263,7 @@
         <v>1056</v>
       </c>
       <c r="E800" s="10" t="s">
-        <v>5060</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="801" spans="1:5">
@@ -34956,7 +35291,7 @@
         <v>1056</v>
       </c>
       <c r="E802" s="10" t="s">
-        <v>5061</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -34979,13 +35314,13 @@
         <v>302</v>
       </c>
       <c r="B804" s="111" t="s">
-        <v>5064</v>
+        <v>5065</v>
       </c>
       <c r="C804" s="9" t="s">
         <v>1056</v>
       </c>
       <c r="E804" s="10" t="s">
-        <v>5062</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="805" spans="1:5">
@@ -35013,7 +35348,7 @@
         <v>1056</v>
       </c>
       <c r="E806" s="10" t="s">
-        <v>5063</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="807" spans="1:5" ht="32">
@@ -35745,7 +36080,7 @@
         <v>2437</v>
       </c>
       <c r="D858" s="91" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="E858" s="10" t="s">
         <v>3362</v>
@@ -35790,7 +36125,7 @@
         <v>2467</v>
       </c>
       <c r="D861" s="9" t="s">
-        <v>5083</v>
+        <v>5084</v>
       </c>
       <c r="E861" s="10" t="s">
         <v>1455</v>
@@ -36069,7 +36404,7 @@
         <v>101</v>
       </c>
       <c r="D881" s="9" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E881" s="42" t="s">
         <v>883</v>
@@ -36471,7 +36806,7 @@
         <v>1376</v>
       </c>
       <c r="D909" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E909" s="3" t="s">
         <v>2609</v>
@@ -36984,7 +37319,7 @@
         <v>1064</v>
       </c>
       <c r="E945" s="3" t="s">
-        <v>5037</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="946" spans="1:5">
@@ -37032,7 +37367,7 @@
         <v>1064</v>
       </c>
       <c r="E948" s="3" t="s">
-        <v>5036</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="949" spans="1:5">
@@ -38357,7 +38692,7 @@
         <v>1376</v>
       </c>
       <c r="D1042" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E1042" s="3" t="s">
         <v>1705</v>
@@ -38643,7 +38978,7 @@
         <v>1056</v>
       </c>
       <c r="E1062" s="10" t="s">
-        <v>5016</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="1063" spans="1:5">
@@ -38846,7 +39181,7 @@
         <v>1057</v>
       </c>
       <c r="E1075" s="42" t="s">
-        <v>5015</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="1076" spans="1:5">
@@ -38933,7 +39268,7 @@
         <v>1376</v>
       </c>
       <c r="D1081" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E1081" s="3" t="s">
         <v>1502</v>
@@ -38983,7 +39318,7 @@
     </row>
     <row r="1085" spans="1:5">
       <c r="A1085" s="9" t="s">
-        <v>5032</v>
+        <v>5033</v>
       </c>
       <c r="B1085" s="111" t="s">
         <v>2046</v>
@@ -39037,7 +39372,7 @@
         <v>5006</v>
       </c>
       <c r="E1088" s="10" t="s">
-        <v>5031</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="1089" spans="1:5">
@@ -39102,7 +39437,7 @@
         <v>5006</v>
       </c>
       <c r="E1092" s="10" t="s">
-        <v>5013</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="1093" spans="1:5" ht="32">
@@ -39116,7 +39451,7 @@
         <v>1056</v>
       </c>
       <c r="E1093" s="42" t="s">
-        <v>5030</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="1094" spans="1:5">
@@ -39133,7 +39468,7 @@
         <v>5011</v>
       </c>
       <c r="E1094" s="10" t="s">
-        <v>5014</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="1095" spans="1:5">
@@ -39150,7 +39485,7 @@
         <v>5002</v>
       </c>
       <c r="E1095" s="10" t="s">
-        <v>5029</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="1096" spans="1:5" ht="32">
@@ -39164,7 +39499,7 @@
         <v>1056</v>
       </c>
       <c r="E1096" s="10" t="s">
-        <v>5028</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="1097" spans="1:5">
@@ -39178,7 +39513,7 @@
         <v>1056</v>
       </c>
       <c r="E1097" s="10" t="s">
-        <v>5027</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="1098" spans="1:5">
@@ -39206,7 +39541,7 @@
         <v>1056</v>
       </c>
       <c r="E1099" s="10" t="s">
-        <v>5026</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="1100" spans="1:5" ht="32">
@@ -39220,7 +39555,7 @@
         <v>1056</v>
       </c>
       <c r="E1100" s="10" t="s">
-        <v>5025</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="1101" spans="1:5">
@@ -39234,7 +39569,7 @@
         <v>1056</v>
       </c>
       <c r="E1101" s="10" t="s">
-        <v>5023</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="32">
@@ -39248,7 +39583,7 @@
         <v>1056</v>
       </c>
       <c r="E1102" s="10" t="s">
-        <v>5024</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="1103" spans="1:5">
@@ -39276,12 +39611,12 @@
         <v>1056</v>
       </c>
       <c r="E1104" s="10" t="s">
-        <v>5017</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="1105" spans="1:5">
       <c r="A1105" s="9" t="s">
-        <v>5020</v>
+        <v>5021</v>
       </c>
       <c r="B1105" s="111" t="s">
         <v>3892</v>
@@ -39304,7 +39639,7 @@
         <v>1056</v>
       </c>
       <c r="E1106" s="10" t="s">
-        <v>5018</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="1107" spans="1:5">
@@ -39326,7 +39661,7 @@
     </row>
     <row r="1108" spans="1:5">
       <c r="A1108" s="9" t="s">
-        <v>5019</v>
+        <v>5020</v>
       </c>
       <c r="B1108" s="111" t="s">
         <v>3889</v>
@@ -39340,7 +39675,7 @@
     </row>
     <row r="1109" spans="1:5">
       <c r="A1109" s="9" t="s">
-        <v>5022</v>
+        <v>5023</v>
       </c>
       <c r="B1109" s="111" t="s">
         <v>3886</v>
@@ -39368,7 +39703,7 @@
     </row>
     <row r="1111" spans="1:5">
       <c r="A1111" s="9" t="s">
-        <v>5021</v>
+        <v>5022</v>
       </c>
       <c r="B1111" s="111" t="s">
         <v>4461</v>
@@ -39655,7 +39990,7 @@
         <v>2467</v>
       </c>
       <c r="D1130" s="9" t="s">
-        <v>5083</v>
+        <v>5084</v>
       </c>
       <c r="E1130" s="10" t="s">
         <v>1456</v>
@@ -39700,7 +40035,7 @@
         <v>1064</v>
       </c>
       <c r="D1133" s="9" t="s">
-        <v>5083</v>
+        <v>5084</v>
       </c>
       <c r="E1133" s="10" t="s">
         <v>1474</v>
@@ -40125,7 +40460,7 @@
         <v>1056</v>
       </c>
       <c r="D1162" s="14" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1162" s="13" t="s">
         <v>592</v>
@@ -40215,7 +40550,7 @@
         <v>2467</v>
       </c>
       <c r="D1168" s="9" t="s">
-        <v>5083</v>
+        <v>5084</v>
       </c>
       <c r="E1168" s="10" t="s">
         <v>1451</v>
@@ -40246,7 +40581,7 @@
         <v>1064</v>
       </c>
       <c r="D1170" s="9" t="s">
-        <v>5083</v>
+        <v>5084</v>
       </c>
       <c r="E1170" s="10" t="s">
         <v>1459</v>
@@ -40277,10 +40612,10 @@
         <v>1056</v>
       </c>
       <c r="D1172" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1172" s="10" t="s">
-        <v>5084</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="1173" spans="1:5">
@@ -40432,7 +40767,7 @@
         <v>1056</v>
       </c>
       <c r="D1182" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1182" s="10" t="s">
         <v>3237</v>
@@ -40528,7 +40863,7 @@
         <v>5011</v>
       </c>
       <c r="E1188" s="10" t="s">
-        <v>5040</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="1189" spans="1:5">
@@ -40542,7 +40877,7 @@
         <v>1056</v>
       </c>
       <c r="D1189" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1189" s="10" t="s">
         <v>3958</v>
@@ -40562,7 +40897,7 @@
         <v>5011</v>
       </c>
       <c r="E1190" s="10" t="s">
-        <v>5085</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="1191" spans="1:5">
@@ -40740,7 +41075,7 @@
         <v>1056</v>
       </c>
       <c r="D1201" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1201" s="10" t="s">
         <v>530</v>
@@ -40757,7 +41092,7 @@
         <v>1056</v>
       </c>
       <c r="D1202" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1202" s="10" t="s">
         <v>529</v>
@@ -40791,7 +41126,7 @@
         <v>1056</v>
       </c>
       <c r="D1204" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1204" s="10" t="s">
         <v>593</v>
@@ -40887,7 +41222,7 @@
         <v>1376</v>
       </c>
       <c r="D1210" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E1210" s="3" t="s">
         <v>2513</v>
@@ -40918,7 +41253,7 @@
         <v>1376</v>
       </c>
       <c r="D1212" s="14" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E1212" s="3" t="s">
         <v>2550</v>
@@ -40966,7 +41301,7 @@
         <v>1056</v>
       </c>
       <c r="D1215" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1215" s="10" t="s">
         <v>3931</v>
@@ -40997,10 +41332,10 @@
         <v>1056</v>
       </c>
       <c r="D1217" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1217" s="42" t="s">
-        <v>5082</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1218" spans="1:5">
@@ -41014,10 +41349,10 @@
         <v>1056</v>
       </c>
       <c r="D1218" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1218" s="10" t="s">
-        <v>5081</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="1219" spans="1:5">
@@ -41062,7 +41397,7 @@
         <v>1056</v>
       </c>
       <c r="D1221" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1221" s="10" t="s">
         <v>629</v>
@@ -41093,7 +41428,7 @@
         <v>1056</v>
       </c>
       <c r="D1223" s="9" t="s">
-        <v>5038</v>
+        <v>5039</v>
       </c>
       <c r="E1223" s="10" t="s">
         <v>1183</v>
@@ -41110,7 +41445,7 @@
         <v>1056</v>
       </c>
       <c r="D1224" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1224" s="10" t="s">
         <v>68</v>
@@ -41127,7 +41462,7 @@
         <v>1056</v>
       </c>
       <c r="D1225" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1225" s="3" t="s">
         <v>1230</v>
@@ -41144,7 +41479,7 @@
         <v>1056</v>
       </c>
       <c r="D1226" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1226" s="3" t="s">
         <v>1242</v>
@@ -41195,7 +41530,7 @@
         <v>1056</v>
       </c>
       <c r="D1229" s="9" t="s">
-        <v>5079</v>
+        <v>5080</v>
       </c>
       <c r="E1229" s="10" t="s">
         <v>2896</v>
@@ -41274,7 +41609,7 @@
         <v>1056</v>
       </c>
       <c r="D1234" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1234" s="10" t="s">
         <v>4233</v>
@@ -41291,7 +41626,7 @@
         <v>1064</v>
       </c>
       <c r="D1235" s="9" t="s">
-        <v>5078</v>
+        <v>5079</v>
       </c>
       <c r="E1235" s="10" t="s">
         <v>4250</v>
@@ -41308,7 +41643,7 @@
         <v>1056</v>
       </c>
       <c r="D1236" s="9" t="s">
-        <v>5078</v>
+        <v>5079</v>
       </c>
       <c r="E1236" s="10" t="s">
         <v>4252</v>
@@ -41325,7 +41660,7 @@
         <v>1056</v>
       </c>
       <c r="D1237" s="9" t="s">
-        <v>5078</v>
+        <v>5079</v>
       </c>
       <c r="E1237" s="127" t="s">
         <v>4244</v>
@@ -41342,7 +41677,7 @@
         <v>1056</v>
       </c>
       <c r="D1238" s="9" t="s">
-        <v>5078</v>
+        <v>5079</v>
       </c>
       <c r="E1238" s="10" t="s">
         <v>4255</v>
@@ -41359,7 +41694,7 @@
         <v>1056</v>
       </c>
       <c r="D1239" s="9" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="E1239" s="3" t="s">
         <v>1271</v>
@@ -41376,7 +41711,7 @@
         <v>1376</v>
       </c>
       <c r="D1240" s="9" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="E1240" s="3" t="s">
         <v>2568</v>
@@ -41384,7 +41719,7 @@
     </row>
     <row r="1241" spans="1:5" ht="32">
       <c r="A1241" s="9" t="s">
-        <v>5077</v>
+        <v>5078</v>
       </c>
       <c r="B1241" s="111" t="s">
         <v>1976</v>
@@ -41489,10 +41824,10 @@
     </row>
     <row r="1248" spans="1:5">
       <c r="A1248" s="9" t="s">
-        <v>5086</v>
+        <v>5087</v>
       </c>
       <c r="B1248" s="111" t="s">
-        <v>5087</v>
+        <v>5088</v>
       </c>
       <c r="C1248" s="9" t="s">
         <v>1056</v>
@@ -41501,57 +41836,656 @@
         <v>5011</v>
       </c>
       <c r="E1248" s="10" t="s">
-        <v>5088</v>
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5">
+      <c r="A1249" s="100" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B1249" s="111" t="s">
+        <v>5104</v>
+      </c>
+      <c r="C1249" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1249" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1249" s="10" t="s">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5">
+      <c r="A1250" s="100" t="s">
+        <v>5102</v>
+      </c>
+      <c r="B1250" s="111" t="s">
+        <v>5103</v>
+      </c>
+      <c r="C1250" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1250" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1250" s="10" t="s">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5">
+      <c r="A1251" s="100" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B1251" s="111" t="s">
+        <v>5108</v>
+      </c>
+      <c r="C1251" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1251" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1251" s="10" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5">
+      <c r="A1252" s="100" t="s">
+        <v>5105</v>
+      </c>
+      <c r="B1252" s="111" t="s">
+        <v>5109</v>
+      </c>
+      <c r="C1252" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1252" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1252" s="10" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5">
+      <c r="A1253" s="100" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B1253" s="111" t="s">
+        <v>5110</v>
+      </c>
+      <c r="C1253" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1253" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1253" s="10" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5">
+      <c r="A1254" s="100" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B1254" s="111" t="s">
+        <v>5097</v>
+      </c>
+      <c r="C1254" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1254" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1254" s="10" t="s">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5">
+      <c r="A1255" s="100" t="s">
+        <v>5093</v>
+      </c>
+      <c r="B1255" s="111" t="s">
+        <v>5094</v>
+      </c>
+      <c r="C1255" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1255" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1255" s="10" t="s">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5">
+      <c r="A1256" s="100" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B1256" s="111" t="s">
+        <v>5092</v>
+      </c>
+      <c r="C1256" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1256" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1256" s="10" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5">
+      <c r="A1257" s="100" t="s">
+        <v>5130</v>
+      </c>
+      <c r="B1257" s="111" t="s">
+        <v>5150</v>
+      </c>
+      <c r="C1257" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1257" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1257" s="10" t="s">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5">
+      <c r="A1258" s="100" t="s">
+        <v>5131</v>
+      </c>
+      <c r="B1258" s="111" t="s">
+        <v>5151</v>
+      </c>
+      <c r="C1258" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1258" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1258" s="10" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5">
+      <c r="A1259" s="100" t="s">
+        <v>5132</v>
+      </c>
+      <c r="B1259" s="111" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C1259" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1259" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1259" s="10" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5">
+      <c r="A1260" s="100" t="s">
+        <v>5133</v>
+      </c>
+      <c r="B1260" s="111" t="s">
+        <v>5153</v>
+      </c>
+      <c r="C1260" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1260" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1260" s="10" t="s">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5">
+      <c r="A1261" s="100" t="s">
+        <v>5134</v>
+      </c>
+      <c r="B1261" s="111" t="s">
+        <v>5154</v>
+      </c>
+      <c r="C1261" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1261" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1261" s="10" t="s">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5">
+      <c r="A1262" s="100" t="s">
+        <v>5135</v>
+      </c>
+      <c r="B1262" s="111" t="s">
+        <v>5094</v>
+      </c>
+      <c r="C1262" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1262" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1262" s="10" t="s">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5">
+      <c r="A1263" s="100" t="s">
+        <v>5136</v>
+      </c>
+      <c r="B1263" s="111" t="s">
+        <v>5155</v>
+      </c>
+      <c r="C1263" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1263" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1263" s="10" t="s">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5">
+      <c r="A1264" s="100" t="s">
+        <v>5137</v>
+      </c>
+      <c r="B1264" s="111" t="s">
+        <v>5156</v>
+      </c>
+      <c r="C1264" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1264" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1264" s="10" t="s">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5">
+      <c r="A1265" s="100" t="s">
+        <v>5138</v>
+      </c>
+      <c r="B1265" s="111" t="s">
+        <v>5013</v>
+      </c>
+      <c r="C1265" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1265" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1265" s="10" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5">
+      <c r="A1266" s="100" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B1266" s="111" t="s">
+        <v>5157</v>
+      </c>
+      <c r="C1266" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1266" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1266" s="10" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5">
+      <c r="A1267" s="100" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B1267" s="111" t="s">
+        <v>5158</v>
+      </c>
+      <c r="C1267" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1267" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1267" s="10" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5">
+      <c r="A1268" s="100" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B1268" s="111" t="s">
+        <v>5159</v>
+      </c>
+      <c r="C1268" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1268" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1268" s="10" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5">
+      <c r="A1269" s="100" t="s">
+        <v>5142</v>
+      </c>
+      <c r="B1269" s="111" t="s">
+        <v>5160</v>
+      </c>
+      <c r="C1269" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1269" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1269" s="10" t="s">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5">
+      <c r="A1270" s="100" t="s">
+        <v>5143</v>
+      </c>
+      <c r="B1270" s="111" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C1270" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1270" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1270" s="10" t="s">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5">
+      <c r="A1271" s="100" t="s">
+        <v>5144</v>
+      </c>
+      <c r="B1271" s="111" t="s">
+        <v>5162</v>
+      </c>
+      <c r="C1271" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1271" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1271" s="10" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5">
+      <c r="A1272" s="100" t="s">
+        <v>5145</v>
+      </c>
+      <c r="B1272" s="111" t="s">
+        <v>5163</v>
+      </c>
+      <c r="C1272" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1272" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1272" s="10" t="s">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5">
+      <c r="A1273" s="100" t="s">
+        <v>5146</v>
+      </c>
+      <c r="B1273" s="111" t="s">
+        <v>5164</v>
+      </c>
+      <c r="C1273" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1273" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1273" s="10" t="s">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5">
+      <c r="A1274" s="100" t="s">
+        <v>5147</v>
+      </c>
+      <c r="B1274" s="111" t="s">
+        <v>5165</v>
+      </c>
+      <c r="C1274" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1274" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1274" s="10" t="s">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5">
+      <c r="A1275" s="100" t="s">
+        <v>5148</v>
+      </c>
+      <c r="B1275" s="111" t="s">
+        <v>5166</v>
+      </c>
+      <c r="C1275" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1275" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1275" s="10" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5">
+      <c r="A1276" s="100" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B1276" s="111" t="s">
+        <v>5167</v>
+      </c>
+      <c r="C1276" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1276" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1276" s="10" t="s">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" ht="17">
+      <c r="A1277" s="128" t="s">
+        <v>5192</v>
+      </c>
+      <c r="E1277" s="10" t="s">
+        <v>5182</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" ht="17">
+      <c r="A1278" s="128" t="s">
+        <v>5193</v>
+      </c>
+      <c r="E1278" s="10" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" ht="17">
+      <c r="A1279" s="128" t="s">
+        <v>5194</v>
+      </c>
+      <c r="E1279" s="10" t="s">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" ht="17">
+      <c r="A1280" s="128" t="s">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" ht="17">
+      <c r="A1281" s="128" t="s">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" ht="17">
+      <c r="A1282" s="128" t="s">
+        <v>5170</v>
+      </c>
+      <c r="E1282" s="10" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" ht="17">
+      <c r="A1283" s="128" t="s">
+        <v>5171</v>
+      </c>
+      <c r="E1283" s="10" t="s">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" ht="17">
+      <c r="A1284" s="128" t="s">
+        <v>5172</v>
+      </c>
+      <c r="E1284" s="10" t="s">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" ht="17">
+      <c r="A1285" s="128" t="s">
+        <v>5173</v>
+      </c>
+      <c r="E1285" s="10" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" ht="17">
+      <c r="A1286" s="128" t="s">
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" ht="17">
+      <c r="A1287" s="128" t="s">
+        <v>5175</v>
+      </c>
+      <c r="E1287" s="10" t="s">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" ht="17">
+      <c r="A1288" s="128" t="s">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" ht="17">
+      <c r="A1289" s="128" t="s">
+        <v>5177</v>
+      </c>
+      <c r="E1289" s="10" t="s">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" ht="17">
+      <c r="A1290" s="128" t="s">
+        <v>5178</v>
+      </c>
+      <c r="E1290" s="10" t="s">
+        <v>5189</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" ht="17">
+      <c r="A1291" s="128" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" ht="17">
+      <c r="A1292" s="128" t="s">
+        <v>5180</v>
+      </c>
+      <c r="E1292" s="10" t="s">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" ht="17">
+      <c r="A1293" s="128" t="s">
+        <v>5181</v>
+      </c>
+      <c r="E1293" s="10" t="s">
+        <v>5191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1247" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1252">
-    <sortCondition ref="A2:A1252"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1255">
+    <sortCondition ref="A2:A1255"/>
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="E1211:E1213 E1170:E1195 E954:E1052 E913:E932 E729:E731 G663:G725 F533:F593 E1:E17 E19:E42 E44:E532 E735:E890 E892:E901 E903:E906 E1054:E1159 E1248:E1048576">
-    <cfRule type="duplicateValues" dxfId="628" priority="307"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A966:A969 A924:A962 A765:A875 A729:A731 A361:A362 A515:A532 A364:A513 A249:A359 A184:A247 A1:A182 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248:A1048576">
-    <cfRule type="duplicateValues" dxfId="627" priority="309"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A966:A969 A924:A962 A765:A875 A729:A731 A515:A532 A1:A513 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248:A1048576">
-    <cfRule type="duplicateValues" dxfId="626" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="308"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A361:A362 A515:A532 A364:A513 A249:A359 A184:A247 A1:A182 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
+    <cfRule type="duplicateValues" dxfId="628" priority="310"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A515:A532 A1:A513 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
+    <cfRule type="duplicateValues" dxfId="627" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A587:A593 A533:A534 A583 A566:A576 A549:A552 A554:A563 A536:A547">
+    <cfRule type="duplicateValues" dxfId="626" priority="306"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A1:A593 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="625" priority="305"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A966:A969 A924:A962 A765:A875 A729:A731 A1:A593 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248:A1048576">
+  <conditionalFormatting sqref="A624:A626 A594:A622 A628:A633">
     <cfRule type="duplicateValues" dxfId="624" priority="304"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A624:A626 A594:A622 A628:A633">
+  <conditionalFormatting sqref="A623">
     <cfRule type="duplicateValues" dxfId="623" priority="303"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A623">
-    <cfRule type="duplicateValues" dxfId="622" priority="302"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A628:A633 A594:A626">
+    <cfRule type="duplicateValues" dxfId="622" priority="293"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E624:E633 E594:E605 E607:E622">
     <cfRule type="duplicateValues" dxfId="621" priority="292"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E624:E633 E594:E605 E607:E622">
+  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A1:A626 A628:A633 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="620" priority="291"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A966:A969 A924:A962 A765:A875 A729:A731 A1:A626 A628:A633 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248:A1048576">
-    <cfRule type="duplicateValues" dxfId="619" priority="290"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A966:A969 A924:A962 A765:A875 A729:A731 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248:A1048576">
+  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
+    <cfRule type="duplicateValues" dxfId="619" priority="283"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
     <cfRule type="duplicateValues" dxfId="618" priority="282"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="duplicateValues" dxfId="617" priority="281"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E43">
+    <cfRule type="duplicateValues" dxfId="617" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1211:E1213 E1170:E1195 E954:E1052 E913:E932 E729:E731 E1:E605 E607:E633 E735:E890 E892:E901 E903:E906 E1054:E1159 E1248:E1048576">
     <cfRule type="duplicateValues" dxfId="616" priority="279"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1211:E1213 E1170:E1195 E954:E1052 E913:E932 E729:E731 E1:E605 E607:E633 E735:E890 E892:E901 E903:E906 E1054:E1159 E1248:E1048576">
-    <cfRule type="duplicateValues" dxfId="615" priority="278"/>
+  <conditionalFormatting sqref="A674:A676">
+    <cfRule type="duplicateValues" dxfId="615" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A674:A676">
     <cfRule type="duplicateValues" dxfId="614" priority="276"/>
@@ -41559,47 +42493,47 @@
   <conditionalFormatting sqref="A674:A676">
     <cfRule type="duplicateValues" dxfId="613" priority="275"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A674:A676">
+  <conditionalFormatting sqref="A694">
     <cfRule type="duplicateValues" dxfId="612" priority="274"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A694">
-    <cfRule type="duplicateValues" dxfId="611" priority="273"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E674:E693">
-    <cfRule type="duplicateValues" dxfId="610" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E674:E693 E695:E706 E708:E713 E715:E716 E718">
-    <cfRule type="duplicateValues" dxfId="609" priority="333"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A714">
+    <cfRule type="duplicateValues" dxfId="609" priority="271"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A724">
     <cfRule type="duplicateValues" dxfId="608" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A724">
     <cfRule type="duplicateValues" dxfId="607" priority="269"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A724">
+  <conditionalFormatting sqref="A727:A728">
     <cfRule type="duplicateValues" dxfId="606" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A727:A728">
     <cfRule type="duplicateValues" dxfId="605" priority="267"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A727:A728">
+  <conditionalFormatting sqref="A732:A734">
     <cfRule type="duplicateValues" dxfId="604" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A732:A734">
     <cfRule type="duplicateValues" dxfId="603" priority="265"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A732:A734">
+  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A1:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="602" priority="264"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A966:A969 A924:A962 A765:A875 A1:A749 A877:A922 A971:A1159 A1170:A1213 A1248:A1048576">
-    <cfRule type="duplicateValues" dxfId="601" priority="263"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A752">
-    <cfRule type="duplicateValues" dxfId="600" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A752">
-    <cfRule type="duplicateValues" dxfId="599" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="263"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A752">
+    <cfRule type="duplicateValues" dxfId="599" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A752">
     <cfRule type="duplicateValues" dxfId="598" priority="260"/>
@@ -41607,14 +42541,14 @@
   <conditionalFormatting sqref="A752">
     <cfRule type="duplicateValues" dxfId="597" priority="259"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A752">
-    <cfRule type="duplicateValues" dxfId="596" priority="258"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="595" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="594" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="258"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A755">
+    <cfRule type="duplicateValues" dxfId="594" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
     <cfRule type="duplicateValues" dxfId="593" priority="255"/>
@@ -41622,14 +42556,14 @@
   <conditionalFormatting sqref="A755">
     <cfRule type="duplicateValues" dxfId="592" priority="254"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A755">
-    <cfRule type="duplicateValues" dxfId="591" priority="253"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A759:A760">
-    <cfRule type="duplicateValues" dxfId="590" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A759:A760">
-    <cfRule type="duplicateValues" dxfId="589" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A759:A760">
+    <cfRule type="duplicateValues" dxfId="589" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A759:A760">
     <cfRule type="duplicateValues" dxfId="588" priority="235"/>
@@ -41640,14 +42574,14 @@
   <conditionalFormatting sqref="A759:A760">
     <cfRule type="duplicateValues" dxfId="586" priority="233"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A759:A760">
-    <cfRule type="duplicateValues" dxfId="585" priority="232"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A764">
-    <cfRule type="duplicateValues" dxfId="584" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764">
-    <cfRule type="duplicateValues" dxfId="583" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A764">
+    <cfRule type="duplicateValues" dxfId="583" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764">
     <cfRule type="duplicateValues" dxfId="582" priority="211"/>
@@ -41658,20 +42592,20 @@
   <conditionalFormatting sqref="A764">
     <cfRule type="duplicateValues" dxfId="580" priority="209"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A764">
+  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A877:A922 A1:A875 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="579" priority="208"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A966:A969 A924:A962 A877:A922 A1:A875 A971:A1159 A1170:A1213 A1248:A1048576">
-    <cfRule type="duplicateValues" dxfId="578" priority="207"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A761:A763 A750:A758">
-    <cfRule type="duplicateValues" dxfId="577" priority="610"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1160">
-    <cfRule type="duplicateValues" dxfId="576" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1160">
-    <cfRule type="duplicateValues" dxfId="575" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1160">
+    <cfRule type="duplicateValues" dxfId="575" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1160">
     <cfRule type="duplicateValues" dxfId="574" priority="204"/>
@@ -41685,14 +42619,14 @@
   <conditionalFormatting sqref="A1160">
     <cfRule type="duplicateValues" dxfId="571" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1160">
-    <cfRule type="duplicateValues" dxfId="570" priority="200"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1161">
-    <cfRule type="duplicateValues" dxfId="569" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1161">
-    <cfRule type="duplicateValues" dxfId="568" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1161">
+    <cfRule type="duplicateValues" dxfId="568" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1161">
     <cfRule type="duplicateValues" dxfId="567" priority="197"/>
@@ -41706,14 +42640,14 @@
   <conditionalFormatting sqref="A1161">
     <cfRule type="duplicateValues" dxfId="564" priority="194"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1161">
-    <cfRule type="duplicateValues" dxfId="563" priority="193"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1162">
-    <cfRule type="duplicateValues" dxfId="562" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1162">
-    <cfRule type="duplicateValues" dxfId="561" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1162">
+    <cfRule type="duplicateValues" dxfId="561" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1162">
     <cfRule type="duplicateValues" dxfId="560" priority="176"/>
@@ -41724,20 +42658,20 @@
   <conditionalFormatting sqref="A1162">
     <cfRule type="duplicateValues" dxfId="558" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1162">
-    <cfRule type="duplicateValues" dxfId="557" priority="173"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1163">
-    <cfRule type="duplicateValues" dxfId="556" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1163">
-    <cfRule type="duplicateValues" dxfId="555" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1164">
-    <cfRule type="duplicateValues" dxfId="554" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1164">
-    <cfRule type="duplicateValues" dxfId="553" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1164">
+    <cfRule type="duplicateValues" dxfId="553" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1164">
     <cfRule type="duplicateValues" dxfId="552" priority="156"/>
@@ -41751,14 +42685,14 @@
   <conditionalFormatting sqref="A1164">
     <cfRule type="duplicateValues" dxfId="549" priority="153"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1164">
-    <cfRule type="duplicateValues" dxfId="548" priority="152"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1165">
-    <cfRule type="duplicateValues" dxfId="547" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1165">
-    <cfRule type="duplicateValues" dxfId="546" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1165">
+    <cfRule type="duplicateValues" dxfId="546" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1165">
     <cfRule type="duplicateValues" dxfId="545" priority="137"/>
@@ -41769,14 +42703,14 @@
   <conditionalFormatting sqref="A1165">
     <cfRule type="duplicateValues" dxfId="543" priority="135"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1165">
-    <cfRule type="duplicateValues" dxfId="542" priority="134"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1166">
-    <cfRule type="duplicateValues" dxfId="541" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1166">
-    <cfRule type="duplicateValues" dxfId="540" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1166">
+    <cfRule type="duplicateValues" dxfId="540" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1166">
     <cfRule type="duplicateValues" dxfId="539" priority="73"/>
@@ -41790,79 +42724,79 @@
   <conditionalFormatting sqref="A1166">
     <cfRule type="duplicateValues" dxfId="536" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1166">
-    <cfRule type="duplicateValues" dxfId="535" priority="69"/>
+  <conditionalFormatting sqref="E1160">
+    <cfRule type="duplicateValues" dxfId="535" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1160">
     <cfRule type="duplicateValues" dxfId="534" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1160">
+  <conditionalFormatting sqref="E1161">
     <cfRule type="duplicateValues" dxfId="533" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1161">
     <cfRule type="duplicateValues" dxfId="532" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1161">
-    <cfRule type="duplicateValues" dxfId="531" priority="52"/>
+  <conditionalFormatting sqref="E1162">
+    <cfRule type="duplicateValues" dxfId="531" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1162">
     <cfRule type="duplicateValues" dxfId="530" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1162">
-    <cfRule type="duplicateValues" dxfId="529" priority="46"/>
+  <conditionalFormatting sqref="E1163">
+    <cfRule type="duplicateValues" dxfId="529" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1163">
     <cfRule type="duplicateValues" dxfId="528" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1163">
+  <conditionalFormatting sqref="E1164">
     <cfRule type="duplicateValues" dxfId="527" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1164">
     <cfRule type="duplicateValues" dxfId="526" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1164">
-    <cfRule type="duplicateValues" dxfId="525" priority="38"/>
+  <conditionalFormatting sqref="E1165">
+    <cfRule type="duplicateValues" dxfId="525" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1165">
     <cfRule type="duplicateValues" dxfId="524" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1165">
-    <cfRule type="duplicateValues" dxfId="523" priority="32"/>
+  <conditionalFormatting sqref="E1166">
+    <cfRule type="duplicateValues" dxfId="523" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1166">
     <cfRule type="duplicateValues" dxfId="522" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1166">
-    <cfRule type="duplicateValues" dxfId="521" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1248:A1048576 A1:A1213">
-    <cfRule type="duplicateValues" dxfId="520" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="519" priority="8"/>
+  <conditionalFormatting sqref="A1294:A1048576 A1248 A1:A1213">
+    <cfRule type="duplicateValues" dxfId="521" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1211:E1213 E1:E1195 E1248:E1048576">
     <cfRule type="duplicateValues" dxfId="518" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1211:E1213 E1:E1195 E1248:E1048576">
-    <cfRule type="duplicateValues" dxfId="517" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1167:A1169">
-    <cfRule type="duplicateValues" dxfId="516" priority="955"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="956"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1167:E1169">
-    <cfRule type="duplicateValues" dxfId="515" priority="956"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="957"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1214:A1247">
-    <cfRule type="duplicateValues" dxfId="514" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="513" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1215:B1220 A1222:B1222">
-    <cfRule type="duplicateValues" dxfId="512" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="513" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1294:A1048576 A1:A1248">
+    <cfRule type="duplicateValues" dxfId="512" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1215:E1225">
     <cfRule type="duplicateValues" dxfId="511" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1215:E1225">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="510" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="A1:A1256 A1294:A1048576">
     <cfRule type="duplicateValues" dxfId="509" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zdetl Lexicon.xlsx
+++ b/Zdetl Lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffkazmierski/Documents/GitHub/Zdetl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25587D5E-CB84-9F47-AE94-BC8031FE59EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D4D42-E77C-134B-B93E-E43F37C27FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9717" uniqueCount="5195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9788" uniqueCount="5219">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -15716,48 +15716,6 @@
     <t>ZAF</t>
   </si>
   <si>
-    <t xml:space="preserve"> -fraq   ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -fredr  ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -kekl   stale</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -iensh  old </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -klie   slow </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -med    clean </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -nie    ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -qapl   fresh </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -riem   ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -shte   fast</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -tlas   large; great </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -zda    ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -zdo    dull</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -zdodl  dirty; unclean</t>
-  </si>
-  <si>
     <t>small, lowly</t>
   </si>
   <si>
@@ -15788,13 +15746,127 @@
     <t>dirty or unclean</t>
   </si>
   <si>
-    <t xml:space="preserve"> -atch</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -davr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -dro</t>
+    <t>-fraq</t>
+  </si>
+  <si>
+    <t>-fredr</t>
+  </si>
+  <si>
+    <t>-kekl</t>
+  </si>
+  <si>
+    <t>-iensh</t>
+  </si>
+  <si>
+    <t>-klie</t>
+  </si>
+  <si>
+    <t>-med</t>
+  </si>
+  <si>
+    <t>-nie</t>
+  </si>
+  <si>
+    <t>-qapl</t>
+  </si>
+  <si>
+    <t>-riem</t>
+  </si>
+  <si>
+    <t>-shte</t>
+  </si>
+  <si>
+    <t>-zda</t>
+  </si>
+  <si>
+    <t>-zdo</t>
+  </si>
+  <si>
+    <t>-zdodl</t>
+  </si>
+  <si>
+    <t>-atch</t>
+  </si>
+  <si>
+    <t>-davr</t>
+  </si>
+  <si>
+    <t>-dro</t>
+  </si>
+  <si>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>Dam</t>
+  </si>
+  <si>
+    <t>fO</t>
+  </si>
+  <si>
+    <t>gAQ</t>
+  </si>
+  <si>
+    <t>gEf</t>
+  </si>
+  <si>
+    <t>Kek</t>
+  </si>
+  <si>
+    <t>e\</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Qap</t>
+  </si>
+  <si>
+    <t>ReM</t>
+  </si>
+  <si>
+    <t>hE</t>
+  </si>
+  <si>
+    <t>tAS</t>
+  </si>
+  <si>
+    <t>zA</t>
+  </si>
+  <si>
+    <t>zO</t>
+  </si>
+  <si>
+    <t>zOd</t>
+  </si>
+  <si>
+    <t>my, mine</t>
+  </si>
+  <si>
+    <t>your, yours</t>
+  </si>
+  <si>
+    <t>his, hers, its, theirs</t>
+  </si>
+  <si>
+    <t>-ens</t>
+  </si>
+  <si>
+    <t>Dis</t>
+  </si>
+  <si>
+    <t>-o`d</t>
+  </si>
+  <si>
+    <t>O`D</t>
+  </si>
+  <si>
+    <t>E}</t>
+  </si>
+  <si>
+    <t>-dish</t>
   </si>
 </sst>
 </file>
@@ -16392,7 +16464,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23044,11 +23116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:F1293"/>
+  <dimension ref="A1:F1297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1280" sqref="A1280"/>
+      <pane ySplit="1" topLeftCell="A1276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1295" sqref="B1295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -42317,15 +42389,33 @@
     </row>
     <row r="1277" spans="1:5" ht="17">
       <c r="A1277" s="128" t="s">
-        <v>5192</v>
+        <v>5191</v>
+      </c>
+      <c r="B1277" s="111" t="s">
+        <v>5194</v>
+      </c>
+      <c r="C1277" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1277" s="9" t="s">
+        <v>5042</v>
       </c>
       <c r="E1277" s="10" t="s">
-        <v>5182</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="1278" spans="1:5" ht="17">
       <c r="A1278" s="128" t="s">
-        <v>5193</v>
+        <v>5192</v>
+      </c>
+      <c r="B1278" s="111" t="s">
+        <v>5195</v>
+      </c>
+      <c r="C1278" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1278" s="9" t="s">
+        <v>5042</v>
       </c>
       <c r="E1278" s="10" t="s">
         <v>2793</v>
@@ -42333,49 +42423,112 @@
     </row>
     <row r="1279" spans="1:5" ht="17">
       <c r="A1279" s="128" t="s">
-        <v>5194</v>
+        <v>5193</v>
+      </c>
+      <c r="B1279" s="111" t="s">
+        <v>5196</v>
+      </c>
+      <c r="C1279" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1279" s="9" t="s">
+        <v>5042</v>
       </c>
       <c r="E1279" s="10" t="s">
-        <v>5183</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="1280" spans="1:5" ht="17">
       <c r="A1280" s="128" t="s">
-        <v>5168</v>
+        <v>5178</v>
+      </c>
+      <c r="B1280" s="111" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C1280" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1280" s="9" t="s">
+        <v>5042</v>
       </c>
     </row>
     <row r="1281" spans="1:5" ht="17">
       <c r="A1281" s="128" t="s">
-        <v>5169</v>
+        <v>5179</v>
+      </c>
+      <c r="B1281" s="111" t="s">
+        <v>5198</v>
+      </c>
+      <c r="C1281" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1281" s="9" t="s">
+        <v>5042</v>
       </c>
     </row>
     <row r="1282" spans="1:5" ht="17">
       <c r="A1282" s="128" t="s">
+        <v>5180</v>
+      </c>
+      <c r="B1282" s="111" t="s">
+        <v>5199</v>
+      </c>
+      <c r="C1282" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1282" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1282" s="10" t="s">
         <v>5170</v>
-      </c>
-      <c r="E1282" s="10" t="s">
-        <v>5184</v>
       </c>
     </row>
     <row r="1283" spans="1:5" ht="17">
       <c r="A1283" s="128" t="s">
+        <v>5181</v>
+      </c>
+      <c r="B1283" s="111" t="s">
+        <v>5200</v>
+      </c>
+      <c r="C1283" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1283" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1283" s="10" t="s">
         <v>5171</v>
-      </c>
-      <c r="E1283" s="10" t="s">
-        <v>5185</v>
       </c>
     </row>
     <row r="1284" spans="1:5" ht="17">
       <c r="A1284" s="128" t="s">
+        <v>5182</v>
+      </c>
+      <c r="B1284" s="111" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C1284" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1284" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1284" s="10" t="s">
         <v>5172</v>
-      </c>
-      <c r="E1284" s="10" t="s">
-        <v>5186</v>
       </c>
     </row>
     <row r="1285" spans="1:5" ht="17">
       <c r="A1285" s="128" t="s">
-        <v>5173</v>
+        <v>5183</v>
+      </c>
+      <c r="B1285" s="111" t="s">
+        <v>5201</v>
+      </c>
+      <c r="C1285" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1285" s="9" t="s">
+        <v>5042</v>
       </c>
       <c r="E1285" s="10" t="s">
         <v>3995</v>
@@ -42383,57 +42536,197 @@
     </row>
     <row r="1286" spans="1:5" ht="17">
       <c r="A1286" s="128" t="s">
-        <v>5174</v>
+        <v>5184</v>
+      </c>
+      <c r="B1286" s="111" t="s">
+        <v>5202</v>
+      </c>
+      <c r="C1286" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1286" s="9" t="s">
+        <v>5042</v>
       </c>
     </row>
     <row r="1287" spans="1:5" ht="17">
       <c r="A1287" s="128" t="s">
-        <v>5175</v>
+        <v>5185</v>
+      </c>
+      <c r="B1287" s="111" t="s">
+        <v>5203</v>
+      </c>
+      <c r="C1287" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1287" s="9" t="s">
+        <v>5042</v>
       </c>
       <c r="E1287" s="10" t="s">
-        <v>5187</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="1288" spans="1:5" ht="17">
       <c r="A1288" s="128" t="s">
-        <v>5176</v>
+        <v>5186</v>
+      </c>
+      <c r="B1288" s="111" t="s">
+        <v>5204</v>
+      </c>
+      <c r="C1288" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1288" s="9" t="s">
+        <v>5042</v>
       </c>
     </row>
     <row r="1289" spans="1:5" ht="17">
       <c r="A1289" s="128" t="s">
-        <v>5177</v>
+        <v>5187</v>
+      </c>
+      <c r="B1289" s="111" t="s">
+        <v>5205</v>
+      </c>
+      <c r="C1289" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1289" s="9" t="s">
+        <v>5042</v>
       </c>
       <c r="E1289" s="10" t="s">
-        <v>5188</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="1290" spans="1:5" ht="17">
       <c r="A1290" s="128" t="s">
-        <v>5178</v>
+        <v>895</v>
+      </c>
+      <c r="B1290" s="111" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C1290" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1290" s="9" t="s">
+        <v>5042</v>
       </c>
       <c r="E1290" s="10" t="s">
-        <v>5189</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="1291" spans="1:5" ht="17">
       <c r="A1291" s="128" t="s">
-        <v>5179</v>
+        <v>5188</v>
+      </c>
+      <c r="B1291" s="111" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C1291" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1291" s="9" t="s">
+        <v>5042</v>
       </c>
     </row>
     <row r="1292" spans="1:5" ht="17">
       <c r="A1292" s="128" t="s">
-        <v>5180</v>
+        <v>5189</v>
+      </c>
+      <c r="B1292" s="111" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C1292" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1292" s="9" t="s">
+        <v>5042</v>
       </c>
       <c r="E1292" s="10" t="s">
-        <v>5190</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="1293" spans="1:5" ht="17">
       <c r="A1293" s="128" t="s">
-        <v>5181</v>
+        <v>5190</v>
+      </c>
+      <c r="B1293" s="111" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C1293" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1293" s="9" t="s">
+        <v>5042</v>
       </c>
       <c r="E1293" s="10" t="s">
-        <v>5191</v>
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" ht="17">
+      <c r="A1294" s="128" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1294" s="111" t="s">
+        <v>5073</v>
+      </c>
+      <c r="C1294" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1294" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1294" s="10" t="s">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" ht="17">
+      <c r="A1295" s="128" t="s">
+        <v>5218</v>
+      </c>
+      <c r="B1295" s="111" t="s">
+        <v>5214</v>
+      </c>
+      <c r="C1295" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1295" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1295" s="10" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" ht="17">
+      <c r="A1296" s="128" t="s">
+        <v>5215</v>
+      </c>
+      <c r="B1296" s="111" t="s">
+        <v>5216</v>
+      </c>
+      <c r="C1296" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1296" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1296" s="10" t="s">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" ht="17">
+      <c r="A1297" s="128" t="s">
+        <v>5213</v>
+      </c>
+      <c r="B1297" s="111" t="s">
+        <v>5217</v>
+      </c>
+      <c r="C1297" s="9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1297" s="9" t="s">
+        <v>5042</v>
+      </c>
+      <c r="E1297" s="10" t="s">
+        <v>5212</v>
       </c>
     </row>
   </sheetData>
@@ -42445,16 +42738,16 @@
   <conditionalFormatting sqref="E1211:E1213 E1170:E1195 E954:E1052 E913:E932 E729:E731 G663:G725 F533:F593 E1:E17 E19:E42 E44:E532 E735:E890 E892:E901 E903:E906 E1054:E1159 E1248:E1048576">
     <cfRule type="duplicateValues" dxfId="629" priority="308"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A361:A362 A515:A532 A364:A513 A249:A359 A184:A247 A1:A182 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
+  <conditionalFormatting sqref="A1298:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A361:A362 A515:A532 A364:A513 A249:A359 A184:A247 A1:A182 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="628" priority="310"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A515:A532 A1:A513 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
+  <conditionalFormatting sqref="A1298:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A515:A532 A1:A513 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="627" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A587:A593 A533:A534 A583 A566:A576 A549:A552 A554:A563 A536:A547">
     <cfRule type="duplicateValues" dxfId="626" priority="306"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A1:A593 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
+  <conditionalFormatting sqref="A1298:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A1:A593 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="625" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A624:A626 A594:A622 A628:A633">
@@ -42469,10 +42762,10 @@
   <conditionalFormatting sqref="E624:E633 E594:E605 E607:E622">
     <cfRule type="duplicateValues" dxfId="621" priority="292"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A1:A626 A628:A633 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
+  <conditionalFormatting sqref="A1298:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A1:A626 A628:A633 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="620" priority="291"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
+  <conditionalFormatting sqref="A1298:A1048576 A966:A969 A924:A962 A765:A875 A729:A731 A735:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="619" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
@@ -42523,7 +42816,7 @@
   <conditionalFormatting sqref="A732:A734">
     <cfRule type="duplicateValues" dxfId="603" priority="265"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A765:A875 A1:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
+  <conditionalFormatting sqref="A1298:A1048576 A966:A969 A924:A962 A765:A875 A1:A749 A877:A922 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="602" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A752">
@@ -42592,7 +42885,7 @@
   <conditionalFormatting sqref="A764">
     <cfRule type="duplicateValues" dxfId="580" priority="209"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1294:A1048576 A966:A969 A924:A962 A877:A922 A1:A875 A971:A1159 A1170:A1213 A1248">
+  <conditionalFormatting sqref="A1298:A1048576 A966:A969 A924:A962 A877:A922 A1:A875 A971:A1159 A1170:A1213 A1248">
     <cfRule type="duplicateValues" dxfId="579" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A761:A763 A750:A758">
@@ -42766,7 +43059,7 @@
   <conditionalFormatting sqref="E1166">
     <cfRule type="duplicateValues" dxfId="522" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1294:A1048576 A1248 A1:A1213">
+  <conditionalFormatting sqref="A1298:A1048576 A1248 A1:A1213">
     <cfRule type="duplicateValues" dxfId="521" priority="8"/>
     <cfRule type="duplicateValues" dxfId="520" priority="9"/>
     <cfRule type="duplicateValues" dxfId="519" priority="11"/>
@@ -42787,7 +43080,7 @@
   <conditionalFormatting sqref="A1215:B1220 A1222:B1222">
     <cfRule type="duplicateValues" dxfId="513" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1294:A1048576 A1:A1248">
+  <conditionalFormatting sqref="A1298:A1048576 A1:A1248">
     <cfRule type="duplicateValues" dxfId="512" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1215:E1225">
@@ -42796,7 +43089,7 @@
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="510" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1256 A1294:A1048576">
+  <conditionalFormatting sqref="A1:A1256 A1298:A1048576">
     <cfRule type="duplicateValues" dxfId="509" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
